--- a/Bitacoras/Bitacora_4.xlsx
+++ b/Bitacoras/Bitacora_4.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Harol\Desktop\Notas-sena\Bitacoras\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a195dc11b842bbc7/Escritorio/Notas-sena/Bitacoras/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5374AE3-5B60-4CDE-A0A2-3594934A88FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="26" documentId="13_ncr:1_{E5374AE3-5B60-4CDE-A0A2-3594934A88FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B17FF980-CE03-460C-9D90-B42113260EAE}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="125">
   <si>
     <t>BITÁCORA DE SEGUIMIENTO ETAPA PRODUCTIVA</t>
   </si>
@@ -414,25 +414,19 @@
     <t>hysanchez334@sena.edu.co</t>
   </si>
   <si>
-    <t>Capacitacion [Como funciona internet]: En esta capacitacion vimos como funciona internet de una manera mas detallada y se realiza un manual para interiorizar la informacion.</t>
-  </si>
-  <si>
-    <t>Capacitacion [Servicios para desarrollar BTP]: En esta capacitacion revisamos las herramientas que tenemos como desarrolladores en la infraestructura de SAP, la cual es BTP</t>
-  </si>
-  <si>
-    <t>Capacitacion [Despliegue en la nube BTP]: En esta capacitacion vimos como desplegar un proyecto en la nube con las respectivas integraciones.</t>
-  </si>
-  <si>
-    <t>Capacitacion [Conexión Cloud Connector BTP]: En esta capcitacion vimos como hacer una conexión al cloud connecto en BTP, esto nos sirve para traer o exportar informacion a la nube.</t>
-  </si>
-  <si>
-    <t>Capacitacion de principios: Estas capacitaciones se dictan para mejorar las habilidades de cada trabajador</t>
-  </si>
-  <si>
     <t>Manual</t>
   </si>
   <si>
     <t>7/12/2023 A 22/12/2023</t>
+  </si>
+  <si>
+    <t>Curso introducción al desarrollo back-end: En esta sección vimos las diferentes peticiones HTTP (Get, Post, Put, Delete), que son las APIS, que son las bases de datos, que es la nube.</t>
+  </si>
+  <si>
+    <t>Curso fundamentos de bases de datos: Se vio un poco la historia de las bases de datos, tipos de bases de datos, conceptos DDL y DML, comandos iniciales en SQL.</t>
+  </si>
+  <si>
+    <t>Curso de introduccion a BTP, en la plataforma openSAP</t>
   </si>
 </sst>
 </file>
@@ -975,6 +969,220 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -984,206 +1192,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1191,21 +1200,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1414,22 +1408,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>1088571</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>40822</xdr:rowOff>
+      <xdr:colOff>244928</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>272143</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>935888</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>441605</xdr:rowOff>
+      <xdr:colOff>2114142</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>2630372</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Imagen 6">
+        <xdr:cNvPr id="2" name="Imagen 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E4DDE67-E6F8-D9D4-2815-0DD742E53F1D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C527DF9F-5851-44DF-8E20-E220AC96045E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1445,8 +1439,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7198178" y="7130143"/>
-          <a:ext cx="5916103" cy="3829783"/>
+          <a:off x="6354535" y="11280322"/>
+          <a:ext cx="7938000" cy="3011371"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1457,23 +1451,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>54428</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>81643</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>272143</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>108857</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>463719</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>2734041</xdr:rowOff>
+      <xdr:colOff>2141357</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>2704153</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Imagen 7">
+        <xdr:cNvPr id="4" name="Imagen 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D70A446-A0E0-A6DC-E318-2BB464F8E929}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{151C5A18-1B1B-4A71-B04E-02412361D763}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1489,8 +1483,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7443107" y="11089822"/>
-          <a:ext cx="5199005" cy="3305540"/>
+          <a:off x="6381750" y="14546036"/>
+          <a:ext cx="7938000" cy="3248438"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1501,23 +1495,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>1238251</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>40822</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>68036</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>54428</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>625654</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>2733519</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>1106459</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>130665</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Imagen 8">
+        <xdr:cNvPr id="5" name="Imagen 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EEBD8DF7-7090-0F27-B47B-8B005ED20786}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2C6720D-07BF-4D4A-7009-EA8F854C1917}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1533,96 +1527,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7347858" y="14614072"/>
-          <a:ext cx="5456189" cy="3345839"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>802822</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>81643</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>1074232</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>3333750</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="Imagen 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9860FA8C-E5DE-A8A5-F44C-A755448B3530}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6912429" y="17947822"/>
-          <a:ext cx="6340196" cy="3905249"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>816428</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>204108</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>1120756</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>1761194</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="Imagen 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39B72AA8-FD2F-7AAB-FBB4-AD06762BB4B5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6926035" y="22166037"/>
-          <a:ext cx="6373114" cy="3067478"/>
+          <a:off x="5796643" y="18301607"/>
+          <a:ext cx="1419423" cy="266737"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1711,6 +1617,10 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2846,10 +2756,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:Y53"/>
+  <dimension ref="B1:Y49"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="T11" sqref="T11"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A37" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O52" sqref="O52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2879,294 +2789,294 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:25" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="93"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="94"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="75"/>
-      <c r="L1" s="75"/>
-      <c r="M1" s="75"/>
-      <c r="N1" s="75"/>
-      <c r="O1" s="75"/>
-      <c r="P1" s="75"/>
-      <c r="Q1" s="75"/>
-      <c r="R1" s="75"/>
-      <c r="S1" s="75"/>
-      <c r="T1" s="75"/>
-      <c r="U1" s="75"/>
-      <c r="V1" s="95"/>
-      <c r="W1" s="90" t="s">
+      <c r="B1" s="83"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
+      <c r="M1" s="66"/>
+      <c r="N1" s="66"/>
+      <c r="O1" s="66"/>
+      <c r="P1" s="66"/>
+      <c r="Q1" s="66"/>
+      <c r="R1" s="66"/>
+      <c r="S1" s="66"/>
+      <c r="T1" s="66"/>
+      <c r="U1" s="66"/>
+      <c r="V1" s="85"/>
+      <c r="W1" s="80" t="s">
         <v>102</v>
       </c>
-      <c r="X1" s="91"/>
-      <c r="Y1" s="91"/>
+      <c r="X1" s="81"/>
+      <c r="Y1" s="81"/>
     </row>
     <row r="2" spans="2:25" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="93"/>
-      <c r="C2" s="94"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="94"/>
-      <c r="F2" s="94"/>
-      <c r="G2" s="94"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="94"/>
-      <c r="J2" s="75"/>
-      <c r="K2" s="75"/>
-      <c r="L2" s="75"/>
-      <c r="M2" s="75"/>
-      <c r="N2" s="75"/>
-      <c r="O2" s="75"/>
-      <c r="P2" s="75"/>
-      <c r="Q2" s="75"/>
-      <c r="R2" s="75"/>
-      <c r="S2" s="75"/>
-      <c r="T2" s="75"/>
-      <c r="U2" s="75"/>
-      <c r="V2" s="95"/>
-      <c r="W2" s="92" t="s">
+      <c r="B2" s="83"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="84"/>
+      <c r="G2" s="84"/>
+      <c r="H2" s="84"/>
+      <c r="I2" s="84"/>
+      <c r="J2" s="66"/>
+      <c r="K2" s="66"/>
+      <c r="L2" s="66"/>
+      <c r="M2" s="66"/>
+      <c r="N2" s="66"/>
+      <c r="O2" s="66"/>
+      <c r="P2" s="66"/>
+      <c r="Q2" s="66"/>
+      <c r="R2" s="66"/>
+      <c r="S2" s="66"/>
+      <c r="T2" s="66"/>
+      <c r="U2" s="66"/>
+      <c r="V2" s="85"/>
+      <c r="W2" s="82" t="s">
         <v>82</v>
       </c>
-      <c r="X2" s="91"/>
-      <c r="Y2" s="91"/>
+      <c r="X2" s="81"/>
+      <c r="Y2" s="81"/>
     </row>
     <row r="3" spans="2:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="96" t="s">
+      <c r="B3" s="86" t="s">
         <v>100</v>
       </c>
-      <c r="C3" s="97"/>
-      <c r="D3" s="97"/>
-      <c r="E3" s="97"/>
-      <c r="F3" s="97"/>
-      <c r="G3" s="97"/>
-      <c r="H3" s="97"/>
-      <c r="I3" s="97"/>
-      <c r="J3" s="97"/>
-      <c r="K3" s="98"/>
-      <c r="L3" s="98"/>
-      <c r="M3" s="98"/>
-      <c r="N3" s="98"/>
-      <c r="O3" s="98"/>
-      <c r="P3" s="98"/>
-      <c r="Q3" s="98"/>
-      <c r="R3" s="98"/>
-      <c r="S3" s="98"/>
-      <c r="T3" s="98"/>
-      <c r="U3" s="98"/>
-      <c r="V3" s="98"/>
-      <c r="W3" s="98"/>
-      <c r="X3" s="98"/>
-      <c r="Y3" s="98"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="88"/>
+      <c r="M3" s="88"/>
+      <c r="N3" s="88"/>
+      <c r="O3" s="88"/>
+      <c r="P3" s="88"/>
+      <c r="Q3" s="88"/>
+      <c r="R3" s="88"/>
+      <c r="S3" s="88"/>
+      <c r="T3" s="88"/>
+      <c r="U3" s="88"/>
+      <c r="V3" s="88"/>
+      <c r="W3" s="88"/>
+      <c r="X3" s="88"/>
+      <c r="Y3" s="88"/>
     </row>
     <row r="4" spans="2:25" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="96" t="s">
+      <c r="B4" s="86" t="s">
         <v>101</v>
       </c>
-      <c r="C4" s="97"/>
-      <c r="D4" s="97"/>
-      <c r="E4" s="97"/>
-      <c r="F4" s="97"/>
-      <c r="G4" s="97"/>
-      <c r="H4" s="97"/>
-      <c r="I4" s="97"/>
-      <c r="J4" s="97"/>
-      <c r="K4" s="98"/>
-      <c r="L4" s="98"/>
-      <c r="M4" s="98"/>
-      <c r="N4" s="98"/>
-      <c r="O4" s="98"/>
-      <c r="P4" s="98"/>
-      <c r="Q4" s="98"/>
-      <c r="R4" s="98"/>
-      <c r="S4" s="98"/>
-      <c r="T4" s="98"/>
-      <c r="U4" s="98"/>
-      <c r="V4" s="98"/>
-      <c r="W4" s="98"/>
-      <c r="X4" s="98"/>
-      <c r="Y4" s="98"/>
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
+      <c r="J4" s="87"/>
+      <c r="K4" s="88"/>
+      <c r="L4" s="88"/>
+      <c r="M4" s="88"/>
+      <c r="N4" s="88"/>
+      <c r="O4" s="88"/>
+      <c r="P4" s="88"/>
+      <c r="Q4" s="88"/>
+      <c r="R4" s="88"/>
+      <c r="S4" s="88"/>
+      <c r="T4" s="88"/>
+      <c r="U4" s="88"/>
+      <c r="V4" s="88"/>
+      <c r="W4" s="88"/>
+      <c r="X4" s="88"/>
+      <c r="Y4" s="88"/>
     </row>
     <row r="5" spans="2:25" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="67" t="s">
+      <c r="B5" s="59" t="s">
         <v>110</v>
       </c>
-      <c r="C5" s="68"/>
-      <c r="D5" s="68"/>
-      <c r="E5" s="68"/>
-      <c r="F5" s="68"/>
-      <c r="G5" s="68"/>
-      <c r="H5" s="68"/>
-      <c r="I5" s="68"/>
-      <c r="J5" s="68"/>
-      <c r="K5" s="68"/>
-      <c r="L5" s="68"/>
-      <c r="M5" s="68"/>
-      <c r="N5" s="68"/>
-      <c r="O5" s="68"/>
-      <c r="P5" s="68"/>
-      <c r="Q5" s="68"/>
-      <c r="R5" s="68"/>
-      <c r="S5" s="68"/>
-      <c r="T5" s="68"/>
-      <c r="U5" s="68"/>
-      <c r="V5" s="68"/>
-      <c r="W5" s="68"/>
-      <c r="X5" s="68"/>
-      <c r="Y5" s="69"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="60"/>
+      <c r="I5" s="60"/>
+      <c r="J5" s="60"/>
+      <c r="K5" s="60"/>
+      <c r="L5" s="60"/>
+      <c r="M5" s="60"/>
+      <c r="N5" s="60"/>
+      <c r="O5" s="60"/>
+      <c r="P5" s="60"/>
+      <c r="Q5" s="60"/>
+      <c r="R5" s="60"/>
+      <c r="S5" s="60"/>
+      <c r="T5" s="60"/>
+      <c r="U5" s="60"/>
+      <c r="V5" s="60"/>
+      <c r="W5" s="60"/>
+      <c r="X5" s="60"/>
+      <c r="Y5" s="61"/>
     </row>
     <row r="6" spans="2:25" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="67" t="s">
+      <c r="B6" s="59" t="s">
         <v>111</v>
       </c>
-      <c r="C6" s="68"/>
-      <c r="D6" s="68"/>
-      <c r="E6" s="68"/>
-      <c r="F6" s="68"/>
-      <c r="G6" s="68"/>
-      <c r="H6" s="68"/>
-      <c r="I6" s="68"/>
-      <c r="J6" s="68"/>
-      <c r="K6" s="68"/>
-      <c r="L6" s="68"/>
-      <c r="M6" s="68"/>
-      <c r="N6" s="68"/>
-      <c r="O6" s="68"/>
-      <c r="P6" s="68"/>
-      <c r="Q6" s="68"/>
-      <c r="R6" s="68"/>
-      <c r="S6" s="68"/>
-      <c r="T6" s="68"/>
-      <c r="U6" s="68"/>
-      <c r="V6" s="68"/>
-      <c r="W6" s="68"/>
-      <c r="X6" s="68"/>
-      <c r="Y6" s="69"/>
+      <c r="C6" s="60"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="60"/>
+      <c r="H6" s="60"/>
+      <c r="I6" s="60"/>
+      <c r="J6" s="60"/>
+      <c r="K6" s="60"/>
+      <c r="L6" s="60"/>
+      <c r="M6" s="60"/>
+      <c r="N6" s="60"/>
+      <c r="O6" s="60"/>
+      <c r="P6" s="60"/>
+      <c r="Q6" s="60"/>
+      <c r="R6" s="60"/>
+      <c r="S6" s="60"/>
+      <c r="T6" s="60"/>
+      <c r="U6" s="60"/>
+      <c r="V6" s="60"/>
+      <c r="W6" s="60"/>
+      <c r="X6" s="60"/>
+      <c r="Y6" s="61"/>
     </row>
     <row r="7" spans="2:25" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="70" t="s">
+      <c r="B7" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="71"/>
-      <c r="D7" s="71"/>
-      <c r="E7" s="71"/>
-      <c r="F7" s="71"/>
-      <c r="G7" s="71"/>
-      <c r="H7" s="71"/>
-      <c r="I7" s="71"/>
-      <c r="J7" s="71"/>
-      <c r="K7" s="71"/>
-      <c r="L7" s="71"/>
-      <c r="M7" s="71"/>
-      <c r="N7" s="71"/>
-      <c r="O7" s="71"/>
-      <c r="P7" s="71"/>
-      <c r="Q7" s="71"/>
-      <c r="R7" s="71"/>
-      <c r="S7" s="71"/>
-      <c r="T7" s="71"/>
-      <c r="U7" s="71"/>
-      <c r="V7" s="71"/>
-      <c r="W7" s="71"/>
-      <c r="X7" s="71"/>
-      <c r="Y7" s="71"/>
+      <c r="C7" s="63"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="63"/>
+      <c r="F7" s="63"/>
+      <c r="G7" s="63"/>
+      <c r="H7" s="63"/>
+      <c r="I7" s="63"/>
+      <c r="J7" s="63"/>
+      <c r="K7" s="63"/>
+      <c r="L7" s="63"/>
+      <c r="M7" s="63"/>
+      <c r="N7" s="63"/>
+      <c r="O7" s="63"/>
+      <c r="P7" s="63"/>
+      <c r="Q7" s="63"/>
+      <c r="R7" s="63"/>
+      <c r="S7" s="63"/>
+      <c r="T7" s="63"/>
+      <c r="U7" s="63"/>
+      <c r="V7" s="63"/>
+      <c r="W7" s="63"/>
+      <c r="X7" s="63"/>
+      <c r="Y7" s="63"/>
     </row>
     <row r="8" spans="2:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="72"/>
-      <c r="C8" s="73"/>
-      <c r="D8" s="73"/>
-      <c r="E8" s="73"/>
-      <c r="F8" s="73"/>
-      <c r="G8" s="73"/>
-      <c r="H8" s="73"/>
-      <c r="I8" s="73"/>
-      <c r="J8" s="73"/>
-      <c r="K8" s="73"/>
-      <c r="L8" s="73"/>
-      <c r="M8" s="73"/>
-      <c r="N8" s="73"/>
-      <c r="O8" s="73"/>
-      <c r="P8" s="73"/>
-      <c r="Q8" s="73"/>
-      <c r="R8" s="73"/>
-      <c r="S8" s="73"/>
-      <c r="T8" s="73"/>
-      <c r="U8" s="73"/>
-      <c r="V8" s="73"/>
-      <c r="W8" s="73"/>
-      <c r="X8" s="73"/>
-      <c r="Y8" s="73"/>
+      <c r="B8" s="56"/>
+      <c r="C8" s="64"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="64"/>
+      <c r="G8" s="64"/>
+      <c r="H8" s="64"/>
+      <c r="I8" s="64"/>
+      <c r="J8" s="64"/>
+      <c r="K8" s="64"/>
+      <c r="L8" s="64"/>
+      <c r="M8" s="64"/>
+      <c r="N8" s="64"/>
+      <c r="O8" s="64"/>
+      <c r="P8" s="64"/>
+      <c r="Q8" s="64"/>
+      <c r="R8" s="64"/>
+      <c r="S8" s="64"/>
+      <c r="T8" s="64"/>
+      <c r="U8" s="64"/>
+      <c r="V8" s="64"/>
+      <c r="W8" s="64"/>
+      <c r="X8" s="64"/>
+      <c r="Y8" s="64"/>
     </row>
     <row r="9" spans="2:25" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="80" t="s">
+      <c r="B9" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="80"/>
-      <c r="D9" s="80"/>
-      <c r="E9" s="80"/>
-      <c r="F9" s="80"/>
-      <c r="G9" s="80"/>
-      <c r="H9" s="80"/>
-      <c r="I9" s="80"/>
-      <c r="J9" s="80"/>
-      <c r="K9" s="80"/>
-      <c r="L9" s="80"/>
-      <c r="M9" s="80" t="s">
+      <c r="C9" s="70"/>
+      <c r="D9" s="70"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="70"/>
+      <c r="G9" s="70"/>
+      <c r="H9" s="70"/>
+      <c r="I9" s="70"/>
+      <c r="J9" s="70"/>
+      <c r="K9" s="70"/>
+      <c r="L9" s="70"/>
+      <c r="M9" s="70" t="s">
         <v>83</v>
       </c>
-      <c r="N9" s="92"/>
-      <c r="O9" s="92"/>
-      <c r="P9" s="110" t="s">
+      <c r="N9" s="82"/>
+      <c r="O9" s="82"/>
+      <c r="P9" s="109" t="s">
         <v>2</v>
       </c>
-      <c r="Q9" s="115"/>
-      <c r="R9" s="115"/>
-      <c r="S9" s="116"/>
-      <c r="T9" s="80" t="s">
+      <c r="Q9" s="120"/>
+      <c r="R9" s="120"/>
+      <c r="S9" s="121"/>
+      <c r="T9" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="U9" s="80"/>
-      <c r="V9" s="80"/>
-      <c r="W9" s="80"/>
-      <c r="X9" s="80"/>
-      <c r="Y9" s="80"/>
+      <c r="U9" s="70"/>
+      <c r="V9" s="70"/>
+      <c r="W9" s="70"/>
+      <c r="X9" s="70"/>
+      <c r="Y9" s="70"/>
     </row>
     <row r="10" spans="2:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="117" t="s">
+      <c r="B10" s="112" t="s">
         <v>112</v>
       </c>
-      <c r="C10" s="118"/>
-      <c r="D10" s="118"/>
-      <c r="E10" s="118"/>
-      <c r="F10" s="118"/>
-      <c r="G10" s="118"/>
-      <c r="H10" s="118"/>
-      <c r="I10" s="118"/>
-      <c r="J10" s="118"/>
-      <c r="K10" s="118"/>
-      <c r="L10" s="119"/>
-      <c r="M10" s="80" t="s">
+      <c r="C10" s="113"/>
+      <c r="D10" s="113"/>
+      <c r="E10" s="113"/>
+      <c r="F10" s="113"/>
+      <c r="G10" s="113"/>
+      <c r="H10" s="113"/>
+      <c r="I10" s="113"/>
+      <c r="J10" s="113"/>
+      <c r="K10" s="113"/>
+      <c r="L10" s="114"/>
+      <c r="M10" s="70" t="s">
         <v>113</v>
       </c>
-      <c r="N10" s="92"/>
-      <c r="O10" s="92"/>
-      <c r="P10" s="110">
+      <c r="N10" s="82"/>
+      <c r="O10" s="82"/>
+      <c r="P10" s="109">
         <v>4</v>
       </c>
-      <c r="Q10" s="115"/>
-      <c r="R10" s="115"/>
-      <c r="S10" s="116"/>
-      <c r="T10" s="113" t="s">
-        <v>126</v>
-      </c>
-      <c r="U10" s="113"/>
-      <c r="V10" s="113"/>
-      <c r="W10" s="113"/>
-      <c r="X10" s="113"/>
-      <c r="Y10" s="113"/>
+      <c r="Q10" s="120"/>
+      <c r="R10" s="120"/>
+      <c r="S10" s="121"/>
+      <c r="T10" s="118" t="s">
+        <v>121</v>
+      </c>
+      <c r="U10" s="118"/>
+      <c r="V10" s="118"/>
+      <c r="W10" s="118"/>
+      <c r="X10" s="118"/>
+      <c r="Y10" s="118"/>
     </row>
     <row r="11" spans="2:25" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="3"/>
@@ -3195,68 +3105,68 @@
       <c r="Y11" s="3"/>
     </row>
     <row r="12" spans="2:25" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="122" t="s">
+      <c r="B12" s="117" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="122"/>
-      <c r="D12" s="122"/>
-      <c r="E12" s="122"/>
-      <c r="F12" s="122"/>
-      <c r="G12" s="122"/>
-      <c r="H12" s="122"/>
-      <c r="I12" s="122"/>
-      <c r="J12" s="122"/>
-      <c r="K12" s="114" t="s">
+      <c r="C12" s="117"/>
+      <c r="D12" s="117"/>
+      <c r="E12" s="117"/>
+      <c r="F12" s="117"/>
+      <c r="G12" s="117"/>
+      <c r="H12" s="117"/>
+      <c r="I12" s="117"/>
+      <c r="J12" s="117"/>
+      <c r="K12" s="119" t="s">
         <v>5</v>
       </c>
-      <c r="L12" s="114"/>
-      <c r="M12" s="114"/>
-      <c r="N12" s="114"/>
-      <c r="O12" s="114"/>
-      <c r="P12" s="114"/>
-      <c r="Q12" s="114" t="s">
+      <c r="L12" s="119"/>
+      <c r="M12" s="119"/>
+      <c r="N12" s="119"/>
+      <c r="O12" s="119"/>
+      <c r="P12" s="119"/>
+      <c r="Q12" s="119" t="s">
         <v>6</v>
       </c>
-      <c r="R12" s="114"/>
-      <c r="S12" s="114"/>
-      <c r="T12" s="114"/>
-      <c r="U12" s="114"/>
-      <c r="V12" s="114"/>
-      <c r="W12" s="114"/>
-      <c r="X12" s="114"/>
-      <c r="Y12" s="114"/>
+      <c r="R12" s="119"/>
+      <c r="S12" s="119"/>
+      <c r="T12" s="119"/>
+      <c r="U12" s="119"/>
+      <c r="V12" s="119"/>
+      <c r="W12" s="119"/>
+      <c r="X12" s="119"/>
+      <c r="Y12" s="119"/>
     </row>
     <row r="13" spans="2:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="120" t="s">
+      <c r="B13" s="115" t="s">
         <v>114</v>
       </c>
-      <c r="C13" s="106"/>
-      <c r="D13" s="106"/>
-      <c r="E13" s="106"/>
-      <c r="F13" s="106"/>
-      <c r="G13" s="106"/>
-      <c r="H13" s="106"/>
-      <c r="I13" s="106"/>
-      <c r="J13" s="121"/>
-      <c r="K13" s="108">
+      <c r="C13" s="105"/>
+      <c r="D13" s="105"/>
+      <c r="E13" s="105"/>
+      <c r="F13" s="105"/>
+      <c r="G13" s="105"/>
+      <c r="H13" s="105"/>
+      <c r="I13" s="105"/>
+      <c r="J13" s="116"/>
+      <c r="K13" s="107">
         <v>3002132878</v>
       </c>
-      <c r="L13" s="108"/>
-      <c r="M13" s="108"/>
-      <c r="N13" s="108"/>
-      <c r="O13" s="108"/>
-      <c r="P13" s="108"/>
-      <c r="Q13" s="125" t="s">
+      <c r="L13" s="107"/>
+      <c r="M13" s="107"/>
+      <c r="N13" s="107"/>
+      <c r="O13" s="107"/>
+      <c r="P13" s="107"/>
+      <c r="Q13" s="122" t="s">
         <v>115</v>
       </c>
-      <c r="R13" s="108"/>
-      <c r="S13" s="108"/>
-      <c r="T13" s="108"/>
-      <c r="U13" s="108"/>
-      <c r="V13" s="108"/>
-      <c r="W13" s="108"/>
-      <c r="X13" s="108"/>
-      <c r="Y13" s="108"/>
+      <c r="R13" s="107"/>
+      <c r="S13" s="107"/>
+      <c r="T13" s="107"/>
+      <c r="U13" s="107"/>
+      <c r="V13" s="107"/>
+      <c r="W13" s="107"/>
+      <c r="X13" s="107"/>
+      <c r="Y13" s="107"/>
     </row>
     <row r="14" spans="2:25" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="3"/>
@@ -3285,100 +3195,100 @@
       <c r="Y14" s="3"/>
     </row>
     <row r="15" spans="2:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="74" t="s">
+      <c r="B15" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="74"/>
-      <c r="D15" s="74"/>
-      <c r="E15" s="74"/>
-      <c r="F15" s="74"/>
-      <c r="G15" s="74"/>
-      <c r="H15" s="74"/>
-      <c r="I15" s="74"/>
-      <c r="J15" s="74"/>
-      <c r="K15" s="74"/>
-      <c r="L15" s="74"/>
-      <c r="M15" s="74"/>
-      <c r="N15" s="74"/>
-      <c r="O15" s="74"/>
-      <c r="P15" s="74"/>
-      <c r="Q15" s="74"/>
-      <c r="R15" s="74"/>
-      <c r="S15" s="74"/>
-      <c r="T15" s="74"/>
-      <c r="U15" s="74"/>
-      <c r="V15" s="74"/>
-      <c r="W15" s="74"/>
-      <c r="X15" s="74"/>
-      <c r="Y15" s="74"/>
+      <c r="C15" s="65"/>
+      <c r="D15" s="65"/>
+      <c r="E15" s="65"/>
+      <c r="F15" s="65"/>
+      <c r="G15" s="65"/>
+      <c r="H15" s="65"/>
+      <c r="I15" s="65"/>
+      <c r="J15" s="65"/>
+      <c r="K15" s="65"/>
+      <c r="L15" s="65"/>
+      <c r="M15" s="65"/>
+      <c r="N15" s="65"/>
+      <c r="O15" s="65"/>
+      <c r="P15" s="65"/>
+      <c r="Q15" s="65"/>
+      <c r="R15" s="65"/>
+      <c r="S15" s="65"/>
+      <c r="T15" s="65"/>
+      <c r="U15" s="65"/>
+      <c r="V15" s="65"/>
+      <c r="W15" s="65"/>
+      <c r="X15" s="65"/>
+      <c r="Y15" s="65"/>
     </row>
     <row r="16" spans="2:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="82" t="s">
+      <c r="B16" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="82"/>
-      <c r="D16" s="83"/>
-      <c r="E16" s="82" t="s">
+      <c r="C16" s="72"/>
+      <c r="D16" s="73"/>
+      <c r="E16" s="72" t="s">
         <v>95</v>
       </c>
-      <c r="F16" s="82"/>
-      <c r="G16" s="82" t="s">
+      <c r="F16" s="72"/>
+      <c r="G16" s="72" t="s">
         <v>116</v>
       </c>
-      <c r="H16" s="82" t="s">
+      <c r="H16" s="72" t="s">
         <v>51</v>
       </c>
-      <c r="I16" s="82"/>
-      <c r="J16" s="83"/>
-      <c r="K16" s="84" t="s">
+      <c r="I16" s="72"/>
+      <c r="J16" s="73"/>
+      <c r="K16" s="74" t="s">
         <v>96</v>
       </c>
-      <c r="L16" s="85"/>
-      <c r="M16" s="86"/>
-      <c r="N16" s="83"/>
-      <c r="O16" s="82" t="s">
+      <c r="L16" s="75"/>
+      <c r="M16" s="76"/>
+      <c r="N16" s="73"/>
+      <c r="O16" s="72" t="s">
         <v>97</v>
       </c>
-      <c r="P16" s="83"/>
-      <c r="Q16" s="83"/>
-      <c r="R16" s="83"/>
-      <c r="S16" s="82" t="s">
+      <c r="P16" s="73"/>
+      <c r="Q16" s="73"/>
+      <c r="R16" s="73"/>
+      <c r="S16" s="72" t="s">
         <v>98</v>
       </c>
-      <c r="T16" s="82"/>
-      <c r="U16" s="83"/>
-      <c r="V16" s="82" t="s">
+      <c r="T16" s="72"/>
+      <c r="U16" s="73"/>
+      <c r="V16" s="72" t="s">
         <v>99</v>
       </c>
-      <c r="W16" s="82"/>
-      <c r="X16" s="82"/>
-      <c r="Y16" s="113"/>
+      <c r="W16" s="72"/>
+      <c r="X16" s="72"/>
+      <c r="Y16" s="118"/>
     </row>
     <row r="17" spans="2:25" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="82"/>
-      <c r="C17" s="82"/>
-      <c r="D17" s="83"/>
-      <c r="E17" s="82"/>
-      <c r="F17" s="82"/>
-      <c r="G17" s="82"/>
-      <c r="H17" s="82"/>
-      <c r="I17" s="82"/>
-      <c r="J17" s="83"/>
-      <c r="K17" s="87"/>
-      <c r="L17" s="88"/>
-      <c r="M17" s="89"/>
-      <c r="N17" s="83"/>
-      <c r="O17" s="83"/>
-      <c r="P17" s="83"/>
-      <c r="Q17" s="83"/>
-      <c r="R17" s="83"/>
-      <c r="S17" s="82"/>
-      <c r="T17" s="82"/>
-      <c r="U17" s="83"/>
-      <c r="V17" s="82"/>
-      <c r="W17" s="82"/>
-      <c r="X17" s="82"/>
-      <c r="Y17" s="113"/>
+      <c r="B17" s="72"/>
+      <c r="C17" s="72"/>
+      <c r="D17" s="73"/>
+      <c r="E17" s="72"/>
+      <c r="F17" s="72"/>
+      <c r="G17" s="72"/>
+      <c r="H17" s="72"/>
+      <c r="I17" s="72"/>
+      <c r="J17" s="73"/>
+      <c r="K17" s="77"/>
+      <c r="L17" s="78"/>
+      <c r="M17" s="79"/>
+      <c r="N17" s="73"/>
+      <c r="O17" s="73"/>
+      <c r="P17" s="73"/>
+      <c r="Q17" s="73"/>
+      <c r="R17" s="73"/>
+      <c r="S17" s="72"/>
+      <c r="T17" s="72"/>
+      <c r="U17" s="73"/>
+      <c r="V17" s="72"/>
+      <c r="W17" s="72"/>
+      <c r="X17" s="72"/>
+      <c r="Y17" s="118"/>
     </row>
     <row r="18" spans="2:25" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="3"/>
@@ -3407,72 +3317,72 @@
       <c r="Y18" s="3"/>
     </row>
     <row r="19" spans="2:25" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="77" t="s">
+      <c r="B19" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="105"/>
-      <c r="D19" s="105"/>
-      <c r="E19" s="105"/>
-      <c r="F19" s="105"/>
-      <c r="G19" s="105"/>
-      <c r="H19" s="105"/>
-      <c r="I19" s="105"/>
-      <c r="J19" s="70" t="s">
+      <c r="C19" s="104"/>
+      <c r="D19" s="104"/>
+      <c r="E19" s="104"/>
+      <c r="F19" s="104"/>
+      <c r="G19" s="104"/>
+      <c r="H19" s="104"/>
+      <c r="I19" s="104"/>
+      <c r="J19" s="62" t="s">
         <v>84</v>
       </c>
-      <c r="K19" s="71"/>
-      <c r="L19" s="71"/>
-      <c r="M19" s="71"/>
-      <c r="N19" s="71"/>
-      <c r="O19" s="70" t="s">
+      <c r="K19" s="63"/>
+      <c r="L19" s="63"/>
+      <c r="M19" s="63"/>
+      <c r="N19" s="63"/>
+      <c r="O19" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="P19" s="71"/>
-      <c r="Q19" s="71"/>
-      <c r="R19" s="71"/>
-      <c r="S19" s="71"/>
-      <c r="T19" s="77" t="s">
+      <c r="P19" s="63"/>
+      <c r="Q19" s="63"/>
+      <c r="R19" s="63"/>
+      <c r="S19" s="63"/>
+      <c r="T19" s="67" t="s">
         <v>53</v>
       </c>
-      <c r="U19" s="105"/>
-      <c r="V19" s="105"/>
-      <c r="W19" s="105"/>
-      <c r="X19" s="105"/>
-      <c r="Y19" s="123"/>
+      <c r="U19" s="104"/>
+      <c r="V19" s="104"/>
+      <c r="W19" s="104"/>
+      <c r="X19" s="104"/>
+      <c r="Y19" s="128"/>
     </row>
     <row r="20" spans="2:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="106" t="s">
+      <c r="B20" s="105" t="s">
         <v>118</v>
       </c>
-      <c r="C20" s="107"/>
-      <c r="D20" s="107"/>
-      <c r="E20" s="107"/>
-      <c r="F20" s="107"/>
-      <c r="G20" s="107"/>
-      <c r="H20" s="107"/>
-      <c r="I20" s="107"/>
-      <c r="J20" s="108">
+      <c r="C20" s="106"/>
+      <c r="D20" s="106"/>
+      <c r="E20" s="106"/>
+      <c r="F20" s="106"/>
+      <c r="G20" s="106"/>
+      <c r="H20" s="106"/>
+      <c r="I20" s="106"/>
+      <c r="J20" s="107">
         <v>1233496433</v>
       </c>
-      <c r="K20" s="109"/>
-      <c r="L20" s="109"/>
-      <c r="M20" s="109"/>
-      <c r="N20" s="109"/>
-      <c r="O20" s="70">
+      <c r="K20" s="108"/>
+      <c r="L20" s="108"/>
+      <c r="M20" s="108"/>
+      <c r="N20" s="108"/>
+      <c r="O20" s="62">
         <v>3118047047</v>
       </c>
-      <c r="P20" s="71"/>
-      <c r="Q20" s="71"/>
-      <c r="R20" s="71"/>
-      <c r="S20" s="71"/>
-      <c r="T20" s="124" t="s">
+      <c r="P20" s="63"/>
+      <c r="Q20" s="63"/>
+      <c r="R20" s="63"/>
+      <c r="S20" s="63"/>
+      <c r="T20" s="129" t="s">
         <v>119</v>
       </c>
-      <c r="U20" s="105"/>
-      <c r="V20" s="105"/>
-      <c r="W20" s="105"/>
-      <c r="X20" s="105"/>
-      <c r="Y20" s="123"/>
+      <c r="U20" s="104"/>
+      <c r="V20" s="104"/>
+      <c r="W20" s="104"/>
+      <c r="X20" s="104"/>
+      <c r="Y20" s="128"/>
     </row>
     <row r="21" spans="2:25" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="8"/>
@@ -3501,64 +3411,64 @@
       <c r="Y21" s="8"/>
     </row>
     <row r="22" spans="2:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="77" t="s">
+      <c r="B22" s="67" t="s">
         <v>54</v>
       </c>
-      <c r="C22" s="78"/>
-      <c r="D22" s="78"/>
-      <c r="E22" s="78"/>
-      <c r="F22" s="78"/>
-      <c r="G22" s="78"/>
-      <c r="H22" s="78"/>
-      <c r="I22" s="78"/>
-      <c r="J22" s="79"/>
-      <c r="K22" s="80" t="s">
+      <c r="C22" s="68"/>
+      <c r="D22" s="68"/>
+      <c r="E22" s="68"/>
+      <c r="F22" s="68"/>
+      <c r="G22" s="68"/>
+      <c r="H22" s="68"/>
+      <c r="I22" s="68"/>
+      <c r="J22" s="69"/>
+      <c r="K22" s="70" t="s">
         <v>55</v>
       </c>
-      <c r="L22" s="80"/>
-      <c r="M22" s="80"/>
-      <c r="N22" s="80"/>
-      <c r="O22" s="80"/>
-      <c r="P22" s="80"/>
-      <c r="Q22" s="81"/>
-      <c r="R22" s="81"/>
-      <c r="S22" s="81"/>
-      <c r="T22" s="81"/>
-      <c r="U22" s="81"/>
-      <c r="V22" s="81"/>
-      <c r="W22" s="81"/>
-      <c r="X22" s="81"/>
-      <c r="Y22" s="81"/>
+      <c r="L22" s="70"/>
+      <c r="M22" s="70"/>
+      <c r="N22" s="70"/>
+      <c r="O22" s="70"/>
+      <c r="P22" s="70"/>
+      <c r="Q22" s="71"/>
+      <c r="R22" s="71"/>
+      <c r="S22" s="71"/>
+      <c r="T22" s="71"/>
+      <c r="U22" s="71"/>
+      <c r="V22" s="71"/>
+      <c r="W22" s="71"/>
+      <c r="X22" s="71"/>
+      <c r="Y22" s="71"/>
     </row>
     <row r="23" spans="2:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="117">
+      <c r="B23" s="112">
         <v>2671339</v>
       </c>
-      <c r="C23" s="118"/>
-      <c r="D23" s="118"/>
-      <c r="E23" s="118"/>
-      <c r="F23" s="118"/>
-      <c r="G23" s="118"/>
-      <c r="H23" s="118"/>
-      <c r="I23" s="118"/>
-      <c r="J23" s="119"/>
-      <c r="K23" s="117" t="s">
+      <c r="C23" s="113"/>
+      <c r="D23" s="113"/>
+      <c r="E23" s="113"/>
+      <c r="F23" s="113"/>
+      <c r="G23" s="113"/>
+      <c r="H23" s="113"/>
+      <c r="I23" s="113"/>
+      <c r="J23" s="114"/>
+      <c r="K23" s="112" t="s">
         <v>117</v>
       </c>
-      <c r="L23" s="118"/>
-      <c r="M23" s="118"/>
-      <c r="N23" s="118"/>
-      <c r="O23" s="118"/>
-      <c r="P23" s="118"/>
-      <c r="Q23" s="118"/>
-      <c r="R23" s="118"/>
-      <c r="S23" s="118"/>
-      <c r="T23" s="118"/>
-      <c r="U23" s="118"/>
-      <c r="V23" s="118"/>
-      <c r="W23" s="118"/>
-      <c r="X23" s="118"/>
-      <c r="Y23" s="119"/>
+      <c r="L23" s="113"/>
+      <c r="M23" s="113"/>
+      <c r="N23" s="113"/>
+      <c r="O23" s="113"/>
+      <c r="P23" s="113"/>
+      <c r="Q23" s="113"/>
+      <c r="R23" s="113"/>
+      <c r="S23" s="113"/>
+      <c r="T23" s="113"/>
+      <c r="U23" s="113"/>
+      <c r="V23" s="113"/>
+      <c r="W23" s="113"/>
+      <c r="X23" s="113"/>
+      <c r="Y23" s="114"/>
     </row>
     <row r="24" spans="2:25" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="3"/>
@@ -3587,586 +3497,562 @@
       <c r="Y24" s="3"/>
     </row>
     <row r="25" spans="2:25" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="110" t="s">
+      <c r="B25" s="109" t="s">
         <v>50</v>
       </c>
-      <c r="C25" s="111"/>
-      <c r="D25" s="111"/>
-      <c r="E25" s="111"/>
-      <c r="F25" s="111"/>
-      <c r="G25" s="111"/>
-      <c r="H25" s="111"/>
-      <c r="I25" s="111"/>
-      <c r="J25" s="112"/>
-      <c r="K25" s="110" t="s">
+      <c r="C25" s="110"/>
+      <c r="D25" s="110"/>
+      <c r="E25" s="110"/>
+      <c r="F25" s="110"/>
+      <c r="G25" s="110"/>
+      <c r="H25" s="110"/>
+      <c r="I25" s="110"/>
+      <c r="J25" s="111"/>
+      <c r="K25" s="109" t="s">
         <v>11</v>
       </c>
-      <c r="L25" s="111"/>
-      <c r="M25" s="110" t="s">
+      <c r="L25" s="110"/>
+      <c r="M25" s="109" t="s">
         <v>12</v>
       </c>
-      <c r="N25" s="111"/>
-      <c r="O25" s="110" t="s">
+      <c r="N25" s="110"/>
+      <c r="O25" s="109" t="s">
         <v>13</v>
       </c>
-      <c r="P25" s="111"/>
-      <c r="Q25" s="111"/>
-      <c r="R25" s="111"/>
-      <c r="S25" s="111"/>
-      <c r="T25" s="112"/>
-      <c r="U25" s="110" t="s">
+      <c r="P25" s="110"/>
+      <c r="Q25" s="110"/>
+      <c r="R25" s="110"/>
+      <c r="S25" s="110"/>
+      <c r="T25" s="111"/>
+      <c r="U25" s="109" t="s">
         <v>14</v>
       </c>
-      <c r="V25" s="111"/>
-      <c r="W25" s="111"/>
-      <c r="X25" s="111"/>
-      <c r="Y25" s="112"/>
+      <c r="V25" s="110"/>
+      <c r="W25" s="110"/>
+      <c r="X25" s="110"/>
+      <c r="Y25" s="111"/>
     </row>
     <row r="26" spans="2:25" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="55" t="s">
-        <v>120</v>
-      </c>
-      <c r="C26" s="56"/>
-      <c r="D26" s="56"/>
-      <c r="E26" s="56"/>
-      <c r="F26" s="56"/>
-      <c r="G26" s="56"/>
-      <c r="H26" s="56"/>
-      <c r="I26" s="56"/>
-      <c r="J26" s="57"/>
-      <c r="K26" s="99">
-        <v>45252</v>
-      </c>
-      <c r="L26" s="100"/>
-      <c r="M26" s="99">
-        <v>45257</v>
-      </c>
-      <c r="N26" s="100"/>
+      <c r="B26" s="93" t="s">
+        <v>124</v>
+      </c>
+      <c r="C26" s="94"/>
+      <c r="D26" s="94"/>
+      <c r="E26" s="94"/>
+      <c r="F26" s="94"/>
+      <c r="G26" s="94"/>
+      <c r="H26" s="94"/>
+      <c r="I26" s="94"/>
+      <c r="J26" s="95"/>
+      <c r="K26" s="89">
+        <v>45267</v>
+      </c>
+      <c r="L26" s="90"/>
+      <c r="M26" s="89">
+        <v>45271</v>
+      </c>
+      <c r="N26" s="90"/>
       <c r="O26" s="46"/>
       <c r="P26" s="47"/>
       <c r="Q26" s="47"/>
       <c r="R26" s="47"/>
       <c r="S26" s="47"/>
       <c r="T26" s="48"/>
-      <c r="U26" s="55" t="s">
-        <v>125</v>
-      </c>
-      <c r="V26" s="56"/>
-      <c r="W26" s="56"/>
-      <c r="X26" s="56"/>
-      <c r="Y26" s="57"/>
+      <c r="U26" s="52" t="s">
+        <v>120</v>
+      </c>
+      <c r="V26" s="52"/>
+      <c r="W26" s="52"/>
+      <c r="X26" s="52"/>
+      <c r="Y26" s="52"/>
     </row>
     <row r="27" spans="2:25" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="58"/>
-      <c r="C27" s="59"/>
-      <c r="D27" s="59"/>
-      <c r="E27" s="59"/>
-      <c r="F27" s="59"/>
-      <c r="G27" s="59"/>
-      <c r="H27" s="59"/>
-      <c r="I27" s="59"/>
-      <c r="J27" s="60"/>
-      <c r="K27" s="103"/>
-      <c r="L27" s="104"/>
-      <c r="M27" s="103"/>
-      <c r="N27" s="104"/>
-      <c r="O27" s="52"/>
-      <c r="P27" s="53"/>
-      <c r="Q27" s="53"/>
-      <c r="R27" s="53"/>
-      <c r="S27" s="53"/>
-      <c r="T27" s="54"/>
-      <c r="U27" s="58"/>
-      <c r="V27" s="59"/>
-      <c r="W27" s="59"/>
-      <c r="X27" s="59"/>
-      <c r="Y27" s="60"/>
+      <c r="B27" s="96"/>
+      <c r="C27" s="97"/>
+      <c r="D27" s="97"/>
+      <c r="E27" s="97"/>
+      <c r="F27" s="97"/>
+      <c r="G27" s="97"/>
+      <c r="H27" s="97"/>
+      <c r="I27" s="97"/>
+      <c r="J27" s="98"/>
+      <c r="K27" s="102"/>
+      <c r="L27" s="103"/>
+      <c r="M27" s="102"/>
+      <c r="N27" s="103"/>
+      <c r="O27" s="124"/>
+      <c r="P27" s="125"/>
+      <c r="Q27" s="125"/>
+      <c r="R27" s="125"/>
+      <c r="S27" s="125"/>
+      <c r="T27" s="126"/>
+      <c r="U27" s="52"/>
+      <c r="V27" s="52"/>
+      <c r="W27" s="52"/>
+      <c r="X27" s="52"/>
+      <c r="Y27" s="52"/>
     </row>
     <row r="28" spans="2:25" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="58"/>
-      <c r="C28" s="59"/>
-      <c r="D28" s="59"/>
-      <c r="E28" s="59"/>
-      <c r="F28" s="59"/>
-      <c r="G28" s="59"/>
-      <c r="H28" s="59"/>
-      <c r="I28" s="59"/>
-      <c r="J28" s="60"/>
-      <c r="K28" s="103"/>
-      <c r="L28" s="104"/>
-      <c r="M28" s="103"/>
-      <c r="N28" s="104"/>
-      <c r="O28" s="52"/>
-      <c r="P28" s="53"/>
-      <c r="Q28" s="53"/>
-      <c r="R28" s="53"/>
-      <c r="S28" s="53"/>
-      <c r="T28" s="54"/>
-      <c r="U28" s="58"/>
-      <c r="V28" s="59"/>
-      <c r="W28" s="59"/>
-      <c r="X28" s="59"/>
-      <c r="Y28" s="60"/>
+      <c r="B28" s="96"/>
+      <c r="C28" s="97"/>
+      <c r="D28" s="97"/>
+      <c r="E28" s="97"/>
+      <c r="F28" s="97"/>
+      <c r="G28" s="97"/>
+      <c r="H28" s="97"/>
+      <c r="I28" s="97"/>
+      <c r="J28" s="98"/>
+      <c r="K28" s="102"/>
+      <c r="L28" s="103"/>
+      <c r="M28" s="102"/>
+      <c r="N28" s="103"/>
+      <c r="O28" s="124"/>
+      <c r="P28" s="125"/>
+      <c r="Q28" s="125"/>
+      <c r="R28" s="125"/>
+      <c r="S28" s="125"/>
+      <c r="T28" s="126"/>
+      <c r="U28" s="52"/>
+      <c r="V28" s="52"/>
+      <c r="W28" s="52"/>
+      <c r="X28" s="52"/>
+      <c r="Y28" s="52"/>
     </row>
     <row r="29" spans="2:25" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="58"/>
-      <c r="C29" s="59"/>
-      <c r="D29" s="59"/>
-      <c r="E29" s="59"/>
-      <c r="F29" s="59"/>
-      <c r="G29" s="59"/>
-      <c r="H29" s="59"/>
-      <c r="I29" s="59"/>
-      <c r="J29" s="60"/>
-      <c r="K29" s="103"/>
-      <c r="L29" s="104"/>
-      <c r="M29" s="103"/>
-      <c r="N29" s="104"/>
-      <c r="O29" s="52"/>
-      <c r="P29" s="53"/>
-      <c r="Q29" s="53"/>
-      <c r="R29" s="53"/>
-      <c r="S29" s="53"/>
-      <c r="T29" s="54"/>
-      <c r="U29" s="58"/>
-      <c r="V29" s="59"/>
-      <c r="W29" s="59"/>
-      <c r="X29" s="59"/>
-      <c r="Y29" s="60"/>
+      <c r="B29" s="96"/>
+      <c r="C29" s="97"/>
+      <c r="D29" s="97"/>
+      <c r="E29" s="97"/>
+      <c r="F29" s="97"/>
+      <c r="G29" s="97"/>
+      <c r="H29" s="97"/>
+      <c r="I29" s="97"/>
+      <c r="J29" s="98"/>
+      <c r="K29" s="102"/>
+      <c r="L29" s="103"/>
+      <c r="M29" s="102"/>
+      <c r="N29" s="103"/>
+      <c r="O29" s="124"/>
+      <c r="P29" s="125"/>
+      <c r="Q29" s="125"/>
+      <c r="R29" s="125"/>
+      <c r="S29" s="125"/>
+      <c r="T29" s="126"/>
+      <c r="U29" s="52"/>
+      <c r="V29" s="52"/>
+      <c r="W29" s="52"/>
+      <c r="X29" s="52"/>
+      <c r="Y29" s="52"/>
     </row>
     <row r="30" spans="2:25" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="58"/>
-      <c r="C30" s="59"/>
-      <c r="D30" s="59"/>
-      <c r="E30" s="59"/>
-      <c r="F30" s="59"/>
-      <c r="G30" s="59"/>
-      <c r="H30" s="59"/>
-      <c r="I30" s="59"/>
-      <c r="J30" s="60"/>
-      <c r="K30" s="103"/>
-      <c r="L30" s="104"/>
-      <c r="M30" s="103"/>
-      <c r="N30" s="104"/>
-      <c r="O30" s="52"/>
-      <c r="P30" s="53"/>
-      <c r="Q30" s="53"/>
-      <c r="R30" s="53"/>
-      <c r="S30" s="53"/>
-      <c r="T30" s="54"/>
-      <c r="U30" s="58"/>
-      <c r="V30" s="59"/>
-      <c r="W30" s="59"/>
-      <c r="X30" s="59"/>
-      <c r="Y30" s="60"/>
+      <c r="B30" s="96"/>
+      <c r="C30" s="97"/>
+      <c r="D30" s="97"/>
+      <c r="E30" s="97"/>
+      <c r="F30" s="97"/>
+      <c r="G30" s="97"/>
+      <c r="H30" s="97"/>
+      <c r="I30" s="97"/>
+      <c r="J30" s="98"/>
+      <c r="K30" s="102"/>
+      <c r="L30" s="103"/>
+      <c r="M30" s="102"/>
+      <c r="N30" s="103"/>
+      <c r="O30" s="124"/>
+      <c r="P30" s="125"/>
+      <c r="Q30" s="125"/>
+      <c r="R30" s="125"/>
+      <c r="S30" s="125"/>
+      <c r="T30" s="126"/>
+      <c r="U30" s="52"/>
+      <c r="V30" s="52"/>
+      <c r="W30" s="52"/>
+      <c r="X30" s="52"/>
+      <c r="Y30" s="52"/>
     </row>
     <row r="31" spans="2:25" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="58"/>
-      <c r="C31" s="59"/>
-      <c r="D31" s="59"/>
-      <c r="E31" s="59"/>
-      <c r="F31" s="59"/>
-      <c r="G31" s="59"/>
-      <c r="H31" s="59"/>
-      <c r="I31" s="59"/>
-      <c r="J31" s="60"/>
-      <c r="K31" s="103"/>
-      <c r="L31" s="104"/>
-      <c r="M31" s="103"/>
-      <c r="N31" s="104"/>
-      <c r="O31" s="52"/>
-      <c r="P31" s="53"/>
-      <c r="Q31" s="53"/>
-      <c r="R31" s="53"/>
-      <c r="S31" s="53"/>
-      <c r="T31" s="54"/>
-      <c r="U31" s="58"/>
-      <c r="V31" s="59"/>
-      <c r="W31" s="59"/>
-      <c r="X31" s="59"/>
-      <c r="Y31" s="60"/>
+      <c r="B31" s="96"/>
+      <c r="C31" s="97"/>
+      <c r="D31" s="97"/>
+      <c r="E31" s="97"/>
+      <c r="F31" s="97"/>
+      <c r="G31" s="97"/>
+      <c r="H31" s="97"/>
+      <c r="I31" s="97"/>
+      <c r="J31" s="98"/>
+      <c r="K31" s="102"/>
+      <c r="L31" s="103"/>
+      <c r="M31" s="102"/>
+      <c r="N31" s="103"/>
+      <c r="O31" s="124"/>
+      <c r="P31" s="125"/>
+      <c r="Q31" s="125"/>
+      <c r="R31" s="125"/>
+      <c r="S31" s="125"/>
+      <c r="T31" s="126"/>
+      <c r="U31" s="52"/>
+      <c r="V31" s="52"/>
+      <c r="W31" s="52"/>
+      <c r="X31" s="52"/>
+      <c r="Y31" s="52"/>
     </row>
     <row r="32" spans="2:25" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="58"/>
-      <c r="C32" s="59"/>
-      <c r="D32" s="59"/>
-      <c r="E32" s="59"/>
-      <c r="F32" s="59"/>
-      <c r="G32" s="59"/>
-      <c r="H32" s="59"/>
-      <c r="I32" s="59"/>
-      <c r="J32" s="60"/>
-      <c r="K32" s="103"/>
-      <c r="L32" s="104"/>
-      <c r="M32" s="103"/>
-      <c r="N32" s="104"/>
-      <c r="O32" s="52"/>
-      <c r="P32" s="53"/>
-      <c r="Q32" s="53"/>
-      <c r="R32" s="53"/>
-      <c r="S32" s="53"/>
-      <c r="T32" s="54"/>
-      <c r="U32" s="58"/>
-      <c r="V32" s="59"/>
-      <c r="W32" s="59"/>
-      <c r="X32" s="59"/>
-      <c r="Y32" s="60"/>
+      <c r="B32" s="96"/>
+      <c r="C32" s="97"/>
+      <c r="D32" s="97"/>
+      <c r="E32" s="97"/>
+      <c r="F32" s="97"/>
+      <c r="G32" s="97"/>
+      <c r="H32" s="97"/>
+      <c r="I32" s="97"/>
+      <c r="J32" s="98"/>
+      <c r="K32" s="102"/>
+      <c r="L32" s="103"/>
+      <c r="M32" s="102"/>
+      <c r="N32" s="103"/>
+      <c r="O32" s="124"/>
+      <c r="P32" s="125"/>
+      <c r="Q32" s="125"/>
+      <c r="R32" s="125"/>
+      <c r="S32" s="125"/>
+      <c r="T32" s="126"/>
+      <c r="U32" s="52"/>
+      <c r="V32" s="52"/>
+      <c r="W32" s="52"/>
+      <c r="X32" s="52"/>
+      <c r="Y32" s="52"/>
     </row>
     <row r="33" spans="2:25" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="61"/>
-      <c r="C33" s="62"/>
-      <c r="D33" s="62"/>
-      <c r="E33" s="62"/>
-      <c r="F33" s="62"/>
-      <c r="G33" s="62"/>
-      <c r="H33" s="62"/>
-      <c r="I33" s="62"/>
-      <c r="J33" s="63"/>
-      <c r="K33" s="101"/>
-      <c r="L33" s="102"/>
-      <c r="M33" s="101"/>
-      <c r="N33" s="102"/>
+      <c r="B33" s="99"/>
+      <c r="C33" s="100"/>
+      <c r="D33" s="100"/>
+      <c r="E33" s="100"/>
+      <c r="F33" s="100"/>
+      <c r="G33" s="100"/>
+      <c r="H33" s="100"/>
+      <c r="I33" s="100"/>
+      <c r="J33" s="101"/>
+      <c r="K33" s="91"/>
+      <c r="L33" s="92"/>
+      <c r="M33" s="91"/>
+      <c r="N33" s="92"/>
       <c r="O33" s="49"/>
       <c r="P33" s="50"/>
       <c r="Q33" s="50"/>
       <c r="R33" s="50"/>
       <c r="S33" s="50"/>
       <c r="T33" s="51"/>
-      <c r="U33" s="61"/>
-      <c r="V33" s="62"/>
-      <c r="W33" s="62"/>
-      <c r="X33" s="62"/>
-      <c r="Y33" s="63"/>
+      <c r="U33" s="52"/>
+      <c r="V33" s="52"/>
+      <c r="W33" s="52"/>
+      <c r="X33" s="52"/>
+      <c r="Y33" s="52"/>
     </row>
     <row r="34" spans="2:25" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="55" t="s">
-        <v>121</v>
-      </c>
-      <c r="C34" s="56"/>
-      <c r="D34" s="56"/>
-      <c r="E34" s="56"/>
-      <c r="F34" s="56"/>
-      <c r="G34" s="56"/>
-      <c r="H34" s="56"/>
-      <c r="I34" s="56"/>
-      <c r="J34" s="57"/>
-      <c r="K34" s="99">
-        <v>45252</v>
-      </c>
-      <c r="L34" s="100"/>
-      <c r="M34" s="99">
-        <v>45257</v>
-      </c>
-      <c r="N34" s="100"/>
+      <c r="B34" s="93" t="s">
+        <v>122</v>
+      </c>
+      <c r="C34" s="94"/>
+      <c r="D34" s="94"/>
+      <c r="E34" s="94"/>
+      <c r="F34" s="94"/>
+      <c r="G34" s="94"/>
+      <c r="H34" s="94"/>
+      <c r="I34" s="94"/>
+      <c r="J34" s="95"/>
+      <c r="K34" s="89">
+        <v>45271</v>
+      </c>
+      <c r="L34" s="90"/>
+      <c r="M34" s="89">
+        <v>45275</v>
+      </c>
+      <c r="N34" s="90"/>
       <c r="O34" s="46"/>
       <c r="P34" s="47"/>
       <c r="Q34" s="47"/>
       <c r="R34" s="47"/>
       <c r="S34" s="47"/>
       <c r="T34" s="48"/>
-      <c r="U34" s="55" t="s">
-        <v>125</v>
-      </c>
-      <c r="V34" s="56"/>
-      <c r="W34" s="56"/>
-      <c r="X34" s="56"/>
-      <c r="Y34" s="57"/>
+      <c r="U34" s="52" t="s">
+        <v>120</v>
+      </c>
+      <c r="V34" s="52"/>
+      <c r="W34" s="52"/>
+      <c r="X34" s="52"/>
+      <c r="Y34" s="52"/>
     </row>
     <row r="35" spans="2:25" ht="219" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="61"/>
-      <c r="C35" s="62"/>
-      <c r="D35" s="62"/>
-      <c r="E35" s="62"/>
-      <c r="F35" s="62"/>
-      <c r="G35" s="62"/>
-      <c r="H35" s="62"/>
-      <c r="I35" s="62"/>
-      <c r="J35" s="63"/>
-      <c r="K35" s="101"/>
-      <c r="L35" s="102"/>
-      <c r="M35" s="101"/>
-      <c r="N35" s="102"/>
+      <c r="B35" s="99"/>
+      <c r="C35" s="100"/>
+      <c r="D35" s="100"/>
+      <c r="E35" s="100"/>
+      <c r="F35" s="100"/>
+      <c r="G35" s="100"/>
+      <c r="H35" s="100"/>
+      <c r="I35" s="100"/>
+      <c r="J35" s="101"/>
+      <c r="K35" s="91"/>
+      <c r="L35" s="92"/>
+      <c r="M35" s="91"/>
+      <c r="N35" s="92"/>
       <c r="O35" s="49"/>
       <c r="P35" s="50"/>
       <c r="Q35" s="50"/>
       <c r="R35" s="50"/>
       <c r="S35" s="50"/>
       <c r="T35" s="51"/>
-      <c r="U35" s="58"/>
-      <c r="V35" s="59"/>
-      <c r="W35" s="59"/>
-      <c r="X35" s="59"/>
-      <c r="Y35" s="60"/>
+      <c r="U35" s="52"/>
+      <c r="V35" s="52"/>
+      <c r="W35" s="52"/>
+      <c r="X35" s="52"/>
+      <c r="Y35" s="52"/>
     </row>
     <row r="36" spans="2:25" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="127" t="s">
-        <v>122</v>
-      </c>
-      <c r="C36" s="127"/>
-      <c r="D36" s="127"/>
-      <c r="E36" s="127"/>
-      <c r="F36" s="127"/>
-      <c r="G36" s="127"/>
-      <c r="H36" s="127"/>
-      <c r="I36" s="127"/>
-      <c r="J36" s="127"/>
-      <c r="K36" s="128">
-        <v>45252</v>
-      </c>
-      <c r="L36" s="128"/>
-      <c r="M36" s="128">
-        <v>45257</v>
-      </c>
-      <c r="N36" s="128"/>
+      <c r="B36" s="52" t="s">
+        <v>123</v>
+      </c>
+      <c r="C36" s="52"/>
+      <c r="D36" s="52"/>
+      <c r="E36" s="52"/>
+      <c r="F36" s="52"/>
+      <c r="G36" s="52"/>
+      <c r="H36" s="52"/>
+      <c r="I36" s="52"/>
+      <c r="J36" s="52"/>
+      <c r="K36" s="127">
+        <v>45276</v>
+      </c>
+      <c r="L36" s="127"/>
+      <c r="M36" s="127">
+        <v>45280</v>
+      </c>
+      <c r="N36" s="127"/>
       <c r="O36" s="46"/>
       <c r="P36" s="47"/>
       <c r="Q36" s="47"/>
       <c r="R36" s="47"/>
       <c r="S36" s="47"/>
       <c r="T36" s="48"/>
-      <c r="U36" s="58" t="s">
-        <v>125</v>
-      </c>
-      <c r="V36" s="59"/>
-      <c r="W36" s="59"/>
-      <c r="X36" s="59"/>
-      <c r="Y36" s="60"/>
+      <c r="U36" s="52" t="s">
+        <v>120</v>
+      </c>
+      <c r="V36" s="52"/>
+      <c r="W36" s="52"/>
+      <c r="X36" s="52"/>
+      <c r="Y36" s="52"/>
     </row>
     <row r="37" spans="2:25" ht="218.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="127"/>
-      <c r="C37" s="127"/>
-      <c r="D37" s="127"/>
-      <c r="E37" s="127"/>
-      <c r="F37" s="127"/>
-      <c r="G37" s="127"/>
-      <c r="H37" s="127"/>
-      <c r="I37" s="127"/>
-      <c r="J37" s="127"/>
-      <c r="K37" s="128"/>
-      <c r="L37" s="128"/>
-      <c r="M37" s="128"/>
-      <c r="N37" s="128"/>
+      <c r="B37" s="52"/>
+      <c r="C37" s="52"/>
+      <c r="D37" s="52"/>
+      <c r="E37" s="52"/>
+      <c r="F37" s="52"/>
+      <c r="G37" s="52"/>
+      <c r="H37" s="52"/>
+      <c r="I37" s="52"/>
+      <c r="J37" s="52"/>
+      <c r="K37" s="127"/>
+      <c r="L37" s="127"/>
+      <c r="M37" s="127"/>
+      <c r="N37" s="127"/>
       <c r="O37" s="49"/>
       <c r="P37" s="50"/>
       <c r="Q37" s="50"/>
       <c r="R37" s="50"/>
       <c r="S37" s="50"/>
       <c r="T37" s="51"/>
-      <c r="U37" s="58"/>
-      <c r="V37" s="59"/>
-      <c r="W37" s="59"/>
-      <c r="X37" s="59"/>
-      <c r="Y37" s="60"/>
-    </row>
-    <row r="38" spans="2:25" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U37" s="52"/>
+      <c r="V37" s="52"/>
+      <c r="W37" s="52"/>
+      <c r="X37" s="52"/>
+      <c r="Y37" s="52"/>
+    </row>
+    <row r="38" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="55" t="s">
-        <v>123</v>
-      </c>
-      <c r="C38" s="56"/>
-      <c r="D38" s="56"/>
-      <c r="E38" s="56"/>
-      <c r="F38" s="56"/>
-      <c r="G38" s="56"/>
-      <c r="H38" s="56"/>
-      <c r="I38" s="56"/>
-      <c r="J38" s="57"/>
-      <c r="K38" s="99">
-        <v>45252</v>
-      </c>
-      <c r="L38" s="100"/>
-      <c r="M38" s="99">
-        <v>45257</v>
-      </c>
-      <c r="N38" s="100"/>
-      <c r="O38" s="52"/>
-      <c r="P38" s="53"/>
-      <c r="Q38" s="53"/>
-      <c r="R38" s="53"/>
-      <c r="S38" s="53"/>
-      <c r="T38" s="54"/>
-      <c r="U38" s="58" t="s">
-        <v>125</v>
-      </c>
-      <c r="V38" s="59"/>
-      <c r="W38" s="59"/>
-      <c r="X38" s="59"/>
-      <c r="Y38" s="60"/>
-    </row>
-    <row r="39" spans="2:25" ht="270.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="61"/>
-      <c r="C39" s="62"/>
-      <c r="D39" s="62"/>
-      <c r="E39" s="62"/>
-      <c r="F39" s="62"/>
-      <c r="G39" s="62"/>
-      <c r="H39" s="62"/>
-      <c r="I39" s="62"/>
-      <c r="J39" s="63"/>
-      <c r="K39" s="101"/>
-      <c r="L39" s="102"/>
-      <c r="M39" s="101"/>
-      <c r="N39" s="102"/>
-      <c r="O39" s="49"/>
-      <c r="P39" s="50"/>
-      <c r="Q39" s="50"/>
-      <c r="R39" s="50"/>
-      <c r="S39" s="50"/>
-      <c r="T39" s="51"/>
-      <c r="U39" s="61"/>
-      <c r="V39" s="62"/>
-      <c r="W39" s="62"/>
-      <c r="X39" s="62"/>
-      <c r="Y39" s="63"/>
-    </row>
-    <row r="40" spans="2:25" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="55" t="s">
-        <v>124</v>
-      </c>
-      <c r="C40" s="56"/>
-      <c r="D40" s="56"/>
-      <c r="E40" s="56"/>
-      <c r="F40" s="56"/>
-      <c r="G40" s="56"/>
-      <c r="H40" s="56"/>
-      <c r="I40" s="56"/>
-      <c r="J40" s="57"/>
-      <c r="K40" s="99">
-        <v>45257</v>
-      </c>
-      <c r="L40" s="100"/>
-      <c r="M40" s="99">
-        <v>45257</v>
-      </c>
-      <c r="N40" s="100"/>
-      <c r="O40" s="55"/>
-      <c r="P40" s="56"/>
-      <c r="Q40" s="56"/>
-      <c r="R40" s="56"/>
-      <c r="S40" s="56"/>
-      <c r="T40" s="57"/>
-      <c r="U40" s="55"/>
-      <c r="V40" s="56"/>
-      <c r="W40" s="56"/>
-      <c r="X40" s="56"/>
-      <c r="Y40" s="57"/>
-    </row>
-    <row r="41" spans="2:25" ht="152.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="61"/>
-      <c r="C41" s="62"/>
-      <c r="D41" s="62"/>
-      <c r="E41" s="62"/>
-      <c r="F41" s="62"/>
-      <c r="G41" s="62"/>
-      <c r="H41" s="62"/>
-      <c r="I41" s="62"/>
-      <c r="J41" s="63"/>
-      <c r="K41" s="101"/>
-      <c r="L41" s="102"/>
-      <c r="M41" s="101"/>
-      <c r="N41" s="102"/>
-      <c r="O41" s="61"/>
-      <c r="P41" s="62"/>
-      <c r="Q41" s="62"/>
-      <c r="R41" s="62"/>
-      <c r="S41" s="62"/>
-      <c r="T41" s="63"/>
-      <c r="U41" s="61"/>
-      <c r="V41" s="62"/>
-      <c r="W41" s="62"/>
-      <c r="X41" s="62"/>
-      <c r="Y41" s="63"/>
-    </row>
-    <row r="42" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="66" t="s">
         <v>56</v>
       </c>
-      <c r="C42" s="66"/>
-      <c r="D42" s="66"/>
-      <c r="E42" s="66"/>
-      <c r="F42" s="66"/>
-      <c r="G42" s="66"/>
-      <c r="H42" s="66"/>
-      <c r="I42" s="66"/>
-      <c r="J42" s="66"/>
-      <c r="K42" s="66"/>
-      <c r="L42" s="66"/>
-      <c r="M42" s="66"/>
-      <c r="N42" s="66"/>
-      <c r="O42" s="66"/>
-      <c r="P42" s="66"/>
-      <c r="Q42" s="66"/>
-      <c r="R42" s="66"/>
-      <c r="S42" s="66"/>
-      <c r="T42" s="66"/>
-      <c r="U42" s="66"/>
-      <c r="V42" s="66"/>
-      <c r="W42" s="66"/>
-      <c r="X42" s="66"/>
-      <c r="Y42" s="66"/>
-    </row>
-    <row r="43" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="10"/>
-      <c r="C43" s="10"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="10"/>
-      <c r="F43" s="10"/>
-      <c r="G43" s="10"/>
-      <c r="H43" s="10"/>
-      <c r="I43" s="10"/>
-      <c r="J43" s="10"/>
-      <c r="K43" s="10"/>
-      <c r="L43" s="10"/>
-      <c r="M43" s="10"/>
-      <c r="N43" s="10"/>
-      <c r="O43" s="10"/>
-      <c r="P43" s="10"/>
-      <c r="Q43" s="10"/>
-      <c r="R43" s="10"/>
-      <c r="S43" s="10"/>
-      <c r="T43" s="10"/>
-      <c r="U43" s="10"/>
-      <c r="V43" s="10"/>
-      <c r="W43" s="10"/>
-      <c r="X43" s="10"/>
-      <c r="Y43" s="10"/>
+      <c r="C38" s="55"/>
+      <c r="D38" s="55"/>
+      <c r="E38" s="55"/>
+      <c r="F38" s="55"/>
+      <c r="G38" s="55"/>
+      <c r="H38" s="55"/>
+      <c r="I38" s="55"/>
+      <c r="J38" s="55"/>
+      <c r="K38" s="55"/>
+      <c r="L38" s="55"/>
+      <c r="M38" s="55"/>
+      <c r="N38" s="55"/>
+      <c r="O38" s="55"/>
+      <c r="P38" s="55"/>
+      <c r="Q38" s="55"/>
+      <c r="R38" s="55"/>
+      <c r="S38" s="55"/>
+      <c r="T38" s="55"/>
+      <c r="U38" s="55"/>
+      <c r="V38" s="55"/>
+      <c r="W38" s="55"/>
+      <c r="X38" s="55"/>
+      <c r="Y38" s="55"/>
+    </row>
+    <row r="39" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="10"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="10"/>
+      <c r="J39" s="10"/>
+      <c r="K39" s="10"/>
+      <c r="L39" s="10"/>
+      <c r="M39" s="10"/>
+      <c r="N39" s="10"/>
+      <c r="O39" s="10"/>
+      <c r="P39" s="10"/>
+      <c r="Q39" s="10"/>
+      <c r="R39" s="10"/>
+      <c r="S39" s="10"/>
+      <c r="T39" s="10"/>
+      <c r="U39" s="10"/>
+      <c r="V39" s="10"/>
+      <c r="W39" s="10"/>
+      <c r="X39" s="10"/>
+      <c r="Y39" s="10"/>
+    </row>
+    <row r="40" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="54" t="s">
+        <v>118</v>
+      </c>
+      <c r="C40" s="54"/>
+      <c r="D40" s="54"/>
+      <c r="E40" s="54"/>
+      <c r="F40" s="54"/>
+      <c r="G40" s="54"/>
+      <c r="H40" s="54"/>
+      <c r="I40" s="54"/>
+      <c r="J40" s="10"/>
+      <c r="K40" s="10"/>
+      <c r="L40" s="10"/>
+      <c r="M40" s="10"/>
+      <c r="N40" s="10"/>
+      <c r="O40" s="10"/>
+      <c r="P40" s="10"/>
+      <c r="Q40" s="10"/>
+      <c r="R40" s="10"/>
+      <c r="S40" s="10"/>
+      <c r="T40" s="10"/>
+      <c r="U40" s="10"/>
+      <c r="V40" s="10"/>
+      <c r="W40" s="10"/>
+      <c r="X40" s="10"/>
+      <c r="Y40" s="10"/>
+    </row>
+    <row r="41" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="123"/>
+      <c r="C41" s="123"/>
+      <c r="D41" s="123"/>
+      <c r="E41" s="123"/>
+      <c r="F41" s="123"/>
+      <c r="G41" s="123"/>
+      <c r="H41" s="123"/>
+      <c r="I41" s="123"/>
+      <c r="J41" s="11"/>
+      <c r="K41" s="11"/>
+      <c r="L41" s="11"/>
+      <c r="M41" s="11"/>
+      <c r="N41" s="11"/>
+      <c r="O41" s="11"/>
+      <c r="P41" s="11"/>
+      <c r="Q41" s="11"/>
+      <c r="R41" s="11"/>
+      <c r="S41" s="8"/>
+      <c r="T41" s="12"/>
+      <c r="U41" s="12"/>
+      <c r="V41" s="12"/>
+      <c r="W41" s="12"/>
+      <c r="X41" s="12"/>
+      <c r="Y41" s="8"/>
+    </row>
+    <row r="42" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B42" s="54" t="s">
+        <v>87</v>
+      </c>
+      <c r="C42" s="54"/>
+      <c r="D42" s="54"/>
+      <c r="E42" s="54"/>
+      <c r="F42" s="54"/>
+      <c r="G42" s="54"/>
+      <c r="H42" s="54"/>
+      <c r="I42" s="54"/>
+      <c r="J42" s="11"/>
+      <c r="K42" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="L42" s="56"/>
+      <c r="M42" s="56"/>
+      <c r="N42" s="56"/>
+      <c r="O42" s="56"/>
+      <c r="P42" s="56"/>
+      <c r="Q42" s="56"/>
+      <c r="R42" s="13"/>
+      <c r="S42" s="11"/>
+      <c r="T42" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="U42" s="54"/>
+      <c r="V42" s="54"/>
+      <c r="W42" s="54"/>
+      <c r="X42" s="54"/>
+      <c r="Y42" s="11"/>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B43" s="15"/>
+      <c r="C43" s="15"/>
+      <c r="D43" s="15"/>
+      <c r="E43" s="15"/>
+      <c r="F43" s="15"/>
+      <c r="G43" s="15"/>
+      <c r="H43" s="15"/>
+      <c r="I43" s="15"/>
+      <c r="J43" s="11"/>
+      <c r="K43" s="15"/>
+      <c r="L43" s="15"/>
+      <c r="M43" s="15"/>
+      <c r="N43" s="15"/>
+      <c r="O43" s="15"/>
+      <c r="P43" s="15"/>
+      <c r="Q43" s="15"/>
+      <c r="R43" s="13"/>
+      <c r="S43" s="11"/>
+      <c r="T43" s="15"/>
+      <c r="U43" s="15"/>
+      <c r="V43" s="15"/>
+      <c r="W43" s="15"/>
+      <c r="X43" s="15"/>
+      <c r="Y43" s="11"/>
     </row>
     <row r="44" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="65" t="s">
-        <v>118</v>
-      </c>
-      <c r="C44" s="65"/>
-      <c r="D44" s="65"/>
-      <c r="E44" s="65"/>
-      <c r="F44" s="65"/>
-      <c r="G44" s="65"/>
-      <c r="H44" s="65"/>
-      <c r="I44" s="65"/>
-      <c r="J44" s="10"/>
-      <c r="K44" s="10"/>
-      <c r="L44" s="10"/>
-      <c r="M44" s="10"/>
-      <c r="N44" s="10"/>
-      <c r="O44" s="10"/>
-      <c r="P44" s="10"/>
-      <c r="Q44" s="10"/>
-      <c r="R44" s="10"/>
-      <c r="S44" s="10"/>
-      <c r="T44" s="10"/>
-      <c r="U44" s="10"/>
-      <c r="V44" s="10"/>
-      <c r="W44" s="10"/>
-      <c r="X44" s="10"/>
-      <c r="Y44" s="10"/>
+      <c r="B44" s="54"/>
+      <c r="C44" s="54"/>
+      <c r="D44" s="54"/>
+      <c r="E44" s="54"/>
+      <c r="F44" s="54"/>
+      <c r="G44" s="54"/>
+      <c r="H44" s="54"/>
+      <c r="I44" s="54"/>
     </row>
     <row r="45" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="126"/>
-      <c r="C45" s="126"/>
-      <c r="D45" s="126"/>
-      <c r="E45" s="126"/>
-      <c r="F45" s="126"/>
-      <c r="G45" s="126"/>
-      <c r="H45" s="126"/>
-      <c r="I45" s="126"/>
+      <c r="B45" s="14"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="14"/>
+      <c r="G45" s="14"/>
+      <c r="H45" s="14"/>
+      <c r="I45" s="14"/>
       <c r="J45" s="11"/>
       <c r="K45" s="11"/>
       <c r="L45" s="11"/>
@@ -4176,222 +4062,121 @@
       <c r="P45" s="11"/>
       <c r="Q45" s="11"/>
       <c r="R45" s="11"/>
-      <c r="S45" s="8"/>
+      <c r="S45" s="12"/>
       <c r="T45" s="12"/>
       <c r="U45" s="12"/>
       <c r="V45" s="12"/>
       <c r="W45" s="12"/>
       <c r="X45" s="12"/>
-      <c r="Y45" s="8"/>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B46" s="65" t="s">
-        <v>87</v>
-      </c>
-      <c r="C46" s="65"/>
-      <c r="D46" s="65"/>
-      <c r="E46" s="65"/>
-      <c r="F46" s="65"/>
-      <c r="G46" s="65"/>
-      <c r="H46" s="65"/>
-      <c r="I46" s="65"/>
+      <c r="Y45" s="12"/>
+    </row>
+    <row r="46" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="54" t="s">
+        <v>85</v>
+      </c>
+      <c r="C46" s="54"/>
+      <c r="D46" s="54"/>
+      <c r="E46" s="54"/>
+      <c r="F46" s="54"/>
+      <c r="G46" s="54"/>
+      <c r="H46" s="54"/>
+      <c r="I46" s="54"/>
       <c r="J46" s="11"/>
-      <c r="K46" s="72" t="s">
-        <v>16</v>
-      </c>
-      <c r="L46" s="72"/>
-      <c r="M46" s="72"/>
-      <c r="N46" s="72"/>
-      <c r="O46" s="72"/>
-      <c r="P46" s="72"/>
-      <c r="Q46" s="72"/>
+      <c r="K46" s="56" t="s">
+        <v>88</v>
+      </c>
+      <c r="L46" s="56"/>
+      <c r="M46" s="56"/>
+      <c r="N46" s="56"/>
+      <c r="O46" s="56"/>
+      <c r="P46" s="56"/>
+      <c r="Q46" s="56"/>
       <c r="R46" s="13"/>
-      <c r="S46" s="11"/>
-      <c r="T46" s="65" t="s">
-        <v>17</v>
-      </c>
-      <c r="U46" s="65"/>
-      <c r="V46" s="65"/>
-      <c r="W46" s="65"/>
-      <c r="X46" s="65"/>
-      <c r="Y46" s="11"/>
-    </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B47" s="15"/>
-      <c r="C47" s="15"/>
-      <c r="D47" s="15"/>
-      <c r="E47" s="15"/>
-      <c r="F47" s="15"/>
-      <c r="G47" s="15"/>
-      <c r="H47" s="15"/>
-      <c r="I47" s="15"/>
-      <c r="J47" s="11"/>
-      <c r="K47" s="15"/>
-      <c r="L47" s="15"/>
-      <c r="M47" s="15"/>
-      <c r="N47" s="15"/>
-      <c r="O47" s="15"/>
-      <c r="P47" s="15"/>
-      <c r="Q47" s="15"/>
-      <c r="R47" s="13"/>
-      <c r="S47" s="11"/>
-      <c r="T47" s="15"/>
-      <c r="U47" s="15"/>
-      <c r="V47" s="15"/>
-      <c r="W47" s="15"/>
-      <c r="X47" s="15"/>
-      <c r="Y47" s="11"/>
-    </row>
-    <row r="48" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="65"/>
-      <c r="C48" s="65"/>
-      <c r="D48" s="65"/>
-      <c r="E48" s="65"/>
-      <c r="F48" s="65"/>
-      <c r="G48" s="65"/>
-      <c r="H48" s="65"/>
-      <c r="I48" s="65"/>
-    </row>
-    <row r="49" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="14"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="14"/>
-      <c r="G49" s="14"/>
-      <c r="H49" s="14"/>
-      <c r="I49" s="14"/>
-      <c r="J49" s="11"/>
-      <c r="K49" s="11"/>
-      <c r="L49" s="11"/>
-      <c r="M49" s="11"/>
-      <c r="N49" s="11"/>
-      <c r="O49" s="11"/>
-      <c r="P49" s="11"/>
-      <c r="Q49" s="11"/>
-      <c r="R49" s="11"/>
-      <c r="S49" s="12"/>
-      <c r="T49" s="12"/>
-      <c r="U49" s="12"/>
-      <c r="V49" s="12"/>
-      <c r="W49" s="12"/>
-      <c r="X49" s="12"/>
-      <c r="Y49" s="12"/>
-    </row>
-    <row r="50" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="65" t="s">
-        <v>85</v>
-      </c>
-      <c r="C50" s="65"/>
-      <c r="D50" s="65"/>
-      <c r="E50" s="65"/>
-      <c r="F50" s="65"/>
-      <c r="G50" s="65"/>
-      <c r="H50" s="65"/>
-      <c r="I50" s="65"/>
-      <c r="J50" s="11"/>
-      <c r="K50" s="72" t="s">
-        <v>88</v>
-      </c>
-      <c r="L50" s="72"/>
-      <c r="M50" s="72"/>
-      <c r="N50" s="72"/>
-      <c r="O50" s="72"/>
-      <c r="P50" s="72"/>
-      <c r="Q50" s="72"/>
-      <c r="R50" s="13"/>
-      <c r="S50" s="129" t="s">
+      <c r="S46" s="57" t="s">
         <v>93</v>
       </c>
-      <c r="T50" s="76"/>
-      <c r="U50" s="76"/>
-      <c r="V50" s="76"/>
-      <c r="W50" s="76"/>
-      <c r="X50" s="76"/>
-      <c r="Y50" s="76"/>
-    </row>
-    <row r="51" spans="2:25" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="Q51" s="64"/>
-      <c r="R51" s="64"/>
-      <c r="S51" s="64"/>
-      <c r="T51" s="64"/>
-      <c r="U51" s="64"/>
-    </row>
-    <row r="52" spans="2:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="75" t="s">
+      <c r="T46" s="58"/>
+      <c r="U46" s="58"/>
+      <c r="V46" s="58"/>
+      <c r="W46" s="58"/>
+      <c r="X46" s="58"/>
+      <c r="Y46" s="58"/>
+    </row>
+    <row r="47" spans="2:25" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q47" s="53"/>
+      <c r="R47" s="53"/>
+      <c r="S47" s="53"/>
+      <c r="T47" s="53"/>
+      <c r="U47" s="53"/>
+    </row>
+    <row r="48" spans="2:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="66" t="s">
         <v>81</v>
       </c>
-      <c r="C52" s="76"/>
-      <c r="D52" s="76"/>
-      <c r="E52" s="76"/>
-      <c r="F52" s="76"/>
-      <c r="G52" s="76"/>
-      <c r="H52" s="76"/>
-      <c r="I52" s="76"/>
-      <c r="J52" s="76"/>
-      <c r="K52" s="76"/>
-      <c r="L52" s="76"/>
-      <c r="M52" s="76"/>
-      <c r="N52" s="76"/>
-      <c r="O52" s="76"/>
-      <c r="P52" s="76"/>
-      <c r="Q52" s="76"/>
-      <c r="R52" s="76"/>
-      <c r="S52" s="76"/>
-      <c r="T52" s="76"/>
-      <c r="U52" s="76"/>
-      <c r="V52" s="76"/>
-      <c r="W52" s="76"/>
-      <c r="X52" s="76"/>
-      <c r="Y52" s="76"/>
-    </row>
-    <row r="53" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B53" s="76"/>
-      <c r="C53" s="76"/>
-      <c r="D53" s="76"/>
-      <c r="E53" s="76"/>
-      <c r="F53" s="76"/>
-      <c r="G53" s="76"/>
-      <c r="H53" s="76"/>
-      <c r="I53" s="76"/>
-      <c r="J53" s="76"/>
-      <c r="K53" s="76"/>
-      <c r="L53" s="76"/>
-      <c r="M53" s="76"/>
-      <c r="N53" s="76"/>
-      <c r="O53" s="76"/>
-      <c r="P53" s="76"/>
-      <c r="Q53" s="76"/>
-      <c r="R53" s="76"/>
-      <c r="S53" s="76"/>
-      <c r="T53" s="76"/>
-      <c r="U53" s="76"/>
-      <c r="V53" s="76"/>
-      <c r="W53" s="76"/>
-      <c r="X53" s="76"/>
-      <c r="Y53" s="76"/>
+      <c r="C48" s="58"/>
+      <c r="D48" s="58"/>
+      <c r="E48" s="58"/>
+      <c r="F48" s="58"/>
+      <c r="G48" s="58"/>
+      <c r="H48" s="58"/>
+      <c r="I48" s="58"/>
+      <c r="J48" s="58"/>
+      <c r="K48" s="58"/>
+      <c r="L48" s="58"/>
+      <c r="M48" s="58"/>
+      <c r="N48" s="58"/>
+      <c r="O48" s="58"/>
+      <c r="P48" s="58"/>
+      <c r="Q48" s="58"/>
+      <c r="R48" s="58"/>
+      <c r="S48" s="58"/>
+      <c r="T48" s="58"/>
+      <c r="U48" s="58"/>
+      <c r="V48" s="58"/>
+      <c r="W48" s="58"/>
+      <c r="X48" s="58"/>
+      <c r="Y48" s="58"/>
+    </row>
+    <row r="49" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B49" s="58"/>
+      <c r="C49" s="58"/>
+      <c r="D49" s="58"/>
+      <c r="E49" s="58"/>
+      <c r="F49" s="58"/>
+      <c r="G49" s="58"/>
+      <c r="H49" s="58"/>
+      <c r="I49" s="58"/>
+      <c r="J49" s="58"/>
+      <c r="K49" s="58"/>
+      <c r="L49" s="58"/>
+      <c r="M49" s="58"/>
+      <c r="N49" s="58"/>
+      <c r="O49" s="58"/>
+      <c r="P49" s="58"/>
+      <c r="Q49" s="58"/>
+      <c r="R49" s="58"/>
+      <c r="S49" s="58"/>
+      <c r="T49" s="58"/>
+      <c r="U49" s="58"/>
+      <c r="V49" s="58"/>
+      <c r="W49" s="58"/>
+      <c r="X49" s="58"/>
+      <c r="Y49" s="58"/>
     </row>
   </sheetData>
-  <mergeCells count="91">
-    <mergeCell ref="P10:S10"/>
-    <mergeCell ref="M9:O9"/>
-    <mergeCell ref="M10:O10"/>
+  <mergeCells count="81">
     <mergeCell ref="Q13:Y13"/>
-    <mergeCell ref="B44:I45"/>
+    <mergeCell ref="B40:I41"/>
     <mergeCell ref="O26:T33"/>
     <mergeCell ref="U26:Y33"/>
     <mergeCell ref="B36:J37"/>
     <mergeCell ref="K36:L37"/>
     <mergeCell ref="M36:N37"/>
-    <mergeCell ref="B38:J39"/>
     <mergeCell ref="O19:S19"/>
     <mergeCell ref="O20:S20"/>
     <mergeCell ref="T19:Y19"/>
     <mergeCell ref="T20:Y20"/>
     <mergeCell ref="B23:J23"/>
-    <mergeCell ref="K23:Y23"/>
-    <mergeCell ref="U25:Y25"/>
-    <mergeCell ref="O25:T25"/>
     <mergeCell ref="B6:Y6"/>
     <mergeCell ref="V16:X17"/>
     <mergeCell ref="U16:U17"/>
@@ -4405,13 +4190,14 @@
     <mergeCell ref="K12:P12"/>
     <mergeCell ref="K13:P13"/>
     <mergeCell ref="P9:S9"/>
+    <mergeCell ref="P10:S10"/>
+    <mergeCell ref="M9:O9"/>
+    <mergeCell ref="M10:O10"/>
     <mergeCell ref="B10:L10"/>
     <mergeCell ref="B13:J13"/>
     <mergeCell ref="B12:J12"/>
     <mergeCell ref="B16:C17"/>
     <mergeCell ref="D16:D17"/>
-    <mergeCell ref="K34:L35"/>
-    <mergeCell ref="M34:N35"/>
     <mergeCell ref="B26:J33"/>
     <mergeCell ref="K26:L33"/>
     <mergeCell ref="B19:I19"/>
@@ -4422,12 +4208,9 @@
     <mergeCell ref="M25:N25"/>
     <mergeCell ref="B25:J25"/>
     <mergeCell ref="M26:N33"/>
-    <mergeCell ref="B34:J35"/>
-    <mergeCell ref="K38:L39"/>
-    <mergeCell ref="B40:J41"/>
-    <mergeCell ref="M38:N39"/>
-    <mergeCell ref="K40:L41"/>
-    <mergeCell ref="M40:N41"/>
+    <mergeCell ref="K23:Y23"/>
+    <mergeCell ref="U25:Y25"/>
+    <mergeCell ref="O25:T25"/>
     <mergeCell ref="W1:Y1"/>
     <mergeCell ref="W2:Y2"/>
     <mergeCell ref="B1:V2"/>
@@ -4437,8 +4220,8 @@
     <mergeCell ref="B7:Y7"/>
     <mergeCell ref="B8:Y8"/>
     <mergeCell ref="B15:Y15"/>
-    <mergeCell ref="B52:Y53"/>
-    <mergeCell ref="B48:I48"/>
+    <mergeCell ref="B48:Y49"/>
+    <mergeCell ref="B44:I44"/>
     <mergeCell ref="B22:J22"/>
     <mergeCell ref="K22:Y22"/>
     <mergeCell ref="O16:Q17"/>
@@ -4448,22 +4231,21 @@
     <mergeCell ref="N16:N17"/>
     <mergeCell ref="K16:M17"/>
     <mergeCell ref="R16:R17"/>
-    <mergeCell ref="K46:Q46"/>
-    <mergeCell ref="Q51:U51"/>
-    <mergeCell ref="O40:T41"/>
-    <mergeCell ref="U40:Y41"/>
-    <mergeCell ref="T46:X46"/>
-    <mergeCell ref="B42:Y42"/>
-    <mergeCell ref="B50:I50"/>
-    <mergeCell ref="K50:Q50"/>
-    <mergeCell ref="S50:Y50"/>
-    <mergeCell ref="B46:I46"/>
+    <mergeCell ref="K42:Q42"/>
     <mergeCell ref="O34:T35"/>
     <mergeCell ref="O36:T37"/>
-    <mergeCell ref="O38:T39"/>
     <mergeCell ref="U34:Y35"/>
     <mergeCell ref="U36:Y37"/>
-    <mergeCell ref="U38:Y39"/>
+    <mergeCell ref="Q47:U47"/>
+    <mergeCell ref="T42:X42"/>
+    <mergeCell ref="B38:Y38"/>
+    <mergeCell ref="B46:I46"/>
+    <mergeCell ref="K46:Q46"/>
+    <mergeCell ref="S46:Y46"/>
+    <mergeCell ref="B42:I42"/>
+    <mergeCell ref="K34:L35"/>
+    <mergeCell ref="M34:N35"/>
+    <mergeCell ref="B34:J35"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="Q13" r:id="rId1" xr:uid="{CD07D1C3-D900-45BE-A4BB-EDC2F8489F90}"/>
@@ -4669,15 +4451,15 @@
       <c r="X7" s="131"/>
     </row>
     <row r="8" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="109"/>
-      <c r="B8" s="109"/>
-      <c r="C8" s="109"/>
-      <c r="D8" s="109"/>
-      <c r="E8" s="109"/>
-      <c r="F8" s="109"/>
-      <c r="G8" s="109"/>
-      <c r="H8" s="109"/>
-      <c r="I8" s="109"/>
+      <c r="A8" s="108"/>
+      <c r="B8" s="108"/>
+      <c r="C8" s="108"/>
+      <c r="D8" s="108"/>
+      <c r="E8" s="108"/>
+      <c r="F8" s="108"/>
+      <c r="G8" s="108"/>
+      <c r="H8" s="108"/>
+      <c r="I8" s="108"/>
       <c r="J8" s="140" t="s">
         <v>24</v>
       </c>
@@ -4725,66 +4507,66 @@
       <c r="X9" s="3"/>
     </row>
     <row r="10" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="74" t="s">
+      <c r="A10" s="65" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="74"/>
-      <c r="C10" s="74"/>
-      <c r="D10" s="74"/>
-      <c r="E10" s="74"/>
-      <c r="F10" s="74"/>
-      <c r="G10" s="74"/>
-      <c r="H10" s="74"/>
-      <c r="I10" s="74"/>
-      <c r="J10" s="74"/>
-      <c r="K10" s="74"/>
-      <c r="L10" s="74"/>
-      <c r="M10" s="74"/>
-      <c r="N10" s="74"/>
-      <c r="O10" s="74"/>
-      <c r="P10" s="74"/>
-      <c r="Q10" s="74"/>
-      <c r="R10" s="74"/>
-      <c r="S10" s="74"/>
-      <c r="T10" s="74"/>
-      <c r="U10" s="74"/>
-      <c r="V10" s="74"/>
-      <c r="W10" s="74"/>
-      <c r="X10" s="74"/>
+      <c r="B10" s="65"/>
+      <c r="C10" s="65"/>
+      <c r="D10" s="65"/>
+      <c r="E10" s="65"/>
+      <c r="F10" s="65"/>
+      <c r="G10" s="65"/>
+      <c r="H10" s="65"/>
+      <c r="I10" s="65"/>
+      <c r="J10" s="65"/>
+      <c r="K10" s="65"/>
+      <c r="L10" s="65"/>
+      <c r="M10" s="65"/>
+      <c r="N10" s="65"/>
+      <c r="O10" s="65"/>
+      <c r="P10" s="65"/>
+      <c r="Q10" s="65"/>
+      <c r="R10" s="65"/>
+      <c r="S10" s="65"/>
+      <c r="T10" s="65"/>
+      <c r="U10" s="65"/>
+      <c r="V10" s="65"/>
+      <c r="W10" s="65"/>
+      <c r="X10" s="65"/>
     </row>
     <row r="11" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="113" t="s">
+      <c r="A11" s="118" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="113"/>
-      <c r="C11" s="113"/>
-      <c r="D11" s="113"/>
-      <c r="E11" s="113"/>
-      <c r="F11" s="113"/>
-      <c r="G11" s="113" t="s">
+      <c r="B11" s="118"/>
+      <c r="C11" s="118"/>
+      <c r="D11" s="118"/>
+      <c r="E11" s="118"/>
+      <c r="F11" s="118"/>
+      <c r="G11" s="118" t="s">
         <v>27</v>
       </c>
-      <c r="H11" s="113"/>
-      <c r="I11" s="113"/>
-      <c r="J11" s="113"/>
-      <c r="K11" s="113"/>
-      <c r="L11" s="113"/>
-      <c r="M11" s="113" t="s">
+      <c r="H11" s="118"/>
+      <c r="I11" s="118"/>
+      <c r="J11" s="118"/>
+      <c r="K11" s="118"/>
+      <c r="L11" s="118"/>
+      <c r="M11" s="118" t="s">
         <v>28</v>
       </c>
-      <c r="N11" s="113"/>
-      <c r="O11" s="113"/>
-      <c r="P11" s="113"/>
-      <c r="Q11" s="113"/>
-      <c r="R11" s="113"/>
-      <c r="S11" s="113" t="s">
+      <c r="N11" s="118"/>
+      <c r="O11" s="118"/>
+      <c r="P11" s="118"/>
+      <c r="Q11" s="118"/>
+      <c r="R11" s="118"/>
+      <c r="S11" s="118" t="s">
         <v>9</v>
       </c>
-      <c r="T11" s="113"/>
-      <c r="U11" s="113"/>
-      <c r="V11" s="113"/>
-      <c r="W11" s="113"/>
-      <c r="X11" s="113"/>
+      <c r="T11" s="118"/>
+      <c r="U11" s="118"/>
+      <c r="V11" s="118"/>
+      <c r="W11" s="118"/>
+      <c r="X11" s="118"/>
     </row>
     <row r="12" spans="1:24" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
@@ -4845,15 +4627,15 @@
       <c r="X13" s="131"/>
     </row>
     <row r="14" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="109"/>
-      <c r="B14" s="109"/>
-      <c r="C14" s="109"/>
-      <c r="D14" s="109"/>
-      <c r="E14" s="109"/>
-      <c r="F14" s="109"/>
-      <c r="G14" s="109"/>
-      <c r="H14" s="109"/>
-      <c r="I14" s="109"/>
+      <c r="A14" s="108"/>
+      <c r="B14" s="108"/>
+      <c r="C14" s="108"/>
+      <c r="D14" s="108"/>
+      <c r="E14" s="108"/>
+      <c r="F14" s="108"/>
+      <c r="G14" s="108"/>
+      <c r="H14" s="108"/>
+      <c r="I14" s="108"/>
       <c r="J14" s="140" t="s">
         <v>29</v>
       </c>
@@ -4901,31 +4683,31 @@
       <c r="X15" s="3"/>
     </row>
     <row r="16" spans="1:24" s="4" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="65" t="s">
+      <c r="A16" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="65"/>
-      <c r="C16" s="65"/>
-      <c r="D16" s="65"/>
-      <c r="E16" s="65"/>
-      <c r="F16" s="65"/>
-      <c r="G16" s="65"/>
-      <c r="H16" s="65"/>
-      <c r="I16" s="65"/>
-      <c r="J16" s="126" t="s">
+      <c r="B16" s="54"/>
+      <c r="C16" s="54"/>
+      <c r="D16" s="54"/>
+      <c r="E16" s="54"/>
+      <c r="F16" s="54"/>
+      <c r="G16" s="54"/>
+      <c r="H16" s="54"/>
+      <c r="I16" s="54"/>
+      <c r="J16" s="123" t="s">
         <v>32</v>
       </c>
-      <c r="K16" s="126"/>
-      <c r="L16" s="126"/>
-      <c r="M16" s="126"/>
-      <c r="N16" s="65" t="s">
+      <c r="K16" s="123"/>
+      <c r="L16" s="123"/>
+      <c r="M16" s="123"/>
+      <c r="N16" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="O16" s="65"/>
-      <c r="P16" s="65"/>
-      <c r="Q16" s="65"/>
-      <c r="R16" s="65"/>
-      <c r="S16" s="65"/>
+      <c r="O16" s="54"/>
+      <c r="P16" s="54"/>
+      <c r="Q16" s="54"/>
+      <c r="R16" s="54"/>
+      <c r="S16" s="54"/>
       <c r="T16" s="148" t="s">
         <v>33</v>
       </c>

--- a/Bitacoras/Bitacora_4.xlsx
+++ b/Bitacoras/Bitacora_4.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a195dc11b842bbc7/Escritorio/Notas-sena/Bitacoras/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="26" documentId="13_ncr:1_{E5374AE3-5B60-4CDE-A0A2-3594934A88FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B17FF980-CE03-460C-9D90-B42113260EAE}"/>
+  <xr:revisionPtr revIDLastSave="32" documentId="13_ncr:1_{E5374AE3-5B60-4CDE-A0A2-3594934A88FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D5A39B35-0B65-4F54-8013-08E02A95D493}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -414,9 +414,6 @@
     <t>hysanchez334@sena.edu.co</t>
   </si>
   <si>
-    <t>Manual</t>
-  </si>
-  <si>
     <t>7/12/2023 A 22/12/2023</t>
   </si>
   <si>
@@ -427,6 +424,9 @@
   </si>
   <si>
     <t>Curso de introduccion a BTP, en la plataforma openSAP</t>
+  </si>
+  <si>
+    <t>Curso</t>
   </si>
 </sst>
 </file>
@@ -897,9 +897,30 @@
     <xf numFmtId="0" fontId="15" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -930,26 +951,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -960,6 +972,15 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -972,241 +993,280 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="15" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1225,68 +1285,8 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1529,6 +1529,50 @@
         <a:xfrm>
           <a:off x="5796643" y="18301607"/>
           <a:ext cx="1419423" cy="266737"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>244928</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>136071</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>2114142</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>294142</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Imagen 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49773C76-0086-CEB5-26E0-EDC3568FC85D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6354535" y="7225392"/>
+          <a:ext cx="7938000" cy="3587071"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1929,47 +1973,47 @@
   <sheetData>
     <row r="1" spans="2:15" ht="10.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:15" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
       <c r="L2" s="16"/>
       <c r="M2" s="16"/>
       <c r="N2" s="16"/>
     </row>
     <row r="3" spans="2:15" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="44"/>
-      <c r="K3" s="44"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
       <c r="L3" s="16"/>
       <c r="M3" s="16"/>
       <c r="N3" s="16"/>
     </row>
     <row r="4" spans="2:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="45" t="s">
+      <c r="B4" s="35" t="s">
         <v>109</v>
       </c>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="45"/>
-      <c r="J4" s="45"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
       <c r="K4" s="25" t="s">
         <v>102</v>
       </c>
@@ -1978,15 +2022,15 @@
       <c r="N4" s="16"/>
     </row>
     <row r="5" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="45"/>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="45"/>
-      <c r="J5" s="45"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
       <c r="K5" s="26" t="s">
         <v>82</v>
       </c>
@@ -1996,277 +2040,277 @@
       <c r="O5" s="16"/>
     </row>
     <row r="6" spans="2:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="45" t="s">
+      <c r="B6" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="45"/>
-      <c r="J6" s="45"/>
-      <c r="K6" s="45"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="35"/>
+      <c r="K6" s="35"/>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B7" s="45" t="s">
+      <c r="B7" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="45"/>
-      <c r="F7" s="45"/>
-      <c r="G7" s="45"/>
-      <c r="H7" s="45"/>
-      <c r="I7" s="45"/>
-      <c r="J7" s="45"/>
-      <c r="K7" s="45"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="35"/>
+      <c r="J7" s="35"/>
+      <c r="K7" s="35"/>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B8" s="42" t="s">
+      <c r="B8" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="42"/>
-      <c r="I8" s="42"/>
-      <c r="J8" s="42"/>
-      <c r="K8" s="42"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="32"/>
+      <c r="J8" s="32"/>
+      <c r="K8" s="32"/>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B9" s="30" t="s">
+      <c r="B9" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="31"/>
-      <c r="J9" s="31"/>
-      <c r="K9" s="32"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="38"/>
+      <c r="J9" s="38"/>
+      <c r="K9" s="39"/>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B10" s="33"/>
-      <c r="C10" s="34"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="34"/>
-      <c r="I10" s="34"/>
-      <c r="J10" s="34"/>
-      <c r="K10" s="35"/>
+      <c r="B10" s="40"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="41"/>
+      <c r="J10" s="41"/>
+      <c r="K10" s="42"/>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B11" s="33"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="34"/>
-      <c r="J11" s="34"/>
-      <c r="K11" s="35"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="41"/>
+      <c r="J11" s="41"/>
+      <c r="K11" s="42"/>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B12" s="33"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="34"/>
-      <c r="I12" s="34"/>
-      <c r="J12" s="34"/>
-      <c r="K12" s="35"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="41"/>
+      <c r="J12" s="41"/>
+      <c r="K12" s="42"/>
     </row>
     <row r="13" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="33"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="34"/>
-      <c r="J13" s="34"/>
-      <c r="K13" s="35"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="41"/>
+      <c r="I13" s="41"/>
+      <c r="J13" s="41"/>
+      <c r="K13" s="42"/>
     </row>
     <row r="14" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="33"/>
-      <c r="C14" s="34"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="34"/>
-      <c r="J14" s="34"/>
-      <c r="K14" s="35"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="41"/>
+      <c r="I14" s="41"/>
+      <c r="J14" s="41"/>
+      <c r="K14" s="42"/>
     </row>
     <row r="15" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="33"/>
-      <c r="C15" s="34"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="34"/>
-      <c r="I15" s="34"/>
-      <c r="J15" s="34"/>
-      <c r="K15" s="35"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="41"/>
+      <c r="I15" s="41"/>
+      <c r="J15" s="41"/>
+      <c r="K15" s="42"/>
     </row>
     <row r="16" spans="2:15" ht="34.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="33"/>
-      <c r="C16" s="34"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="34"/>
-      <c r="I16" s="34"/>
-      <c r="J16" s="34"/>
-      <c r="K16" s="35"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="41"/>
+      <c r="J16" s="41"/>
+      <c r="K16" s="42"/>
     </row>
     <row r="17" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="33"/>
-      <c r="C17" s="34"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="34"/>
-      <c r="H17" s="34"/>
-      <c r="I17" s="34"/>
-      <c r="J17" s="34"/>
-      <c r="K17" s="35"/>
+      <c r="B17" s="40"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="41"/>
+      <c r="I17" s="41"/>
+      <c r="J17" s="41"/>
+      <c r="K17" s="42"/>
     </row>
     <row r="18" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="33"/>
-      <c r="C18" s="34"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="34"/>
-      <c r="I18" s="34"/>
-      <c r="J18" s="34"/>
-      <c r="K18" s="35"/>
+      <c r="B18" s="40"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="41"/>
+      <c r="I18" s="41"/>
+      <c r="J18" s="41"/>
+      <c r="K18" s="42"/>
     </row>
     <row r="19" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="33"/>
-      <c r="C19" s="34"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="34"/>
-      <c r="G19" s="34"/>
-      <c r="H19" s="34"/>
-      <c r="I19" s="34"/>
-      <c r="J19" s="34"/>
-      <c r="K19" s="35"/>
+      <c r="B19" s="40"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="41"/>
+      <c r="I19" s="41"/>
+      <c r="J19" s="41"/>
+      <c r="K19" s="42"/>
     </row>
     <row r="20" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="33"/>
-      <c r="C20" s="34"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="34"/>
-      <c r="G20" s="34"/>
-      <c r="H20" s="34"/>
-      <c r="I20" s="34"/>
-      <c r="J20" s="34"/>
-      <c r="K20" s="35"/>
+      <c r="B20" s="40"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="41"/>
+      <c r="I20" s="41"/>
+      <c r="J20" s="41"/>
+      <c r="K20" s="42"/>
     </row>
     <row r="21" spans="2:12" ht="6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="36"/>
-      <c r="C21" s="37"/>
-      <c r="D21" s="37"/>
-      <c r="E21" s="37"/>
-      <c r="F21" s="37"/>
-      <c r="G21" s="37"/>
-      <c r="H21" s="37"/>
-      <c r="I21" s="37"/>
-      <c r="J21" s="37"/>
-      <c r="K21" s="38"/>
+      <c r="B21" s="43"/>
+      <c r="C21" s="44"/>
+      <c r="D21" s="44"/>
+      <c r="E21" s="44"/>
+      <c r="F21" s="44"/>
+      <c r="G21" s="44"/>
+      <c r="H21" s="44"/>
+      <c r="I21" s="44"/>
+      <c r="J21" s="44"/>
+      <c r="K21" s="45"/>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B22" s="42" t="s">
+      <c r="B22" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="42"/>
-      <c r="D22" s="42"/>
-      <c r="E22" s="42"/>
-      <c r="F22" s="42"/>
-      <c r="G22" s="42"/>
-      <c r="H22" s="42"/>
-      <c r="I22" s="42"/>
-      <c r="J22" s="42"/>
-      <c r="K22" s="42"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="32"/>
+      <c r="I22" s="32"/>
+      <c r="J22" s="32"/>
+      <c r="K22" s="32"/>
     </row>
     <row r="23" spans="2:12" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="42"/>
-      <c r="C23" s="42"/>
-      <c r="D23" s="42"/>
-      <c r="E23" s="42"/>
-      <c r="F23" s="42"/>
-      <c r="G23" s="42"/>
-      <c r="H23" s="42"/>
-      <c r="I23" s="42"/>
-      <c r="J23" s="42"/>
-      <c r="K23" s="42"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="32"/>
+      <c r="H23" s="32"/>
+      <c r="I23" s="32"/>
+      <c r="J23" s="32"/>
+      <c r="K23" s="32"/>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B24" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="C24" s="43" t="s">
+      <c r="C24" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="D24" s="43"/>
-      <c r="E24" s="43"/>
-      <c r="F24" s="43"/>
-      <c r="G24" s="43"/>
-      <c r="H24" s="43" t="s">
+      <c r="D24" s="33"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="33"/>
+      <c r="H24" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="I24" s="43"/>
-      <c r="J24" s="43"/>
-      <c r="K24" s="43"/>
+      <c r="I24" s="33"/>
+      <c r="J24" s="33"/>
+      <c r="K24" s="33"/>
       <c r="L24" s="17"/>
     </row>
     <row r="25" spans="2:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C25" s="39" t="s">
+      <c r="C25" s="28" t="s">
         <v>103</v>
       </c>
-      <c r="D25" s="40"/>
-      <c r="E25" s="40"/>
-      <c r="F25" s="40"/>
-      <c r="G25" s="41"/>
-      <c r="H25" s="39"/>
-      <c r="I25" s="40"/>
-      <c r="J25" s="40"/>
-      <c r="K25" s="41"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="30"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="29"/>
+      <c r="J25" s="29"/>
+      <c r="K25" s="30"/>
     </row>
     <row r="26" spans="2:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="C26" s="39" t="s">
+      <c r="C26" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="D26" s="40"/>
-      <c r="E26" s="40"/>
-      <c r="F26" s="40"/>
-      <c r="G26" s="41"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="30"/>
       <c r="H26" s="19"/>
       <c r="I26" s="20"/>
       <c r="J26" s="20"/>
@@ -2276,391 +2320,391 @@
       <c r="B27" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="C27" s="39" t="s">
+      <c r="C27" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="D27" s="40"/>
-      <c r="E27" s="40"/>
-      <c r="F27" s="40"/>
-      <c r="G27" s="41"/>
-      <c r="H27" s="28"/>
-      <c r="I27" s="28"/>
-      <c r="J27" s="28"/>
-      <c r="K27" s="28"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="30"/>
+      <c r="H27" s="31"/>
+      <c r="I27" s="31"/>
+      <c r="J27" s="31"/>
+      <c r="K27" s="31"/>
     </row>
     <row r="28" spans="2:12" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C28" s="39" t="s">
+      <c r="C28" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="D28" s="40"/>
-      <c r="E28" s="40"/>
-      <c r="F28" s="40"/>
-      <c r="G28" s="41"/>
-      <c r="H28" s="28"/>
-      <c r="I28" s="28"/>
-      <c r="J28" s="28"/>
-      <c r="K28" s="28"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="30"/>
+      <c r="H28" s="31"/>
+      <c r="I28" s="31"/>
+      <c r="J28" s="31"/>
+      <c r="K28" s="31"/>
     </row>
     <row r="29" spans="2:12" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C29" s="28" t="s">
+      <c r="C29" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="D29" s="28"/>
-      <c r="E29" s="28"/>
-      <c r="F29" s="28"/>
-      <c r="G29" s="28"/>
-      <c r="H29" s="28" t="s">
+      <c r="D29" s="31"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="31"/>
+      <c r="G29" s="31"/>
+      <c r="H29" s="31" t="s">
         <v>105</v>
       </c>
-      <c r="I29" s="28"/>
-      <c r="J29" s="28"/>
-      <c r="K29" s="28"/>
+      <c r="I29" s="31"/>
+      <c r="J29" s="31"/>
+      <c r="K29" s="31"/>
     </row>
     <row r="30" spans="2:12" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C30" s="28" t="s">
+      <c r="C30" s="31" t="s">
         <v>106</v>
       </c>
-      <c r="D30" s="28"/>
-      <c r="E30" s="28"/>
-      <c r="F30" s="28"/>
-      <c r="G30" s="28"/>
-      <c r="H30" s="28" t="s">
+      <c r="D30" s="31"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="31"/>
+      <c r="G30" s="31"/>
+      <c r="H30" s="31" t="s">
         <v>105</v>
       </c>
-      <c r="I30" s="28"/>
-      <c r="J30" s="28"/>
-      <c r="K30" s="28"/>
+      <c r="I30" s="31"/>
+      <c r="J30" s="31"/>
+      <c r="K30" s="31"/>
     </row>
     <row r="31" spans="2:12" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C31" s="28" t="s">
+      <c r="C31" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="D31" s="28"/>
-      <c r="E31" s="28"/>
-      <c r="F31" s="28"/>
-      <c r="G31" s="28"/>
-      <c r="H31" s="28" t="s">
+      <c r="D31" s="31"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="31"/>
+      <c r="G31" s="31"/>
+      <c r="H31" s="31" t="s">
         <v>105</v>
       </c>
-      <c r="I31" s="28"/>
-      <c r="J31" s="28"/>
-      <c r="K31" s="28"/>
+      <c r="I31" s="31"/>
+      <c r="J31" s="31"/>
+      <c r="K31" s="31"/>
     </row>
     <row r="32" spans="2:12" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C32" s="28" t="s">
+      <c r="C32" s="31" t="s">
         <v>107</v>
       </c>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="28"/>
-      <c r="K32" s="28"/>
+      <c r="D32" s="31"/>
+      <c r="E32" s="31"/>
+      <c r="F32" s="31"/>
+      <c r="G32" s="31"/>
+      <c r="H32" s="31"/>
+      <c r="I32" s="31"/>
+      <c r="J32" s="31"/>
+      <c r="K32" s="31"/>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B33" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C33" s="28" t="s">
+      <c r="C33" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="D33" s="28"/>
-      <c r="E33" s="28"/>
-      <c r="F33" s="28"/>
-      <c r="G33" s="28"/>
-      <c r="H33" s="28"/>
-      <c r="I33" s="28"/>
-      <c r="J33" s="28"/>
-      <c r="K33" s="28"/>
+      <c r="D33" s="31"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="31"/>
+      <c r="G33" s="31"/>
+      <c r="H33" s="31"/>
+      <c r="I33" s="31"/>
+      <c r="J33" s="31"/>
+      <c r="K33" s="31"/>
     </row>
     <row r="34" spans="2:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B34" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="C34" s="28" t="s">
+      <c r="C34" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="D34" s="28"/>
-      <c r="E34" s="28"/>
-      <c r="F34" s="28"/>
-      <c r="G34" s="28"/>
-      <c r="H34" s="28"/>
-      <c r="I34" s="28"/>
-      <c r="J34" s="28"/>
-      <c r="K34" s="28"/>
+      <c r="D34" s="31"/>
+      <c r="E34" s="31"/>
+      <c r="F34" s="31"/>
+      <c r="G34" s="31"/>
+      <c r="H34" s="31"/>
+      <c r="I34" s="31"/>
+      <c r="J34" s="31"/>
+      <c r="K34" s="31"/>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B35" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C35" s="28" t="s">
+      <c r="C35" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="D35" s="28"/>
-      <c r="E35" s="28"/>
-      <c r="F35" s="28"/>
-      <c r="G35" s="28"/>
-      <c r="H35" s="28"/>
-      <c r="I35" s="28"/>
-      <c r="J35" s="28"/>
-      <c r="K35" s="28"/>
+      <c r="D35" s="31"/>
+      <c r="E35" s="31"/>
+      <c r="F35" s="31"/>
+      <c r="G35" s="31"/>
+      <c r="H35" s="31"/>
+      <c r="I35" s="31"/>
+      <c r="J35" s="31"/>
+      <c r="K35" s="31"/>
     </row>
     <row r="36" spans="2:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B36" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="C36" s="28" t="s">
+      <c r="C36" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="D36" s="28"/>
-      <c r="E36" s="28"/>
-      <c r="F36" s="28"/>
-      <c r="G36" s="28"/>
-      <c r="H36" s="28" t="s">
+      <c r="D36" s="31"/>
+      <c r="E36" s="31"/>
+      <c r="F36" s="31"/>
+      <c r="G36" s="31"/>
+      <c r="H36" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="I36" s="28"/>
-      <c r="J36" s="28"/>
-      <c r="K36" s="28"/>
+      <c r="I36" s="31"/>
+      <c r="J36" s="31"/>
+      <c r="K36" s="31"/>
     </row>
     <row r="37" spans="2:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="C37" s="28" t="s">
+      <c r="C37" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="D37" s="28"/>
-      <c r="E37" s="28"/>
-      <c r="F37" s="28"/>
-      <c r="G37" s="28"/>
-      <c r="H37" s="28"/>
-      <c r="I37" s="28"/>
-      <c r="J37" s="28"/>
-      <c r="K37" s="28"/>
+      <c r="D37" s="31"/>
+      <c r="E37" s="31"/>
+      <c r="F37" s="31"/>
+      <c r="G37" s="31"/>
+      <c r="H37" s="31"/>
+      <c r="I37" s="31"/>
+      <c r="J37" s="31"/>
+      <c r="K37" s="31"/>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B38" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="C38" s="28" t="s">
+      <c r="C38" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="D38" s="28"/>
-      <c r="E38" s="28"/>
-      <c r="F38" s="28"/>
-      <c r="G38" s="28"/>
-      <c r="H38" s="28"/>
-      <c r="I38" s="28"/>
-      <c r="J38" s="28"/>
-      <c r="K38" s="28"/>
+      <c r="D38" s="31"/>
+      <c r="E38" s="31"/>
+      <c r="F38" s="31"/>
+      <c r="G38" s="31"/>
+      <c r="H38" s="31"/>
+      <c r="I38" s="31"/>
+      <c r="J38" s="31"/>
+      <c r="K38" s="31"/>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B39" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="C39" s="28" t="s">
+      <c r="C39" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="D39" s="28"/>
-      <c r="E39" s="28"/>
-      <c r="F39" s="28"/>
-      <c r="G39" s="28"/>
-      <c r="H39" s="28"/>
-      <c r="I39" s="28"/>
-      <c r="J39" s="28"/>
-      <c r="K39" s="28"/>
+      <c r="D39" s="31"/>
+      <c r="E39" s="31"/>
+      <c r="F39" s="31"/>
+      <c r="G39" s="31"/>
+      <c r="H39" s="31"/>
+      <c r="I39" s="31"/>
+      <c r="J39" s="31"/>
+      <c r="K39" s="31"/>
     </row>
     <row r="40" spans="2:11" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="C40" s="28" t="s">
+      <c r="C40" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="D40" s="28"/>
-      <c r="E40" s="28"/>
-      <c r="F40" s="28"/>
-      <c r="G40" s="28"/>
-      <c r="H40" s="28"/>
-      <c r="I40" s="28"/>
-      <c r="J40" s="28"/>
-      <c r="K40" s="28"/>
+      <c r="D40" s="31"/>
+      <c r="E40" s="31"/>
+      <c r="F40" s="31"/>
+      <c r="G40" s="31"/>
+      <c r="H40" s="31"/>
+      <c r="I40" s="31"/>
+      <c r="J40" s="31"/>
+      <c r="K40" s="31"/>
     </row>
     <row r="41" spans="2:11" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="C41" s="28" t="s">
+      <c r="C41" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="D41" s="28"/>
-      <c r="E41" s="28"/>
-      <c r="F41" s="28"/>
-      <c r="G41" s="28"/>
-      <c r="H41" s="28"/>
-      <c r="I41" s="28"/>
-      <c r="J41" s="28"/>
-      <c r="K41" s="28"/>
+      <c r="D41" s="31"/>
+      <c r="E41" s="31"/>
+      <c r="F41" s="31"/>
+      <c r="G41" s="31"/>
+      <c r="H41" s="31"/>
+      <c r="I41" s="31"/>
+      <c r="J41" s="31"/>
+      <c r="K41" s="31"/>
     </row>
     <row r="42" spans="2:11" ht="177" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="C42" s="28" t="s">
+      <c r="C42" s="31" t="s">
         <v>77</v>
       </c>
-      <c r="D42" s="28"/>
-      <c r="E42" s="28"/>
-      <c r="F42" s="28"/>
-      <c r="G42" s="28"/>
-      <c r="H42" s="28" t="s">
+      <c r="D42" s="31"/>
+      <c r="E42" s="31"/>
+      <c r="F42" s="31"/>
+      <c r="G42" s="31"/>
+      <c r="H42" s="31" t="s">
         <v>108</v>
       </c>
-      <c r="I42" s="28"/>
-      <c r="J42" s="28"/>
-      <c r="K42" s="28"/>
+      <c r="I42" s="31"/>
+      <c r="J42" s="31"/>
+      <c r="K42" s="31"/>
     </row>
     <row r="43" spans="2:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B43" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="C43" s="28" t="s">
+      <c r="C43" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="D43" s="28"/>
-      <c r="E43" s="28"/>
-      <c r="F43" s="28"/>
-      <c r="G43" s="28"/>
-      <c r="H43" s="28"/>
-      <c r="I43" s="28"/>
-      <c r="J43" s="28"/>
-      <c r="K43" s="28"/>
+      <c r="D43" s="31"/>
+      <c r="E43" s="31"/>
+      <c r="F43" s="31"/>
+      <c r="G43" s="31"/>
+      <c r="H43" s="31"/>
+      <c r="I43" s="31"/>
+      <c r="J43" s="31"/>
+      <c r="K43" s="31"/>
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B44" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C44" s="39" t="s">
+      <c r="C44" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="D44" s="40"/>
-      <c r="E44" s="40"/>
-      <c r="F44" s="40"/>
-      <c r="G44" s="41"/>
-      <c r="H44" s="39"/>
-      <c r="I44" s="40"/>
-      <c r="J44" s="40"/>
-      <c r="K44" s="41"/>
+      <c r="D44" s="29"/>
+      <c r="E44" s="29"/>
+      <c r="F44" s="29"/>
+      <c r="G44" s="30"/>
+      <c r="H44" s="28"/>
+      <c r="I44" s="29"/>
+      <c r="J44" s="29"/>
+      <c r="K44" s="30"/>
     </row>
     <row r="45" spans="2:11" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C45" s="28" t="s">
+      <c r="C45" s="31" t="s">
         <v>79</v>
       </c>
-      <c r="D45" s="28"/>
-      <c r="E45" s="28"/>
-      <c r="F45" s="28"/>
-      <c r="G45" s="28"/>
-      <c r="H45" s="28"/>
-      <c r="I45" s="28"/>
-      <c r="J45" s="28"/>
-      <c r="K45" s="28"/>
+      <c r="D45" s="31"/>
+      <c r="E45" s="31"/>
+      <c r="F45" s="31"/>
+      <c r="G45" s="31"/>
+      <c r="H45" s="31"/>
+      <c r="I45" s="31"/>
+      <c r="J45" s="31"/>
+      <c r="K45" s="31"/>
     </row>
     <row r="46" spans="2:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C46" s="28" t="s">
+      <c r="C46" s="31" t="s">
         <v>80</v>
       </c>
-      <c r="D46" s="28"/>
-      <c r="E46" s="28"/>
-      <c r="F46" s="28"/>
-      <c r="G46" s="28"/>
-      <c r="H46" s="28"/>
-      <c r="I46" s="28"/>
-      <c r="J46" s="28"/>
-      <c r="K46" s="28"/>
+      <c r="D46" s="31"/>
+      <c r="E46" s="31"/>
+      <c r="F46" s="31"/>
+      <c r="G46" s="31"/>
+      <c r="H46" s="31"/>
+      <c r="I46" s="31"/>
+      <c r="J46" s="31"/>
+      <c r="K46" s="31"/>
     </row>
     <row r="47" spans="2:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B47" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="C47" s="39" t="s">
+      <c r="C47" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="D47" s="40"/>
-      <c r="E47" s="40"/>
-      <c r="F47" s="40"/>
-      <c r="G47" s="41"/>
-      <c r="H47" s="39"/>
-      <c r="I47" s="40"/>
-      <c r="J47" s="40"/>
-      <c r="K47" s="41"/>
+      <c r="D47" s="29"/>
+      <c r="E47" s="29"/>
+      <c r="F47" s="29"/>
+      <c r="G47" s="30"/>
+      <c r="H47" s="28"/>
+      <c r="I47" s="29"/>
+      <c r="J47" s="29"/>
+      <c r="K47" s="30"/>
     </row>
     <row r="48" spans="2:11" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="C48" s="28" t="s">
+      <c r="C48" s="31" t="s">
         <v>79</v>
       </c>
-      <c r="D48" s="28"/>
-      <c r="E48" s="28"/>
-      <c r="F48" s="28"/>
-      <c r="G48" s="28"/>
-      <c r="H48" s="28"/>
-      <c r="I48" s="28"/>
-      <c r="J48" s="28"/>
-      <c r="K48" s="28"/>
+      <c r="D48" s="31"/>
+      <c r="E48" s="31"/>
+      <c r="F48" s="31"/>
+      <c r="G48" s="31"/>
+      <c r="H48" s="31"/>
+      <c r="I48" s="31"/>
+      <c r="J48" s="31"/>
+      <c r="K48" s="31"/>
     </row>
     <row r="49" spans="2:11" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="C49" s="28" t="s">
+      <c r="C49" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="D49" s="28"/>
-      <c r="E49" s="28"/>
-      <c r="F49" s="28"/>
-      <c r="G49" s="28"/>
-      <c r="H49" s="28"/>
-      <c r="I49" s="28"/>
-      <c r="J49" s="28"/>
-      <c r="K49" s="28"/>
+      <c r="D49" s="31"/>
+      <c r="E49" s="31"/>
+      <c r="F49" s="31"/>
+      <c r="G49" s="31"/>
+      <c r="H49" s="31"/>
+      <c r="I49" s="31"/>
+      <c r="J49" s="31"/>
+      <c r="K49" s="31"/>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B50" s="29"/>
-      <c r="C50" s="29"/>
-      <c r="D50" s="29"/>
-      <c r="E50" s="29"/>
-      <c r="F50" s="29"/>
-      <c r="G50" s="29"/>
-      <c r="H50" s="29"/>
-      <c r="I50" s="29"/>
-      <c r="J50" s="29"/>
-      <c r="K50" s="29"/>
+      <c r="B50" s="36"/>
+      <c r="C50" s="36"/>
+      <c r="D50" s="36"/>
+      <c r="E50" s="36"/>
+      <c r="F50" s="36"/>
+      <c r="G50" s="36"/>
+      <c r="H50" s="36"/>
+      <c r="I50" s="36"/>
+      <c r="J50" s="36"/>
+      <c r="K50" s="36"/>
     </row>
     <row r="51" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B51" s="22"/>
@@ -2688,6 +2732,50 @@
     </row>
   </sheetData>
   <mergeCells count="60">
+    <mergeCell ref="H42:K42"/>
+    <mergeCell ref="H43:K43"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="H36:K36"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="B50:K50"/>
+    <mergeCell ref="B9:K21"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="H44:K44"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="H45:K45"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="H46:K46"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="H28:K28"/>
+    <mergeCell ref="H35:K35"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="H31:K31"/>
+    <mergeCell ref="H32:K32"/>
+    <mergeCell ref="H33:K33"/>
+    <mergeCell ref="B22:K22"/>
+    <mergeCell ref="B23:K23"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="B2:K3"/>
+    <mergeCell ref="B4:J5"/>
+    <mergeCell ref="B6:K6"/>
+    <mergeCell ref="B7:K7"/>
+    <mergeCell ref="B8:K8"/>
     <mergeCell ref="C26:G26"/>
     <mergeCell ref="C34:G34"/>
     <mergeCell ref="H34:K34"/>
@@ -2704,50 +2792,6 @@
     <mergeCell ref="C33:G33"/>
     <mergeCell ref="C35:G35"/>
     <mergeCell ref="C36:G36"/>
-    <mergeCell ref="B22:K22"/>
-    <mergeCell ref="B23:K23"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="H24:K24"/>
-    <mergeCell ref="B2:K3"/>
-    <mergeCell ref="B4:J5"/>
-    <mergeCell ref="B6:K6"/>
-    <mergeCell ref="B7:K7"/>
-    <mergeCell ref="B8:K8"/>
-    <mergeCell ref="H28:K28"/>
-    <mergeCell ref="H35:K35"/>
-    <mergeCell ref="H30:K30"/>
-    <mergeCell ref="H31:K31"/>
-    <mergeCell ref="H32:K32"/>
-    <mergeCell ref="H33:K33"/>
-    <mergeCell ref="B50:K50"/>
-    <mergeCell ref="B9:K21"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="C44:G44"/>
-    <mergeCell ref="H44:K44"/>
-    <mergeCell ref="C45:G45"/>
-    <mergeCell ref="H45:K45"/>
-    <mergeCell ref="C46:G46"/>
-    <mergeCell ref="H46:K46"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="H25:K25"/>
-    <mergeCell ref="H29:K29"/>
-    <mergeCell ref="H42:K42"/>
-    <mergeCell ref="H43:K43"/>
-    <mergeCell ref="C38:G38"/>
-    <mergeCell ref="H36:K36"/>
-    <mergeCell ref="C39:G39"/>
-    <mergeCell ref="C40:G40"/>
-    <mergeCell ref="C41:G41"/>
-    <mergeCell ref="C42:G42"/>
-    <mergeCell ref="C43:G43"/>
-    <mergeCell ref="H38:K38"/>
-    <mergeCell ref="H39:K39"/>
-    <mergeCell ref="H40:K40"/>
-    <mergeCell ref="H41:K41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2758,8 +2802,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:Y49"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A37" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O52" sqref="O52"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A35" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Z37" sqref="Z37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2789,294 +2833,294 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:25" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="83"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66"/>
-      <c r="M1" s="66"/>
-      <c r="N1" s="66"/>
-      <c r="O1" s="66"/>
-      <c r="P1" s="66"/>
-      <c r="Q1" s="66"/>
-      <c r="R1" s="66"/>
-      <c r="S1" s="66"/>
-      <c r="T1" s="66"/>
-      <c r="U1" s="66"/>
-      <c r="V1" s="85"/>
-      <c r="W1" s="80" t="s">
+      <c r="B1" s="107"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
+      <c r="G1" s="108"/>
+      <c r="H1" s="108"/>
+      <c r="I1" s="108"/>
+      <c r="J1" s="109"/>
+      <c r="K1" s="109"/>
+      <c r="L1" s="109"/>
+      <c r="M1" s="109"/>
+      <c r="N1" s="109"/>
+      <c r="O1" s="109"/>
+      <c r="P1" s="109"/>
+      <c r="Q1" s="109"/>
+      <c r="R1" s="109"/>
+      <c r="S1" s="109"/>
+      <c r="T1" s="109"/>
+      <c r="U1" s="109"/>
+      <c r="V1" s="110"/>
+      <c r="W1" s="105" t="s">
         <v>102</v>
       </c>
-      <c r="X1" s="81"/>
-      <c r="Y1" s="81"/>
+      <c r="X1" s="106"/>
+      <c r="Y1" s="106"/>
     </row>
     <row r="2" spans="2:25" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="83"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="66"/>
-      <c r="K2" s="66"/>
-      <c r="L2" s="66"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="66"/>
-      <c r="O2" s="66"/>
-      <c r="P2" s="66"/>
-      <c r="Q2" s="66"/>
-      <c r="R2" s="66"/>
-      <c r="S2" s="66"/>
-      <c r="T2" s="66"/>
-      <c r="U2" s="66"/>
-      <c r="V2" s="85"/>
-      <c r="W2" s="82" t="s">
+      <c r="B2" s="107"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="108"/>
+      <c r="H2" s="108"/>
+      <c r="I2" s="108"/>
+      <c r="J2" s="109"/>
+      <c r="K2" s="109"/>
+      <c r="L2" s="109"/>
+      <c r="M2" s="109"/>
+      <c r="N2" s="109"/>
+      <c r="O2" s="109"/>
+      <c r="P2" s="109"/>
+      <c r="Q2" s="109"/>
+      <c r="R2" s="109"/>
+      <c r="S2" s="109"/>
+      <c r="T2" s="109"/>
+      <c r="U2" s="109"/>
+      <c r="V2" s="110"/>
+      <c r="W2" s="81" t="s">
         <v>82</v>
       </c>
-      <c r="X2" s="81"/>
-      <c r="Y2" s="81"/>
+      <c r="X2" s="106"/>
+      <c r="Y2" s="106"/>
     </row>
     <row r="3" spans="2:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="86" t="s">
+      <c r="B3" s="111" t="s">
         <v>100</v>
       </c>
-      <c r="C3" s="87"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="87"/>
-      <c r="I3" s="87"/>
-      <c r="J3" s="87"/>
-      <c r="K3" s="88"/>
-      <c r="L3" s="88"/>
-      <c r="M3" s="88"/>
-      <c r="N3" s="88"/>
-      <c r="O3" s="88"/>
-      <c r="P3" s="88"/>
-      <c r="Q3" s="88"/>
-      <c r="R3" s="88"/>
-      <c r="S3" s="88"/>
-      <c r="T3" s="88"/>
-      <c r="U3" s="88"/>
-      <c r="V3" s="88"/>
-      <c r="W3" s="88"/>
-      <c r="X3" s="88"/>
-      <c r="Y3" s="88"/>
+      <c r="C3" s="112"/>
+      <c r="D3" s="112"/>
+      <c r="E3" s="112"/>
+      <c r="F3" s="112"/>
+      <c r="G3" s="112"/>
+      <c r="H3" s="112"/>
+      <c r="I3" s="112"/>
+      <c r="J3" s="112"/>
+      <c r="K3" s="113"/>
+      <c r="L3" s="113"/>
+      <c r="M3" s="113"/>
+      <c r="N3" s="113"/>
+      <c r="O3" s="113"/>
+      <c r="P3" s="113"/>
+      <c r="Q3" s="113"/>
+      <c r="R3" s="113"/>
+      <c r="S3" s="113"/>
+      <c r="T3" s="113"/>
+      <c r="U3" s="113"/>
+      <c r="V3" s="113"/>
+      <c r="W3" s="113"/>
+      <c r="X3" s="113"/>
+      <c r="Y3" s="113"/>
     </row>
     <row r="4" spans="2:25" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="86" t="s">
+      <c r="B4" s="111" t="s">
         <v>101</v>
       </c>
-      <c r="C4" s="87"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="87"/>
-      <c r="I4" s="87"/>
-      <c r="J4" s="87"/>
-      <c r="K4" s="88"/>
-      <c r="L4" s="88"/>
-      <c r="M4" s="88"/>
-      <c r="N4" s="88"/>
-      <c r="O4" s="88"/>
-      <c r="P4" s="88"/>
-      <c r="Q4" s="88"/>
-      <c r="R4" s="88"/>
-      <c r="S4" s="88"/>
-      <c r="T4" s="88"/>
-      <c r="U4" s="88"/>
-      <c r="V4" s="88"/>
-      <c r="W4" s="88"/>
-      <c r="X4" s="88"/>
-      <c r="Y4" s="88"/>
+      <c r="C4" s="112"/>
+      <c r="D4" s="112"/>
+      <c r="E4" s="112"/>
+      <c r="F4" s="112"/>
+      <c r="G4" s="112"/>
+      <c r="H4" s="112"/>
+      <c r="I4" s="112"/>
+      <c r="J4" s="112"/>
+      <c r="K4" s="113"/>
+      <c r="L4" s="113"/>
+      <c r="M4" s="113"/>
+      <c r="N4" s="113"/>
+      <c r="O4" s="113"/>
+      <c r="P4" s="113"/>
+      <c r="Q4" s="113"/>
+      <c r="R4" s="113"/>
+      <c r="S4" s="113"/>
+      <c r="T4" s="113"/>
+      <c r="U4" s="113"/>
+      <c r="V4" s="113"/>
+      <c r="W4" s="113"/>
+      <c r="X4" s="113"/>
+      <c r="Y4" s="113"/>
     </row>
     <row r="5" spans="2:25" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="59" t="s">
+      <c r="B5" s="70" t="s">
         <v>110</v>
       </c>
-      <c r="C5" s="60"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="60"/>
-      <c r="H5" s="60"/>
-      <c r="I5" s="60"/>
-      <c r="J5" s="60"/>
-      <c r="K5" s="60"/>
-      <c r="L5" s="60"/>
-      <c r="M5" s="60"/>
-      <c r="N5" s="60"/>
-      <c r="O5" s="60"/>
-      <c r="P5" s="60"/>
-      <c r="Q5" s="60"/>
-      <c r="R5" s="60"/>
-      <c r="S5" s="60"/>
-      <c r="T5" s="60"/>
-      <c r="U5" s="60"/>
-      <c r="V5" s="60"/>
-      <c r="W5" s="60"/>
-      <c r="X5" s="60"/>
-      <c r="Y5" s="61"/>
+      <c r="C5" s="71"/>
+      <c r="D5" s="71"/>
+      <c r="E5" s="71"/>
+      <c r="F5" s="71"/>
+      <c r="G5" s="71"/>
+      <c r="H5" s="71"/>
+      <c r="I5" s="71"/>
+      <c r="J5" s="71"/>
+      <c r="K5" s="71"/>
+      <c r="L5" s="71"/>
+      <c r="M5" s="71"/>
+      <c r="N5" s="71"/>
+      <c r="O5" s="71"/>
+      <c r="P5" s="71"/>
+      <c r="Q5" s="71"/>
+      <c r="R5" s="71"/>
+      <c r="S5" s="71"/>
+      <c r="T5" s="71"/>
+      <c r="U5" s="71"/>
+      <c r="V5" s="71"/>
+      <c r="W5" s="71"/>
+      <c r="X5" s="71"/>
+      <c r="Y5" s="72"/>
     </row>
     <row r="6" spans="2:25" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="59" t="s">
+      <c r="B6" s="70" t="s">
         <v>111</v>
       </c>
-      <c r="C6" s="60"/>
-      <c r="D6" s="60"/>
-      <c r="E6" s="60"/>
-      <c r="F6" s="60"/>
-      <c r="G6" s="60"/>
-      <c r="H6" s="60"/>
-      <c r="I6" s="60"/>
-      <c r="J6" s="60"/>
-      <c r="K6" s="60"/>
-      <c r="L6" s="60"/>
-      <c r="M6" s="60"/>
-      <c r="N6" s="60"/>
-      <c r="O6" s="60"/>
-      <c r="P6" s="60"/>
-      <c r="Q6" s="60"/>
-      <c r="R6" s="60"/>
-      <c r="S6" s="60"/>
-      <c r="T6" s="60"/>
-      <c r="U6" s="60"/>
-      <c r="V6" s="60"/>
-      <c r="W6" s="60"/>
-      <c r="X6" s="60"/>
-      <c r="Y6" s="61"/>
+      <c r="C6" s="71"/>
+      <c r="D6" s="71"/>
+      <c r="E6" s="71"/>
+      <c r="F6" s="71"/>
+      <c r="G6" s="71"/>
+      <c r="H6" s="71"/>
+      <c r="I6" s="71"/>
+      <c r="J6" s="71"/>
+      <c r="K6" s="71"/>
+      <c r="L6" s="71"/>
+      <c r="M6" s="71"/>
+      <c r="N6" s="71"/>
+      <c r="O6" s="71"/>
+      <c r="P6" s="71"/>
+      <c r="Q6" s="71"/>
+      <c r="R6" s="71"/>
+      <c r="S6" s="71"/>
+      <c r="T6" s="71"/>
+      <c r="U6" s="71"/>
+      <c r="V6" s="71"/>
+      <c r="W6" s="71"/>
+      <c r="X6" s="71"/>
+      <c r="Y6" s="72"/>
     </row>
     <row r="7" spans="2:25" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="62" t="s">
+      <c r="B7" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="63"/>
-      <c r="D7" s="63"/>
-      <c r="E7" s="63"/>
-      <c r="F7" s="63"/>
-      <c r="G7" s="63"/>
-      <c r="H7" s="63"/>
-      <c r="I7" s="63"/>
-      <c r="J7" s="63"/>
-      <c r="K7" s="63"/>
-      <c r="L7" s="63"/>
-      <c r="M7" s="63"/>
-      <c r="N7" s="63"/>
-      <c r="O7" s="63"/>
-      <c r="P7" s="63"/>
-      <c r="Q7" s="63"/>
-      <c r="R7" s="63"/>
-      <c r="S7" s="63"/>
-      <c r="T7" s="63"/>
-      <c r="U7" s="63"/>
-      <c r="V7" s="63"/>
-      <c r="W7" s="63"/>
-      <c r="X7" s="63"/>
-      <c r="Y7" s="63"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
+      <c r="G7" s="62"/>
+      <c r="H7" s="62"/>
+      <c r="I7" s="62"/>
+      <c r="J7" s="62"/>
+      <c r="K7" s="62"/>
+      <c r="L7" s="62"/>
+      <c r="M7" s="62"/>
+      <c r="N7" s="62"/>
+      <c r="O7" s="62"/>
+      <c r="P7" s="62"/>
+      <c r="Q7" s="62"/>
+      <c r="R7" s="62"/>
+      <c r="S7" s="62"/>
+      <c r="T7" s="62"/>
+      <c r="U7" s="62"/>
+      <c r="V7" s="62"/>
+      <c r="W7" s="62"/>
+      <c r="X7" s="62"/>
+      <c r="Y7" s="62"/>
     </row>
     <row r="8" spans="2:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="56"/>
-      <c r="C8" s="64"/>
-      <c r="D8" s="64"/>
-      <c r="E8" s="64"/>
-      <c r="F8" s="64"/>
-      <c r="G8" s="64"/>
-      <c r="H8" s="64"/>
-      <c r="I8" s="64"/>
-      <c r="J8" s="64"/>
-      <c r="K8" s="64"/>
-      <c r="L8" s="64"/>
-      <c r="M8" s="64"/>
-      <c r="N8" s="64"/>
-      <c r="O8" s="64"/>
-      <c r="P8" s="64"/>
-      <c r="Q8" s="64"/>
-      <c r="R8" s="64"/>
-      <c r="S8" s="64"/>
-      <c r="T8" s="64"/>
-      <c r="U8" s="64"/>
-      <c r="V8" s="64"/>
-      <c r="W8" s="64"/>
-      <c r="X8" s="64"/>
-      <c r="Y8" s="64"/>
+      <c r="B8" s="114"/>
+      <c r="C8" s="115"/>
+      <c r="D8" s="115"/>
+      <c r="E8" s="115"/>
+      <c r="F8" s="115"/>
+      <c r="G8" s="115"/>
+      <c r="H8" s="115"/>
+      <c r="I8" s="115"/>
+      <c r="J8" s="115"/>
+      <c r="K8" s="115"/>
+      <c r="L8" s="115"/>
+      <c r="M8" s="115"/>
+      <c r="N8" s="115"/>
+      <c r="O8" s="115"/>
+      <c r="P8" s="115"/>
+      <c r="Q8" s="115"/>
+      <c r="R8" s="115"/>
+      <c r="S8" s="115"/>
+      <c r="T8" s="115"/>
+      <c r="U8" s="115"/>
+      <c r="V8" s="115"/>
+      <c r="W8" s="115"/>
+      <c r="X8" s="115"/>
+      <c r="Y8" s="115"/>
     </row>
     <row r="9" spans="2:25" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="70" t="s">
+      <c r="B9" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="70"/>
-      <c r="D9" s="70"/>
-      <c r="E9" s="70"/>
-      <c r="F9" s="70"/>
-      <c r="G9" s="70"/>
-      <c r="H9" s="70"/>
-      <c r="I9" s="70"/>
-      <c r="J9" s="70"/>
-      <c r="K9" s="70"/>
-      <c r="L9" s="70"/>
-      <c r="M9" s="70" t="s">
+      <c r="C9" s="76"/>
+      <c r="D9" s="76"/>
+      <c r="E9" s="76"/>
+      <c r="F9" s="76"/>
+      <c r="G9" s="76"/>
+      <c r="H9" s="76"/>
+      <c r="I9" s="76"/>
+      <c r="J9" s="76"/>
+      <c r="K9" s="76"/>
+      <c r="L9" s="76"/>
+      <c r="M9" s="76" t="s">
         <v>83</v>
       </c>
-      <c r="N9" s="82"/>
-      <c r="O9" s="82"/>
-      <c r="P9" s="109" t="s">
+      <c r="N9" s="81"/>
+      <c r="O9" s="81"/>
+      <c r="P9" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="Q9" s="120"/>
-      <c r="R9" s="120"/>
-      <c r="S9" s="121"/>
-      <c r="T9" s="70" t="s">
+      <c r="Q9" s="79"/>
+      <c r="R9" s="79"/>
+      <c r="S9" s="80"/>
+      <c r="T9" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="U9" s="70"/>
-      <c r="V9" s="70"/>
-      <c r="W9" s="70"/>
-      <c r="X9" s="70"/>
-      <c r="Y9" s="70"/>
+      <c r="U9" s="76"/>
+      <c r="V9" s="76"/>
+      <c r="W9" s="76"/>
+      <c r="X9" s="76"/>
+      <c r="Y9" s="76"/>
     </row>
     <row r="10" spans="2:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="112" t="s">
+      <c r="B10" s="67" t="s">
         <v>112</v>
       </c>
-      <c r="C10" s="113"/>
-      <c r="D10" s="113"/>
-      <c r="E10" s="113"/>
-      <c r="F10" s="113"/>
-      <c r="G10" s="113"/>
-      <c r="H10" s="113"/>
-      <c r="I10" s="113"/>
-      <c r="J10" s="113"/>
-      <c r="K10" s="113"/>
-      <c r="L10" s="114"/>
-      <c r="M10" s="70" t="s">
+      <c r="C10" s="68"/>
+      <c r="D10" s="68"/>
+      <c r="E10" s="68"/>
+      <c r="F10" s="68"/>
+      <c r="G10" s="68"/>
+      <c r="H10" s="68"/>
+      <c r="I10" s="68"/>
+      <c r="J10" s="68"/>
+      <c r="K10" s="68"/>
+      <c r="L10" s="69"/>
+      <c r="M10" s="76" t="s">
         <v>113</v>
       </c>
-      <c r="N10" s="82"/>
-      <c r="O10" s="82"/>
-      <c r="P10" s="109">
+      <c r="N10" s="81"/>
+      <c r="O10" s="81"/>
+      <c r="P10" s="78">
         <v>4</v>
       </c>
-      <c r="Q10" s="120"/>
-      <c r="R10" s="120"/>
-      <c r="S10" s="121"/>
-      <c r="T10" s="118" t="s">
-        <v>121</v>
-      </c>
-      <c r="U10" s="118"/>
-      <c r="V10" s="118"/>
-      <c r="W10" s="118"/>
-      <c r="X10" s="118"/>
-      <c r="Y10" s="118"/>
+      <c r="Q10" s="79"/>
+      <c r="R10" s="79"/>
+      <c r="S10" s="80"/>
+      <c r="T10" s="75" t="s">
+        <v>120</v>
+      </c>
+      <c r="U10" s="75"/>
+      <c r="V10" s="75"/>
+      <c r="W10" s="75"/>
+      <c r="X10" s="75"/>
+      <c r="Y10" s="75"/>
     </row>
     <row r="11" spans="2:25" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="3"/>
@@ -3105,68 +3149,68 @@
       <c r="Y11" s="3"/>
     </row>
     <row r="12" spans="2:25" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="117" t="s">
+      <c r="B12" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="117"/>
-      <c r="D12" s="117"/>
-      <c r="E12" s="117"/>
-      <c r="F12" s="117"/>
-      <c r="G12" s="117"/>
-      <c r="H12" s="117"/>
-      <c r="I12" s="117"/>
-      <c r="J12" s="117"/>
-      <c r="K12" s="119" t="s">
+      <c r="C12" s="85"/>
+      <c r="D12" s="85"/>
+      <c r="E12" s="85"/>
+      <c r="F12" s="85"/>
+      <c r="G12" s="85"/>
+      <c r="H12" s="85"/>
+      <c r="I12" s="85"/>
+      <c r="J12" s="85"/>
+      <c r="K12" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="L12" s="119"/>
-      <c r="M12" s="119"/>
-      <c r="N12" s="119"/>
-      <c r="O12" s="119"/>
-      <c r="P12" s="119"/>
-      <c r="Q12" s="119" t="s">
+      <c r="L12" s="77"/>
+      <c r="M12" s="77"/>
+      <c r="N12" s="77"/>
+      <c r="O12" s="77"/>
+      <c r="P12" s="77"/>
+      <c r="Q12" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="R12" s="119"/>
-      <c r="S12" s="119"/>
-      <c r="T12" s="119"/>
-      <c r="U12" s="119"/>
-      <c r="V12" s="119"/>
-      <c r="W12" s="119"/>
-      <c r="X12" s="119"/>
-      <c r="Y12" s="119"/>
+      <c r="R12" s="77"/>
+      <c r="S12" s="77"/>
+      <c r="T12" s="77"/>
+      <c r="U12" s="77"/>
+      <c r="V12" s="77"/>
+      <c r="W12" s="77"/>
+      <c r="X12" s="77"/>
+      <c r="Y12" s="77"/>
     </row>
     <row r="13" spans="2:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="115" t="s">
+      <c r="B13" s="82" t="s">
         <v>114</v>
       </c>
-      <c r="C13" s="105"/>
-      <c r="D13" s="105"/>
-      <c r="E13" s="105"/>
-      <c r="F13" s="105"/>
-      <c r="G13" s="105"/>
-      <c r="H13" s="105"/>
-      <c r="I13" s="105"/>
-      <c r="J13" s="116"/>
-      <c r="K13" s="107">
+      <c r="C13" s="83"/>
+      <c r="D13" s="83"/>
+      <c r="E13" s="83"/>
+      <c r="F13" s="83"/>
+      <c r="G13" s="83"/>
+      <c r="H13" s="83"/>
+      <c r="I13" s="83"/>
+      <c r="J13" s="84"/>
+      <c r="K13" s="47">
         <v>3002132878</v>
       </c>
-      <c r="L13" s="107"/>
-      <c r="M13" s="107"/>
-      <c r="N13" s="107"/>
-      <c r="O13" s="107"/>
-      <c r="P13" s="107"/>
-      <c r="Q13" s="122" t="s">
+      <c r="L13" s="47"/>
+      <c r="M13" s="47"/>
+      <c r="N13" s="47"/>
+      <c r="O13" s="47"/>
+      <c r="P13" s="47"/>
+      <c r="Q13" s="46" t="s">
         <v>115</v>
       </c>
-      <c r="R13" s="107"/>
-      <c r="S13" s="107"/>
-      <c r="T13" s="107"/>
-      <c r="U13" s="107"/>
-      <c r="V13" s="107"/>
-      <c r="W13" s="107"/>
-      <c r="X13" s="107"/>
-      <c r="Y13" s="107"/>
+      <c r="R13" s="47"/>
+      <c r="S13" s="47"/>
+      <c r="T13" s="47"/>
+      <c r="U13" s="47"/>
+      <c r="V13" s="47"/>
+      <c r="W13" s="47"/>
+      <c r="X13" s="47"/>
+      <c r="Y13" s="47"/>
     </row>
     <row r="14" spans="2:25" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="3"/>
@@ -3195,100 +3239,100 @@
       <c r="Y14" s="3"/>
     </row>
     <row r="15" spans="2:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="65" t="s">
+      <c r="B15" s="116" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="65"/>
-      <c r="D15" s="65"/>
-      <c r="E15" s="65"/>
-      <c r="F15" s="65"/>
-      <c r="G15" s="65"/>
-      <c r="H15" s="65"/>
-      <c r="I15" s="65"/>
-      <c r="J15" s="65"/>
-      <c r="K15" s="65"/>
-      <c r="L15" s="65"/>
-      <c r="M15" s="65"/>
-      <c r="N15" s="65"/>
-      <c r="O15" s="65"/>
-      <c r="P15" s="65"/>
-      <c r="Q15" s="65"/>
-      <c r="R15" s="65"/>
-      <c r="S15" s="65"/>
-      <c r="T15" s="65"/>
-      <c r="U15" s="65"/>
-      <c r="V15" s="65"/>
-      <c r="W15" s="65"/>
-      <c r="X15" s="65"/>
-      <c r="Y15" s="65"/>
+      <c r="C15" s="116"/>
+      <c r="D15" s="116"/>
+      <c r="E15" s="116"/>
+      <c r="F15" s="116"/>
+      <c r="G15" s="116"/>
+      <c r="H15" s="116"/>
+      <c r="I15" s="116"/>
+      <c r="J15" s="116"/>
+      <c r="K15" s="116"/>
+      <c r="L15" s="116"/>
+      <c r="M15" s="116"/>
+      <c r="N15" s="116"/>
+      <c r="O15" s="116"/>
+      <c r="P15" s="116"/>
+      <c r="Q15" s="116"/>
+      <c r="R15" s="116"/>
+      <c r="S15" s="116"/>
+      <c r="T15" s="116"/>
+      <c r="U15" s="116"/>
+      <c r="V15" s="116"/>
+      <c r="W15" s="116"/>
+      <c r="X15" s="116"/>
+      <c r="Y15" s="116"/>
     </row>
     <row r="16" spans="2:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="72" t="s">
+      <c r="B16" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="72"/>
-      <c r="D16" s="73"/>
-      <c r="E16" s="72" t="s">
+      <c r="C16" s="73"/>
+      <c r="D16" s="74"/>
+      <c r="E16" s="73" t="s">
         <v>95</v>
       </c>
-      <c r="F16" s="72"/>
-      <c r="G16" s="72" t="s">
+      <c r="F16" s="73"/>
+      <c r="G16" s="73" t="s">
         <v>116</v>
       </c>
-      <c r="H16" s="72" t="s">
+      <c r="H16" s="73" t="s">
         <v>51</v>
       </c>
-      <c r="I16" s="72"/>
-      <c r="J16" s="73"/>
-      <c r="K16" s="74" t="s">
+      <c r="I16" s="73"/>
+      <c r="J16" s="74"/>
+      <c r="K16" s="121" t="s">
         <v>96</v>
       </c>
-      <c r="L16" s="75"/>
-      <c r="M16" s="76"/>
-      <c r="N16" s="73"/>
-      <c r="O16" s="72" t="s">
+      <c r="L16" s="122"/>
+      <c r="M16" s="123"/>
+      <c r="N16" s="74"/>
+      <c r="O16" s="73" t="s">
         <v>97</v>
       </c>
-      <c r="P16" s="73"/>
-      <c r="Q16" s="73"/>
-      <c r="R16" s="73"/>
-      <c r="S16" s="72" t="s">
+      <c r="P16" s="74"/>
+      <c r="Q16" s="74"/>
+      <c r="R16" s="74"/>
+      <c r="S16" s="73" t="s">
         <v>98</v>
       </c>
-      <c r="T16" s="72"/>
-      <c r="U16" s="73"/>
-      <c r="V16" s="72" t="s">
+      <c r="T16" s="73"/>
+      <c r="U16" s="74"/>
+      <c r="V16" s="73" t="s">
         <v>99</v>
       </c>
-      <c r="W16" s="72"/>
-      <c r="X16" s="72"/>
-      <c r="Y16" s="118"/>
+      <c r="W16" s="73"/>
+      <c r="X16" s="73"/>
+      <c r="Y16" s="75"/>
     </row>
     <row r="17" spans="2:25" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="72"/>
-      <c r="C17" s="72"/>
-      <c r="D17" s="73"/>
-      <c r="E17" s="72"/>
-      <c r="F17" s="72"/>
-      <c r="G17" s="72"/>
-      <c r="H17" s="72"/>
-      <c r="I17" s="72"/>
-      <c r="J17" s="73"/>
-      <c r="K17" s="77"/>
-      <c r="L17" s="78"/>
-      <c r="M17" s="79"/>
-      <c r="N17" s="73"/>
-      <c r="O17" s="73"/>
-      <c r="P17" s="73"/>
-      <c r="Q17" s="73"/>
-      <c r="R17" s="73"/>
-      <c r="S17" s="72"/>
-      <c r="T17" s="72"/>
-      <c r="U17" s="73"/>
-      <c r="V17" s="72"/>
-      <c r="W17" s="72"/>
-      <c r="X17" s="72"/>
-      <c r="Y17" s="118"/>
+      <c r="B17" s="73"/>
+      <c r="C17" s="73"/>
+      <c r="D17" s="74"/>
+      <c r="E17" s="73"/>
+      <c r="F17" s="73"/>
+      <c r="G17" s="73"/>
+      <c r="H17" s="73"/>
+      <c r="I17" s="73"/>
+      <c r="J17" s="74"/>
+      <c r="K17" s="124"/>
+      <c r="L17" s="125"/>
+      <c r="M17" s="126"/>
+      <c r="N17" s="74"/>
+      <c r="O17" s="74"/>
+      <c r="P17" s="74"/>
+      <c r="Q17" s="74"/>
+      <c r="R17" s="74"/>
+      <c r="S17" s="73"/>
+      <c r="T17" s="73"/>
+      <c r="U17" s="74"/>
+      <c r="V17" s="73"/>
+      <c r="W17" s="73"/>
+      <c r="X17" s="73"/>
+      <c r="Y17" s="75"/>
     </row>
     <row r="18" spans="2:25" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="3"/>
@@ -3317,72 +3361,72 @@
       <c r="Y18" s="3"/>
     </row>
     <row r="19" spans="2:25" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="67" t="s">
+      <c r="B19" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="104"/>
-      <c r="D19" s="104"/>
-      <c r="E19" s="104"/>
-      <c r="F19" s="104"/>
-      <c r="G19" s="104"/>
-      <c r="H19" s="104"/>
-      <c r="I19" s="104"/>
-      <c r="J19" s="62" t="s">
+      <c r="C19" s="64"/>
+      <c r="D19" s="64"/>
+      <c r="E19" s="64"/>
+      <c r="F19" s="64"/>
+      <c r="G19" s="64"/>
+      <c r="H19" s="64"/>
+      <c r="I19" s="64"/>
+      <c r="J19" s="61" t="s">
         <v>84</v>
       </c>
-      <c r="K19" s="63"/>
-      <c r="L19" s="63"/>
-      <c r="M19" s="63"/>
-      <c r="N19" s="63"/>
-      <c r="O19" s="62" t="s">
+      <c r="K19" s="62"/>
+      <c r="L19" s="62"/>
+      <c r="M19" s="62"/>
+      <c r="N19" s="62"/>
+      <c r="O19" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="P19" s="63"/>
-      <c r="Q19" s="63"/>
-      <c r="R19" s="63"/>
-      <c r="S19" s="63"/>
-      <c r="T19" s="67" t="s">
+      <c r="P19" s="62"/>
+      <c r="Q19" s="62"/>
+      <c r="R19" s="62"/>
+      <c r="S19" s="62"/>
+      <c r="T19" s="63" t="s">
         <v>53</v>
       </c>
-      <c r="U19" s="104"/>
-      <c r="V19" s="104"/>
-      <c r="W19" s="104"/>
-      <c r="X19" s="104"/>
-      <c r="Y19" s="128"/>
+      <c r="U19" s="64"/>
+      <c r="V19" s="64"/>
+      <c r="W19" s="64"/>
+      <c r="X19" s="64"/>
+      <c r="Y19" s="65"/>
     </row>
     <row r="20" spans="2:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="105" t="s">
+      <c r="B20" s="83" t="s">
         <v>118</v>
       </c>
-      <c r="C20" s="106"/>
-      <c r="D20" s="106"/>
-      <c r="E20" s="106"/>
-      <c r="F20" s="106"/>
-      <c r="G20" s="106"/>
-      <c r="H20" s="106"/>
-      <c r="I20" s="106"/>
-      <c r="J20" s="107">
+      <c r="C20" s="101"/>
+      <c r="D20" s="101"/>
+      <c r="E20" s="101"/>
+      <c r="F20" s="101"/>
+      <c r="G20" s="101"/>
+      <c r="H20" s="101"/>
+      <c r="I20" s="101"/>
+      <c r="J20" s="47">
         <v>1233496433</v>
       </c>
-      <c r="K20" s="108"/>
-      <c r="L20" s="108"/>
-      <c r="M20" s="108"/>
-      <c r="N20" s="108"/>
-      <c r="O20" s="62">
+      <c r="K20" s="102"/>
+      <c r="L20" s="102"/>
+      <c r="M20" s="102"/>
+      <c r="N20" s="102"/>
+      <c r="O20" s="61">
         <v>3118047047</v>
       </c>
-      <c r="P20" s="63"/>
-      <c r="Q20" s="63"/>
-      <c r="R20" s="63"/>
-      <c r="S20" s="63"/>
-      <c r="T20" s="129" t="s">
+      <c r="P20" s="62"/>
+      <c r="Q20" s="62"/>
+      <c r="R20" s="62"/>
+      <c r="S20" s="62"/>
+      <c r="T20" s="66" t="s">
         <v>119</v>
       </c>
-      <c r="U20" s="104"/>
-      <c r="V20" s="104"/>
-      <c r="W20" s="104"/>
-      <c r="X20" s="104"/>
-      <c r="Y20" s="128"/>
+      <c r="U20" s="64"/>
+      <c r="V20" s="64"/>
+      <c r="W20" s="64"/>
+      <c r="X20" s="64"/>
+      <c r="Y20" s="65"/>
     </row>
     <row r="21" spans="2:25" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="8"/>
@@ -3411,64 +3455,64 @@
       <c r="Y21" s="8"/>
     </row>
     <row r="22" spans="2:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="67" t="s">
+      <c r="B22" s="63" t="s">
         <v>54</v>
       </c>
-      <c r="C22" s="68"/>
-      <c r="D22" s="68"/>
-      <c r="E22" s="68"/>
-      <c r="F22" s="68"/>
-      <c r="G22" s="68"/>
-      <c r="H22" s="68"/>
-      <c r="I22" s="68"/>
-      <c r="J22" s="69"/>
-      <c r="K22" s="70" t="s">
+      <c r="C22" s="118"/>
+      <c r="D22" s="118"/>
+      <c r="E22" s="118"/>
+      <c r="F22" s="118"/>
+      <c r="G22" s="118"/>
+      <c r="H22" s="118"/>
+      <c r="I22" s="118"/>
+      <c r="J22" s="119"/>
+      <c r="K22" s="76" t="s">
         <v>55</v>
       </c>
-      <c r="L22" s="70"/>
-      <c r="M22" s="70"/>
-      <c r="N22" s="70"/>
-      <c r="O22" s="70"/>
-      <c r="P22" s="70"/>
-      <c r="Q22" s="71"/>
-      <c r="R22" s="71"/>
-      <c r="S22" s="71"/>
-      <c r="T22" s="71"/>
-      <c r="U22" s="71"/>
-      <c r="V22" s="71"/>
-      <c r="W22" s="71"/>
-      <c r="X22" s="71"/>
-      <c r="Y22" s="71"/>
+      <c r="L22" s="76"/>
+      <c r="M22" s="76"/>
+      <c r="N22" s="76"/>
+      <c r="O22" s="76"/>
+      <c r="P22" s="76"/>
+      <c r="Q22" s="120"/>
+      <c r="R22" s="120"/>
+      <c r="S22" s="120"/>
+      <c r="T22" s="120"/>
+      <c r="U22" s="120"/>
+      <c r="V22" s="120"/>
+      <c r="W22" s="120"/>
+      <c r="X22" s="120"/>
+      <c r="Y22" s="120"/>
     </row>
     <row r="23" spans="2:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="112">
+      <c r="B23" s="67">
         <v>2671339</v>
       </c>
-      <c r="C23" s="113"/>
-      <c r="D23" s="113"/>
-      <c r="E23" s="113"/>
-      <c r="F23" s="113"/>
-      <c r="G23" s="113"/>
-      <c r="H23" s="113"/>
-      <c r="I23" s="113"/>
-      <c r="J23" s="114"/>
-      <c r="K23" s="112" t="s">
+      <c r="C23" s="68"/>
+      <c r="D23" s="68"/>
+      <c r="E23" s="68"/>
+      <c r="F23" s="68"/>
+      <c r="G23" s="68"/>
+      <c r="H23" s="68"/>
+      <c r="I23" s="68"/>
+      <c r="J23" s="69"/>
+      <c r="K23" s="67" t="s">
         <v>117</v>
       </c>
-      <c r="L23" s="113"/>
-      <c r="M23" s="113"/>
-      <c r="N23" s="113"/>
-      <c r="O23" s="113"/>
-      <c r="P23" s="113"/>
-      <c r="Q23" s="113"/>
-      <c r="R23" s="113"/>
-      <c r="S23" s="113"/>
-      <c r="T23" s="113"/>
-      <c r="U23" s="113"/>
-      <c r="V23" s="113"/>
-      <c r="W23" s="113"/>
-      <c r="X23" s="113"/>
-      <c r="Y23" s="114"/>
+      <c r="L23" s="68"/>
+      <c r="M23" s="68"/>
+      <c r="N23" s="68"/>
+      <c r="O23" s="68"/>
+      <c r="P23" s="68"/>
+      <c r="Q23" s="68"/>
+      <c r="R23" s="68"/>
+      <c r="S23" s="68"/>
+      <c r="T23" s="68"/>
+      <c r="U23" s="68"/>
+      <c r="V23" s="68"/>
+      <c r="W23" s="68"/>
+      <c r="X23" s="68"/>
+      <c r="Y23" s="69"/>
     </row>
     <row r="24" spans="2:25" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="3"/>
@@ -3497,404 +3541,404 @@
       <c r="Y24" s="3"/>
     </row>
     <row r="25" spans="2:25" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="109" t="s">
+      <c r="B25" s="78" t="s">
         <v>50</v>
       </c>
-      <c r="C25" s="110"/>
-      <c r="D25" s="110"/>
-      <c r="E25" s="110"/>
-      <c r="F25" s="110"/>
-      <c r="G25" s="110"/>
-      <c r="H25" s="110"/>
-      <c r="I25" s="110"/>
-      <c r="J25" s="111"/>
-      <c r="K25" s="109" t="s">
+      <c r="C25" s="103"/>
+      <c r="D25" s="103"/>
+      <c r="E25" s="103"/>
+      <c r="F25" s="103"/>
+      <c r="G25" s="103"/>
+      <c r="H25" s="103"/>
+      <c r="I25" s="103"/>
+      <c r="J25" s="104"/>
+      <c r="K25" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L25" s="110"/>
-      <c r="M25" s="109" t="s">
+      <c r="L25" s="103"/>
+      <c r="M25" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="N25" s="110"/>
-      <c r="O25" s="109" t="s">
+      <c r="N25" s="103"/>
+      <c r="O25" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="P25" s="110"/>
-      <c r="Q25" s="110"/>
-      <c r="R25" s="110"/>
-      <c r="S25" s="110"/>
-      <c r="T25" s="111"/>
-      <c r="U25" s="109" t="s">
+      <c r="P25" s="103"/>
+      <c r="Q25" s="103"/>
+      <c r="R25" s="103"/>
+      <c r="S25" s="103"/>
+      <c r="T25" s="104"/>
+      <c r="U25" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="V25" s="110"/>
-      <c r="W25" s="110"/>
-      <c r="X25" s="110"/>
-      <c r="Y25" s="111"/>
+      <c r="V25" s="103"/>
+      <c r="W25" s="103"/>
+      <c r="X25" s="103"/>
+      <c r="Y25" s="104"/>
     </row>
     <row r="26" spans="2:25" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="93" t="s">
+      <c r="B26" s="86" t="s">
+        <v>123</v>
+      </c>
+      <c r="C26" s="87"/>
+      <c r="D26" s="87"/>
+      <c r="E26" s="87"/>
+      <c r="F26" s="87"/>
+      <c r="G26" s="87"/>
+      <c r="H26" s="87"/>
+      <c r="I26" s="87"/>
+      <c r="J26" s="88"/>
+      <c r="K26" s="95">
+        <v>45267</v>
+      </c>
+      <c r="L26" s="96"/>
+      <c r="M26" s="95">
+        <v>45271</v>
+      </c>
+      <c r="N26" s="96"/>
+      <c r="O26" s="50"/>
+      <c r="P26" s="51"/>
+      <c r="Q26" s="51"/>
+      <c r="R26" s="51"/>
+      <c r="S26" s="51"/>
+      <c r="T26" s="52"/>
+      <c r="U26" s="59" t="s">
         <v>124</v>
       </c>
-      <c r="C26" s="94"/>
-      <c r="D26" s="94"/>
-      <c r="E26" s="94"/>
-      <c r="F26" s="94"/>
-      <c r="G26" s="94"/>
-      <c r="H26" s="94"/>
-      <c r="I26" s="94"/>
-      <c r="J26" s="95"/>
-      <c r="K26" s="89">
-        <v>45267</v>
-      </c>
-      <c r="L26" s="90"/>
-      <c r="M26" s="89">
+      <c r="V26" s="59"/>
+      <c r="W26" s="59"/>
+      <c r="X26" s="59"/>
+      <c r="Y26" s="59"/>
+    </row>
+    <row r="27" spans="2:25" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="89"/>
+      <c r="C27" s="90"/>
+      <c r="D27" s="90"/>
+      <c r="E27" s="90"/>
+      <c r="F27" s="90"/>
+      <c r="G27" s="90"/>
+      <c r="H27" s="90"/>
+      <c r="I27" s="90"/>
+      <c r="J27" s="91"/>
+      <c r="K27" s="97"/>
+      <c r="L27" s="98"/>
+      <c r="M27" s="97"/>
+      <c r="N27" s="98"/>
+      <c r="O27" s="53"/>
+      <c r="P27" s="54"/>
+      <c r="Q27" s="54"/>
+      <c r="R27" s="54"/>
+      <c r="S27" s="54"/>
+      <c r="T27" s="55"/>
+      <c r="U27" s="59"/>
+      <c r="V27" s="59"/>
+      <c r="W27" s="59"/>
+      <c r="X27" s="59"/>
+      <c r="Y27" s="59"/>
+    </row>
+    <row r="28" spans="2:25" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="89"/>
+      <c r="C28" s="90"/>
+      <c r="D28" s="90"/>
+      <c r="E28" s="90"/>
+      <c r="F28" s="90"/>
+      <c r="G28" s="90"/>
+      <c r="H28" s="90"/>
+      <c r="I28" s="90"/>
+      <c r="J28" s="91"/>
+      <c r="K28" s="97"/>
+      <c r="L28" s="98"/>
+      <c r="M28" s="97"/>
+      <c r="N28" s="98"/>
+      <c r="O28" s="53"/>
+      <c r="P28" s="54"/>
+      <c r="Q28" s="54"/>
+      <c r="R28" s="54"/>
+      <c r="S28" s="54"/>
+      <c r="T28" s="55"/>
+      <c r="U28" s="59"/>
+      <c r="V28" s="59"/>
+      <c r="W28" s="59"/>
+      <c r="X28" s="59"/>
+      <c r="Y28" s="59"/>
+    </row>
+    <row r="29" spans="2:25" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="89"/>
+      <c r="C29" s="90"/>
+      <c r="D29" s="90"/>
+      <c r="E29" s="90"/>
+      <c r="F29" s="90"/>
+      <c r="G29" s="90"/>
+      <c r="H29" s="90"/>
+      <c r="I29" s="90"/>
+      <c r="J29" s="91"/>
+      <c r="K29" s="97"/>
+      <c r="L29" s="98"/>
+      <c r="M29" s="97"/>
+      <c r="N29" s="98"/>
+      <c r="O29" s="53"/>
+      <c r="P29" s="54"/>
+      <c r="Q29" s="54"/>
+      <c r="R29" s="54"/>
+      <c r="S29" s="54"/>
+      <c r="T29" s="55"/>
+      <c r="U29" s="59"/>
+      <c r="V29" s="59"/>
+      <c r="W29" s="59"/>
+      <c r="X29" s="59"/>
+      <c r="Y29" s="59"/>
+    </row>
+    <row r="30" spans="2:25" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="89"/>
+      <c r="C30" s="90"/>
+      <c r="D30" s="90"/>
+      <c r="E30" s="90"/>
+      <c r="F30" s="90"/>
+      <c r="G30" s="90"/>
+      <c r="H30" s="90"/>
+      <c r="I30" s="90"/>
+      <c r="J30" s="91"/>
+      <c r="K30" s="97"/>
+      <c r="L30" s="98"/>
+      <c r="M30" s="97"/>
+      <c r="N30" s="98"/>
+      <c r="O30" s="53"/>
+      <c r="P30" s="54"/>
+      <c r="Q30" s="54"/>
+      <c r="R30" s="54"/>
+      <c r="S30" s="54"/>
+      <c r="T30" s="55"/>
+      <c r="U30" s="59"/>
+      <c r="V30" s="59"/>
+      <c r="W30" s="59"/>
+      <c r="X30" s="59"/>
+      <c r="Y30" s="59"/>
+    </row>
+    <row r="31" spans="2:25" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="89"/>
+      <c r="C31" s="90"/>
+      <c r="D31" s="90"/>
+      <c r="E31" s="90"/>
+      <c r="F31" s="90"/>
+      <c r="G31" s="90"/>
+      <c r="H31" s="90"/>
+      <c r="I31" s="90"/>
+      <c r="J31" s="91"/>
+      <c r="K31" s="97"/>
+      <c r="L31" s="98"/>
+      <c r="M31" s="97"/>
+      <c r="N31" s="98"/>
+      <c r="O31" s="53"/>
+      <c r="P31" s="54"/>
+      <c r="Q31" s="54"/>
+      <c r="R31" s="54"/>
+      <c r="S31" s="54"/>
+      <c r="T31" s="55"/>
+      <c r="U31" s="59"/>
+      <c r="V31" s="59"/>
+      <c r="W31" s="59"/>
+      <c r="X31" s="59"/>
+      <c r="Y31" s="59"/>
+    </row>
+    <row r="32" spans="2:25" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="89"/>
+      <c r="C32" s="90"/>
+      <c r="D32" s="90"/>
+      <c r="E32" s="90"/>
+      <c r="F32" s="90"/>
+      <c r="G32" s="90"/>
+      <c r="H32" s="90"/>
+      <c r="I32" s="90"/>
+      <c r="J32" s="91"/>
+      <c r="K32" s="97"/>
+      <c r="L32" s="98"/>
+      <c r="M32" s="97"/>
+      <c r="N32" s="98"/>
+      <c r="O32" s="53"/>
+      <c r="P32" s="54"/>
+      <c r="Q32" s="54"/>
+      <c r="R32" s="54"/>
+      <c r="S32" s="54"/>
+      <c r="T32" s="55"/>
+      <c r="U32" s="59"/>
+      <c r="V32" s="59"/>
+      <c r="W32" s="59"/>
+      <c r="X32" s="59"/>
+      <c r="Y32" s="59"/>
+    </row>
+    <row r="33" spans="2:25" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="92"/>
+      <c r="C33" s="93"/>
+      <c r="D33" s="93"/>
+      <c r="E33" s="93"/>
+      <c r="F33" s="93"/>
+      <c r="G33" s="93"/>
+      <c r="H33" s="93"/>
+      <c r="I33" s="93"/>
+      <c r="J33" s="94"/>
+      <c r="K33" s="99"/>
+      <c r="L33" s="100"/>
+      <c r="M33" s="99"/>
+      <c r="N33" s="100"/>
+      <c r="O33" s="56"/>
+      <c r="P33" s="57"/>
+      <c r="Q33" s="57"/>
+      <c r="R33" s="57"/>
+      <c r="S33" s="57"/>
+      <c r="T33" s="58"/>
+      <c r="U33" s="59"/>
+      <c r="V33" s="59"/>
+      <c r="W33" s="59"/>
+      <c r="X33" s="59"/>
+      <c r="Y33" s="59"/>
+    </row>
+    <row r="34" spans="2:25" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="86" t="s">
+        <v>121</v>
+      </c>
+      <c r="C34" s="87"/>
+      <c r="D34" s="87"/>
+      <c r="E34" s="87"/>
+      <c r="F34" s="87"/>
+      <c r="G34" s="87"/>
+      <c r="H34" s="87"/>
+      <c r="I34" s="87"/>
+      <c r="J34" s="88"/>
+      <c r="K34" s="95">
         <v>45271</v>
       </c>
-      <c r="N26" s="90"/>
-      <c r="O26" s="46"/>
-      <c r="P26" s="47"/>
-      <c r="Q26" s="47"/>
-      <c r="R26" s="47"/>
-      <c r="S26" s="47"/>
-      <c r="T26" s="48"/>
-      <c r="U26" s="52" t="s">
-        <v>120</v>
-      </c>
-      <c r="V26" s="52"/>
-      <c r="W26" s="52"/>
-      <c r="X26" s="52"/>
-      <c r="Y26" s="52"/>
-    </row>
-    <row r="27" spans="2:25" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="96"/>
-      <c r="C27" s="97"/>
-      <c r="D27" s="97"/>
-      <c r="E27" s="97"/>
-      <c r="F27" s="97"/>
-      <c r="G27" s="97"/>
-      <c r="H27" s="97"/>
-      <c r="I27" s="97"/>
-      <c r="J27" s="98"/>
-      <c r="K27" s="102"/>
-      <c r="L27" s="103"/>
-      <c r="M27" s="102"/>
-      <c r="N27" s="103"/>
-      <c r="O27" s="124"/>
-      <c r="P27" s="125"/>
-      <c r="Q27" s="125"/>
-      <c r="R27" s="125"/>
-      <c r="S27" s="125"/>
-      <c r="T27" s="126"/>
-      <c r="U27" s="52"/>
-      <c r="V27" s="52"/>
-      <c r="W27" s="52"/>
-      <c r="X27" s="52"/>
-      <c r="Y27" s="52"/>
-    </row>
-    <row r="28" spans="2:25" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="96"/>
-      <c r="C28" s="97"/>
-      <c r="D28" s="97"/>
-      <c r="E28" s="97"/>
-      <c r="F28" s="97"/>
-      <c r="G28" s="97"/>
-      <c r="H28" s="97"/>
-      <c r="I28" s="97"/>
-      <c r="J28" s="98"/>
-      <c r="K28" s="102"/>
-      <c r="L28" s="103"/>
-      <c r="M28" s="102"/>
-      <c r="N28" s="103"/>
-      <c r="O28" s="124"/>
-      <c r="P28" s="125"/>
-      <c r="Q28" s="125"/>
-      <c r="R28" s="125"/>
-      <c r="S28" s="125"/>
-      <c r="T28" s="126"/>
-      <c r="U28" s="52"/>
-      <c r="V28" s="52"/>
-      <c r="W28" s="52"/>
-      <c r="X28" s="52"/>
-      <c r="Y28" s="52"/>
-    </row>
-    <row r="29" spans="2:25" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="96"/>
-      <c r="C29" s="97"/>
-      <c r="D29" s="97"/>
-      <c r="E29" s="97"/>
-      <c r="F29" s="97"/>
-      <c r="G29" s="97"/>
-      <c r="H29" s="97"/>
-      <c r="I29" s="97"/>
-      <c r="J29" s="98"/>
-      <c r="K29" s="102"/>
-      <c r="L29" s="103"/>
-      <c r="M29" s="102"/>
-      <c r="N29" s="103"/>
-      <c r="O29" s="124"/>
-      <c r="P29" s="125"/>
-      <c r="Q29" s="125"/>
-      <c r="R29" s="125"/>
-      <c r="S29" s="125"/>
-      <c r="T29" s="126"/>
-      <c r="U29" s="52"/>
-      <c r="V29" s="52"/>
-      <c r="W29" s="52"/>
-      <c r="X29" s="52"/>
-      <c r="Y29" s="52"/>
-    </row>
-    <row r="30" spans="2:25" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="96"/>
-      <c r="C30" s="97"/>
-      <c r="D30" s="97"/>
-      <c r="E30" s="97"/>
-      <c r="F30" s="97"/>
-      <c r="G30" s="97"/>
-      <c r="H30" s="97"/>
-      <c r="I30" s="97"/>
-      <c r="J30" s="98"/>
-      <c r="K30" s="102"/>
-      <c r="L30" s="103"/>
-      <c r="M30" s="102"/>
-      <c r="N30" s="103"/>
-      <c r="O30" s="124"/>
-      <c r="P30" s="125"/>
-      <c r="Q30" s="125"/>
-      <c r="R30" s="125"/>
-      <c r="S30" s="125"/>
-      <c r="T30" s="126"/>
-      <c r="U30" s="52"/>
-      <c r="V30" s="52"/>
-      <c r="W30" s="52"/>
-      <c r="X30" s="52"/>
-      <c r="Y30" s="52"/>
-    </row>
-    <row r="31" spans="2:25" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="96"/>
-      <c r="C31" s="97"/>
-      <c r="D31" s="97"/>
-      <c r="E31" s="97"/>
-      <c r="F31" s="97"/>
-      <c r="G31" s="97"/>
-      <c r="H31" s="97"/>
-      <c r="I31" s="97"/>
-      <c r="J31" s="98"/>
-      <c r="K31" s="102"/>
-      <c r="L31" s="103"/>
-      <c r="M31" s="102"/>
-      <c r="N31" s="103"/>
-      <c r="O31" s="124"/>
-      <c r="P31" s="125"/>
-      <c r="Q31" s="125"/>
-      <c r="R31" s="125"/>
-      <c r="S31" s="125"/>
-      <c r="T31" s="126"/>
-      <c r="U31" s="52"/>
-      <c r="V31" s="52"/>
-      <c r="W31" s="52"/>
-      <c r="X31" s="52"/>
-      <c r="Y31" s="52"/>
-    </row>
-    <row r="32" spans="2:25" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="96"/>
-      <c r="C32" s="97"/>
-      <c r="D32" s="97"/>
-      <c r="E32" s="97"/>
-      <c r="F32" s="97"/>
-      <c r="G32" s="97"/>
-      <c r="H32" s="97"/>
-      <c r="I32" s="97"/>
-      <c r="J32" s="98"/>
-      <c r="K32" s="102"/>
-      <c r="L32" s="103"/>
-      <c r="M32" s="102"/>
-      <c r="N32" s="103"/>
-      <c r="O32" s="124"/>
-      <c r="P32" s="125"/>
-      <c r="Q32" s="125"/>
-      <c r="R32" s="125"/>
-      <c r="S32" s="125"/>
-      <c r="T32" s="126"/>
-      <c r="U32" s="52"/>
-      <c r="V32" s="52"/>
-      <c r="W32" s="52"/>
-      <c r="X32" s="52"/>
-      <c r="Y32" s="52"/>
-    </row>
-    <row r="33" spans="2:25" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="99"/>
-      <c r="C33" s="100"/>
-      <c r="D33" s="100"/>
-      <c r="E33" s="100"/>
-      <c r="F33" s="100"/>
-      <c r="G33" s="100"/>
-      <c r="H33" s="100"/>
-      <c r="I33" s="100"/>
-      <c r="J33" s="101"/>
-      <c r="K33" s="91"/>
-      <c r="L33" s="92"/>
-      <c r="M33" s="91"/>
-      <c r="N33" s="92"/>
-      <c r="O33" s="49"/>
-      <c r="P33" s="50"/>
-      <c r="Q33" s="50"/>
-      <c r="R33" s="50"/>
-      <c r="S33" s="50"/>
-      <c r="T33" s="51"/>
-      <c r="U33" s="52"/>
-      <c r="V33" s="52"/>
-      <c r="W33" s="52"/>
-      <c r="X33" s="52"/>
-      <c r="Y33" s="52"/>
-    </row>
-    <row r="34" spans="2:25" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="93" t="s">
+      <c r="L34" s="96"/>
+      <c r="M34" s="95">
+        <v>45275</v>
+      </c>
+      <c r="N34" s="96"/>
+      <c r="O34" s="50"/>
+      <c r="P34" s="51"/>
+      <c r="Q34" s="51"/>
+      <c r="R34" s="51"/>
+      <c r="S34" s="51"/>
+      <c r="T34" s="52"/>
+      <c r="U34" s="59" t="s">
+        <v>124</v>
+      </c>
+      <c r="V34" s="59"/>
+      <c r="W34" s="59"/>
+      <c r="X34" s="59"/>
+      <c r="Y34" s="59"/>
+    </row>
+    <row r="35" spans="2:25" ht="219" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="92"/>
+      <c r="C35" s="93"/>
+      <c r="D35" s="93"/>
+      <c r="E35" s="93"/>
+      <c r="F35" s="93"/>
+      <c r="G35" s="93"/>
+      <c r="H35" s="93"/>
+      <c r="I35" s="93"/>
+      <c r="J35" s="94"/>
+      <c r="K35" s="99"/>
+      <c r="L35" s="100"/>
+      <c r="M35" s="99"/>
+      <c r="N35" s="100"/>
+      <c r="O35" s="56"/>
+      <c r="P35" s="57"/>
+      <c r="Q35" s="57"/>
+      <c r="R35" s="57"/>
+      <c r="S35" s="57"/>
+      <c r="T35" s="58"/>
+      <c r="U35" s="59"/>
+      <c r="V35" s="59"/>
+      <c r="W35" s="59"/>
+      <c r="X35" s="59"/>
+      <c r="Y35" s="59"/>
+    </row>
+    <row r="36" spans="2:25" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="59" t="s">
         <v>122</v>
       </c>
-      <c r="C34" s="94"/>
-      <c r="D34" s="94"/>
-      <c r="E34" s="94"/>
-      <c r="F34" s="94"/>
-      <c r="G34" s="94"/>
-      <c r="H34" s="94"/>
-      <c r="I34" s="94"/>
-      <c r="J34" s="95"/>
-      <c r="K34" s="89">
-        <v>45271</v>
-      </c>
-      <c r="L34" s="90"/>
-      <c r="M34" s="89">
-        <v>45275</v>
-      </c>
-      <c r="N34" s="90"/>
-      <c r="O34" s="46"/>
-      <c r="P34" s="47"/>
-      <c r="Q34" s="47"/>
-      <c r="R34" s="47"/>
-      <c r="S34" s="47"/>
-      <c r="T34" s="48"/>
-      <c r="U34" s="52" t="s">
-        <v>120</v>
-      </c>
-      <c r="V34" s="52"/>
-      <c r="W34" s="52"/>
-      <c r="X34" s="52"/>
-      <c r="Y34" s="52"/>
-    </row>
-    <row r="35" spans="2:25" ht="219" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="99"/>
-      <c r="C35" s="100"/>
-      <c r="D35" s="100"/>
-      <c r="E35" s="100"/>
-      <c r="F35" s="100"/>
-      <c r="G35" s="100"/>
-      <c r="H35" s="100"/>
-      <c r="I35" s="100"/>
-      <c r="J35" s="101"/>
-      <c r="K35" s="91"/>
-      <c r="L35" s="92"/>
-      <c r="M35" s="91"/>
-      <c r="N35" s="92"/>
-      <c r="O35" s="49"/>
-      <c r="P35" s="50"/>
-      <c r="Q35" s="50"/>
-      <c r="R35" s="50"/>
-      <c r="S35" s="50"/>
-      <c r="T35" s="51"/>
-      <c r="U35" s="52"/>
-      <c r="V35" s="52"/>
-      <c r="W35" s="52"/>
-      <c r="X35" s="52"/>
-      <c r="Y35" s="52"/>
-    </row>
-    <row r="36" spans="2:25" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="52" t="s">
-        <v>123</v>
-      </c>
-      <c r="C36" s="52"/>
-      <c r="D36" s="52"/>
-      <c r="E36" s="52"/>
-      <c r="F36" s="52"/>
-      <c r="G36" s="52"/>
-      <c r="H36" s="52"/>
-      <c r="I36" s="52"/>
-      <c r="J36" s="52"/>
-      <c r="K36" s="127">
+      <c r="C36" s="59"/>
+      <c r="D36" s="59"/>
+      <c r="E36" s="59"/>
+      <c r="F36" s="59"/>
+      <c r="G36" s="59"/>
+      <c r="H36" s="59"/>
+      <c r="I36" s="59"/>
+      <c r="J36" s="59"/>
+      <c r="K36" s="60">
         <v>45276</v>
       </c>
-      <c r="L36" s="127"/>
-      <c r="M36" s="127">
+      <c r="L36" s="60"/>
+      <c r="M36" s="60">
         <v>45280</v>
       </c>
-      <c r="N36" s="127"/>
-      <c r="O36" s="46"/>
-      <c r="P36" s="47"/>
-      <c r="Q36" s="47"/>
-      <c r="R36" s="47"/>
-      <c r="S36" s="47"/>
-      <c r="T36" s="48"/>
-      <c r="U36" s="52" t="s">
-        <v>120</v>
-      </c>
-      <c r="V36" s="52"/>
-      <c r="W36" s="52"/>
-      <c r="X36" s="52"/>
-      <c r="Y36" s="52"/>
+      <c r="N36" s="60"/>
+      <c r="O36" s="50"/>
+      <c r="P36" s="51"/>
+      <c r="Q36" s="51"/>
+      <c r="R36" s="51"/>
+      <c r="S36" s="51"/>
+      <c r="T36" s="52"/>
+      <c r="U36" s="59" t="s">
+        <v>124</v>
+      </c>
+      <c r="V36" s="59"/>
+      <c r="W36" s="59"/>
+      <c r="X36" s="59"/>
+      <c r="Y36" s="59"/>
     </row>
     <row r="37" spans="2:25" ht="218.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="52"/>
-      <c r="C37" s="52"/>
-      <c r="D37" s="52"/>
-      <c r="E37" s="52"/>
-      <c r="F37" s="52"/>
-      <c r="G37" s="52"/>
-      <c r="H37" s="52"/>
-      <c r="I37" s="52"/>
-      <c r="J37" s="52"/>
-      <c r="K37" s="127"/>
-      <c r="L37" s="127"/>
-      <c r="M37" s="127"/>
-      <c r="N37" s="127"/>
-      <c r="O37" s="49"/>
-      <c r="P37" s="50"/>
-      <c r="Q37" s="50"/>
-      <c r="R37" s="50"/>
-      <c r="S37" s="50"/>
-      <c r="T37" s="51"/>
-      <c r="U37" s="52"/>
-      <c r="V37" s="52"/>
-      <c r="W37" s="52"/>
-      <c r="X37" s="52"/>
-      <c r="Y37" s="52"/>
+      <c r="B37" s="59"/>
+      <c r="C37" s="59"/>
+      <c r="D37" s="59"/>
+      <c r="E37" s="59"/>
+      <c r="F37" s="59"/>
+      <c r="G37" s="59"/>
+      <c r="H37" s="59"/>
+      <c r="I37" s="59"/>
+      <c r="J37" s="59"/>
+      <c r="K37" s="60"/>
+      <c r="L37" s="60"/>
+      <c r="M37" s="60"/>
+      <c r="N37" s="60"/>
+      <c r="O37" s="56"/>
+      <c r="P37" s="57"/>
+      <c r="Q37" s="57"/>
+      <c r="R37" s="57"/>
+      <c r="S37" s="57"/>
+      <c r="T37" s="58"/>
+      <c r="U37" s="59"/>
+      <c r="V37" s="59"/>
+      <c r="W37" s="59"/>
+      <c r="X37" s="59"/>
+      <c r="Y37" s="59"/>
     </row>
     <row r="38" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="55" t="s">
+      <c r="B38" s="128" t="s">
         <v>56</v>
       </c>
-      <c r="C38" s="55"/>
-      <c r="D38" s="55"/>
-      <c r="E38" s="55"/>
-      <c r="F38" s="55"/>
-      <c r="G38" s="55"/>
-      <c r="H38" s="55"/>
-      <c r="I38" s="55"/>
-      <c r="J38" s="55"/>
-      <c r="K38" s="55"/>
-      <c r="L38" s="55"/>
-      <c r="M38" s="55"/>
-      <c r="N38" s="55"/>
-      <c r="O38" s="55"/>
-      <c r="P38" s="55"/>
-      <c r="Q38" s="55"/>
-      <c r="R38" s="55"/>
-      <c r="S38" s="55"/>
-      <c r="T38" s="55"/>
-      <c r="U38" s="55"/>
-      <c r="V38" s="55"/>
-      <c r="W38" s="55"/>
-      <c r="X38" s="55"/>
-      <c r="Y38" s="55"/>
+      <c r="C38" s="128"/>
+      <c r="D38" s="128"/>
+      <c r="E38" s="128"/>
+      <c r="F38" s="128"/>
+      <c r="G38" s="128"/>
+      <c r="H38" s="128"/>
+      <c r="I38" s="128"/>
+      <c r="J38" s="128"/>
+      <c r="K38" s="128"/>
+      <c r="L38" s="128"/>
+      <c r="M38" s="128"/>
+      <c r="N38" s="128"/>
+      <c r="O38" s="128"/>
+      <c r="P38" s="128"/>
+      <c r="Q38" s="128"/>
+      <c r="R38" s="128"/>
+      <c r="S38" s="128"/>
+      <c r="T38" s="128"/>
+      <c r="U38" s="128"/>
+      <c r="V38" s="128"/>
+      <c r="W38" s="128"/>
+      <c r="X38" s="128"/>
+      <c r="Y38" s="128"/>
     </row>
     <row r="39" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="10"/>
@@ -3923,16 +3967,16 @@
       <c r="Y39" s="10"/>
     </row>
     <row r="40" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="54" t="s">
+      <c r="B40" s="48" t="s">
         <v>118</v>
       </c>
-      <c r="C40" s="54"/>
-      <c r="D40" s="54"/>
-      <c r="E40" s="54"/>
-      <c r="F40" s="54"/>
-      <c r="G40" s="54"/>
-      <c r="H40" s="54"/>
-      <c r="I40" s="54"/>
+      <c r="C40" s="48"/>
+      <c r="D40" s="48"/>
+      <c r="E40" s="48"/>
+      <c r="F40" s="48"/>
+      <c r="G40" s="48"/>
+      <c r="H40" s="48"/>
+      <c r="I40" s="48"/>
       <c r="J40" s="10"/>
       <c r="K40" s="10"/>
       <c r="L40" s="10"/>
@@ -3951,14 +3995,14 @@
       <c r="Y40" s="10"/>
     </row>
     <row r="41" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="123"/>
-      <c r="C41" s="123"/>
-      <c r="D41" s="123"/>
-      <c r="E41" s="123"/>
-      <c r="F41" s="123"/>
-      <c r="G41" s="123"/>
-      <c r="H41" s="123"/>
-      <c r="I41" s="123"/>
+      <c r="B41" s="49"/>
+      <c r="C41" s="49"/>
+      <c r="D41" s="49"/>
+      <c r="E41" s="49"/>
+      <c r="F41" s="49"/>
+      <c r="G41" s="49"/>
+      <c r="H41" s="49"/>
+      <c r="I41" s="49"/>
       <c r="J41" s="11"/>
       <c r="K41" s="11"/>
       <c r="L41" s="11"/>
@@ -3977,35 +4021,35 @@
       <c r="Y41" s="8"/>
     </row>
     <row r="42" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B42" s="54" t="s">
+      <c r="B42" s="48" t="s">
         <v>87</v>
       </c>
-      <c r="C42" s="54"/>
-      <c r="D42" s="54"/>
-      <c r="E42" s="54"/>
-      <c r="F42" s="54"/>
-      <c r="G42" s="54"/>
-      <c r="H42" s="54"/>
-      <c r="I42" s="54"/>
+      <c r="C42" s="48"/>
+      <c r="D42" s="48"/>
+      <c r="E42" s="48"/>
+      <c r="F42" s="48"/>
+      <c r="G42" s="48"/>
+      <c r="H42" s="48"/>
+      <c r="I42" s="48"/>
       <c r="J42" s="11"/>
-      <c r="K42" s="56" t="s">
+      <c r="K42" s="114" t="s">
         <v>16</v>
       </c>
-      <c r="L42" s="56"/>
-      <c r="M42" s="56"/>
-      <c r="N42" s="56"/>
-      <c r="O42" s="56"/>
-      <c r="P42" s="56"/>
-      <c r="Q42" s="56"/>
+      <c r="L42" s="114"/>
+      <c r="M42" s="114"/>
+      <c r="N42" s="114"/>
+      <c r="O42" s="114"/>
+      <c r="P42" s="114"/>
+      <c r="Q42" s="114"/>
       <c r="R42" s="13"/>
       <c r="S42" s="11"/>
-      <c r="T42" s="54" t="s">
+      <c r="T42" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="U42" s="54"/>
-      <c r="V42" s="54"/>
-      <c r="W42" s="54"/>
-      <c r="X42" s="54"/>
+      <c r="U42" s="48"/>
+      <c r="V42" s="48"/>
+      <c r="W42" s="48"/>
+      <c r="X42" s="48"/>
       <c r="Y42" s="11"/>
     </row>
     <row r="43" spans="2:25" x14ac:dyDescent="0.25">
@@ -4035,14 +4079,14 @@
       <c r="Y43" s="11"/>
     </row>
     <row r="44" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="54"/>
-      <c r="C44" s="54"/>
-      <c r="D44" s="54"/>
-      <c r="E44" s="54"/>
-      <c r="F44" s="54"/>
-      <c r="G44" s="54"/>
-      <c r="H44" s="54"/>
-      <c r="I44" s="54"/>
+      <c r="B44" s="48"/>
+      <c r="C44" s="48"/>
+      <c r="D44" s="48"/>
+      <c r="E44" s="48"/>
+      <c r="F44" s="48"/>
+      <c r="G44" s="48"/>
+      <c r="H44" s="48"/>
+      <c r="I44" s="48"/>
     </row>
     <row r="45" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="14"/>
@@ -4071,112 +4115,149 @@
       <c r="Y45" s="12"/>
     </row>
     <row r="46" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="54" t="s">
+      <c r="B46" s="48" t="s">
         <v>85</v>
       </c>
-      <c r="C46" s="54"/>
-      <c r="D46" s="54"/>
-      <c r="E46" s="54"/>
-      <c r="F46" s="54"/>
-      <c r="G46" s="54"/>
-      <c r="H46" s="54"/>
-      <c r="I46" s="54"/>
+      <c r="C46" s="48"/>
+      <c r="D46" s="48"/>
+      <c r="E46" s="48"/>
+      <c r="F46" s="48"/>
+      <c r="G46" s="48"/>
+      <c r="H46" s="48"/>
+      <c r="I46" s="48"/>
       <c r="J46" s="11"/>
-      <c r="K46" s="56" t="s">
+      <c r="K46" s="114" t="s">
         <v>88</v>
       </c>
-      <c r="L46" s="56"/>
-      <c r="M46" s="56"/>
-      <c r="N46" s="56"/>
-      <c r="O46" s="56"/>
-      <c r="P46" s="56"/>
-      <c r="Q46" s="56"/>
+      <c r="L46" s="114"/>
+      <c r="M46" s="114"/>
+      <c r="N46" s="114"/>
+      <c r="O46" s="114"/>
+      <c r="P46" s="114"/>
+      <c r="Q46" s="114"/>
       <c r="R46" s="13"/>
-      <c r="S46" s="57" t="s">
+      <c r="S46" s="129" t="s">
         <v>93</v>
       </c>
-      <c r="T46" s="58"/>
-      <c r="U46" s="58"/>
-      <c r="V46" s="58"/>
-      <c r="W46" s="58"/>
-      <c r="X46" s="58"/>
-      <c r="Y46" s="58"/>
+      <c r="T46" s="117"/>
+      <c r="U46" s="117"/>
+      <c r="V46" s="117"/>
+      <c r="W46" s="117"/>
+      <c r="X46" s="117"/>
+      <c r="Y46" s="117"/>
     </row>
     <row r="47" spans="2:25" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="Q47" s="53"/>
-      <c r="R47" s="53"/>
-      <c r="S47" s="53"/>
-      <c r="T47" s="53"/>
-      <c r="U47" s="53"/>
+      <c r="Q47" s="127"/>
+      <c r="R47" s="127"/>
+      <c r="S47" s="127"/>
+      <c r="T47" s="127"/>
+      <c r="U47" s="127"/>
     </row>
     <row r="48" spans="2:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="66" t="s">
+      <c r="B48" s="109" t="s">
         <v>81</v>
       </c>
-      <c r="C48" s="58"/>
-      <c r="D48" s="58"/>
-      <c r="E48" s="58"/>
-      <c r="F48" s="58"/>
-      <c r="G48" s="58"/>
-      <c r="H48" s="58"/>
-      <c r="I48" s="58"/>
-      <c r="J48" s="58"/>
-      <c r="K48" s="58"/>
-      <c r="L48" s="58"/>
-      <c r="M48" s="58"/>
-      <c r="N48" s="58"/>
-      <c r="O48" s="58"/>
-      <c r="P48" s="58"/>
-      <c r="Q48" s="58"/>
-      <c r="R48" s="58"/>
-      <c r="S48" s="58"/>
-      <c r="T48" s="58"/>
-      <c r="U48" s="58"/>
-      <c r="V48" s="58"/>
-      <c r="W48" s="58"/>
-      <c r="X48" s="58"/>
-      <c r="Y48" s="58"/>
+      <c r="C48" s="117"/>
+      <c r="D48" s="117"/>
+      <c r="E48" s="117"/>
+      <c r="F48" s="117"/>
+      <c r="G48" s="117"/>
+      <c r="H48" s="117"/>
+      <c r="I48" s="117"/>
+      <c r="J48" s="117"/>
+      <c r="K48" s="117"/>
+      <c r="L48" s="117"/>
+      <c r="M48" s="117"/>
+      <c r="N48" s="117"/>
+      <c r="O48" s="117"/>
+      <c r="P48" s="117"/>
+      <c r="Q48" s="117"/>
+      <c r="R48" s="117"/>
+      <c r="S48" s="117"/>
+      <c r="T48" s="117"/>
+      <c r="U48" s="117"/>
+      <c r="V48" s="117"/>
+      <c r="W48" s="117"/>
+      <c r="X48" s="117"/>
+      <c r="Y48" s="117"/>
     </row>
     <row r="49" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B49" s="58"/>
-      <c r="C49" s="58"/>
-      <c r="D49" s="58"/>
-      <c r="E49" s="58"/>
-      <c r="F49" s="58"/>
-      <c r="G49" s="58"/>
-      <c r="H49" s="58"/>
-      <c r="I49" s="58"/>
-      <c r="J49" s="58"/>
-      <c r="K49" s="58"/>
-      <c r="L49" s="58"/>
-      <c r="M49" s="58"/>
-      <c r="N49" s="58"/>
-      <c r="O49" s="58"/>
-      <c r="P49" s="58"/>
-      <c r="Q49" s="58"/>
-      <c r="R49" s="58"/>
-      <c r="S49" s="58"/>
-      <c r="T49" s="58"/>
-      <c r="U49" s="58"/>
-      <c r="V49" s="58"/>
-      <c r="W49" s="58"/>
-      <c r="X49" s="58"/>
-      <c r="Y49" s="58"/>
+      <c r="B49" s="117"/>
+      <c r="C49" s="117"/>
+      <c r="D49" s="117"/>
+      <c r="E49" s="117"/>
+      <c r="F49" s="117"/>
+      <c r="G49" s="117"/>
+      <c r="H49" s="117"/>
+      <c r="I49" s="117"/>
+      <c r="J49" s="117"/>
+      <c r="K49" s="117"/>
+      <c r="L49" s="117"/>
+      <c r="M49" s="117"/>
+      <c r="N49" s="117"/>
+      <c r="O49" s="117"/>
+      <c r="P49" s="117"/>
+      <c r="Q49" s="117"/>
+      <c r="R49" s="117"/>
+      <c r="S49" s="117"/>
+      <c r="T49" s="117"/>
+      <c r="U49" s="117"/>
+      <c r="V49" s="117"/>
+      <c r="W49" s="117"/>
+      <c r="X49" s="117"/>
+      <c r="Y49" s="117"/>
     </row>
   </sheetData>
   <mergeCells count="81">
-    <mergeCell ref="Q13:Y13"/>
-    <mergeCell ref="B40:I41"/>
-    <mergeCell ref="O26:T33"/>
-    <mergeCell ref="U26:Y33"/>
-    <mergeCell ref="B36:J37"/>
-    <mergeCell ref="K36:L37"/>
-    <mergeCell ref="M36:N37"/>
-    <mergeCell ref="O19:S19"/>
-    <mergeCell ref="O20:S20"/>
-    <mergeCell ref="T19:Y19"/>
-    <mergeCell ref="T20:Y20"/>
-    <mergeCell ref="B23:J23"/>
+    <mergeCell ref="K34:L35"/>
+    <mergeCell ref="M34:N35"/>
+    <mergeCell ref="B34:J35"/>
+    <mergeCell ref="Q47:U47"/>
+    <mergeCell ref="T42:X42"/>
+    <mergeCell ref="B38:Y38"/>
+    <mergeCell ref="B46:I46"/>
+    <mergeCell ref="K46:Q46"/>
+    <mergeCell ref="S46:Y46"/>
+    <mergeCell ref="B42:I42"/>
+    <mergeCell ref="B48:Y49"/>
+    <mergeCell ref="B44:I44"/>
+    <mergeCell ref="B22:J22"/>
+    <mergeCell ref="K22:Y22"/>
+    <mergeCell ref="O16:Q17"/>
+    <mergeCell ref="S16:T17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="N16:N17"/>
+    <mergeCell ref="K16:M17"/>
+    <mergeCell ref="R16:R17"/>
+    <mergeCell ref="K42:Q42"/>
+    <mergeCell ref="O34:T35"/>
+    <mergeCell ref="O36:T37"/>
+    <mergeCell ref="U34:Y35"/>
+    <mergeCell ref="U36:Y37"/>
+    <mergeCell ref="M26:N33"/>
+    <mergeCell ref="K23:Y23"/>
+    <mergeCell ref="U25:Y25"/>
+    <mergeCell ref="O25:T25"/>
+    <mergeCell ref="W1:Y1"/>
+    <mergeCell ref="W2:Y2"/>
+    <mergeCell ref="B1:V2"/>
+    <mergeCell ref="B3:Y3"/>
+    <mergeCell ref="B4:Y4"/>
+    <mergeCell ref="B5:Y5"/>
+    <mergeCell ref="B7:Y7"/>
+    <mergeCell ref="B8:Y8"/>
+    <mergeCell ref="B15:Y15"/>
+    <mergeCell ref="J19:N19"/>
+    <mergeCell ref="J20:N20"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="B25:J25"/>
+    <mergeCell ref="B10:L10"/>
+    <mergeCell ref="B13:J13"/>
+    <mergeCell ref="B12:J12"/>
+    <mergeCell ref="B16:C17"/>
+    <mergeCell ref="D16:D17"/>
     <mergeCell ref="B6:Y6"/>
     <mergeCell ref="V16:X17"/>
     <mergeCell ref="U16:U17"/>
@@ -4193,59 +4274,22 @@
     <mergeCell ref="P10:S10"/>
     <mergeCell ref="M9:O9"/>
     <mergeCell ref="M10:O10"/>
-    <mergeCell ref="B10:L10"/>
-    <mergeCell ref="B13:J13"/>
-    <mergeCell ref="B12:J12"/>
-    <mergeCell ref="B16:C17"/>
-    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="Q13:Y13"/>
+    <mergeCell ref="B40:I41"/>
+    <mergeCell ref="O26:T33"/>
+    <mergeCell ref="U26:Y33"/>
+    <mergeCell ref="B36:J37"/>
+    <mergeCell ref="K36:L37"/>
+    <mergeCell ref="M36:N37"/>
+    <mergeCell ref="O19:S19"/>
+    <mergeCell ref="O20:S20"/>
+    <mergeCell ref="T19:Y19"/>
+    <mergeCell ref="T20:Y20"/>
+    <mergeCell ref="B23:J23"/>
     <mergeCell ref="B26:J33"/>
     <mergeCell ref="K26:L33"/>
     <mergeCell ref="B19:I19"/>
     <mergeCell ref="B20:I20"/>
-    <mergeCell ref="J19:N19"/>
-    <mergeCell ref="J20:N20"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="B25:J25"/>
-    <mergeCell ref="M26:N33"/>
-    <mergeCell ref="K23:Y23"/>
-    <mergeCell ref="U25:Y25"/>
-    <mergeCell ref="O25:T25"/>
-    <mergeCell ref="W1:Y1"/>
-    <mergeCell ref="W2:Y2"/>
-    <mergeCell ref="B1:V2"/>
-    <mergeCell ref="B3:Y3"/>
-    <mergeCell ref="B4:Y4"/>
-    <mergeCell ref="B5:Y5"/>
-    <mergeCell ref="B7:Y7"/>
-    <mergeCell ref="B8:Y8"/>
-    <mergeCell ref="B15:Y15"/>
-    <mergeCell ref="B48:Y49"/>
-    <mergeCell ref="B44:I44"/>
-    <mergeCell ref="B22:J22"/>
-    <mergeCell ref="K22:Y22"/>
-    <mergeCell ref="O16:Q17"/>
-    <mergeCell ref="S16:T17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="N16:N17"/>
-    <mergeCell ref="K16:M17"/>
-    <mergeCell ref="R16:R17"/>
-    <mergeCell ref="K42:Q42"/>
-    <mergeCell ref="O34:T35"/>
-    <mergeCell ref="O36:T37"/>
-    <mergeCell ref="U34:Y35"/>
-    <mergeCell ref="U36:Y37"/>
-    <mergeCell ref="Q47:U47"/>
-    <mergeCell ref="T42:X42"/>
-    <mergeCell ref="B38:Y38"/>
-    <mergeCell ref="B46:I46"/>
-    <mergeCell ref="K46:Q46"/>
-    <mergeCell ref="S46:Y46"/>
-    <mergeCell ref="B42:I42"/>
-    <mergeCell ref="K34:L35"/>
-    <mergeCell ref="M34:N35"/>
-    <mergeCell ref="B34:J35"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="Q13" r:id="rId1" xr:uid="{CD07D1C3-D900-45BE-A4BB-EDC2F8489F90}"/>
@@ -4273,124 +4317,124 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="130" t="s">
+      <c r="A1" s="151" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="130"/>
-      <c r="C1" s="130"/>
-      <c r="D1" s="130"/>
-      <c r="E1" s="130"/>
-      <c r="F1" s="130"/>
-      <c r="G1" s="130"/>
-      <c r="H1" s="130"/>
-      <c r="I1" s="130"/>
-      <c r="J1" s="130"/>
-      <c r="K1" s="130"/>
-      <c r="L1" s="130"/>
-      <c r="M1" s="130"/>
-      <c r="N1" s="130"/>
-      <c r="O1" s="130"/>
-      <c r="P1" s="130"/>
-      <c r="Q1" s="130"/>
-      <c r="R1" s="130"/>
-      <c r="S1" s="130"/>
-      <c r="T1" s="130"/>
-      <c r="U1" s="130" t="s">
+      <c r="B1" s="151"/>
+      <c r="C1" s="151"/>
+      <c r="D1" s="151"/>
+      <c r="E1" s="151"/>
+      <c r="F1" s="151"/>
+      <c r="G1" s="151"/>
+      <c r="H1" s="151"/>
+      <c r="I1" s="151"/>
+      <c r="J1" s="151"/>
+      <c r="K1" s="151"/>
+      <c r="L1" s="151"/>
+      <c r="M1" s="151"/>
+      <c r="N1" s="151"/>
+      <c r="O1" s="151"/>
+      <c r="P1" s="151"/>
+      <c r="Q1" s="151"/>
+      <c r="R1" s="151"/>
+      <c r="S1" s="151"/>
+      <c r="T1" s="151"/>
+      <c r="U1" s="151" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="130"/>
-      <c r="W1" s="130"/>
-      <c r="X1" s="130"/>
+      <c r="V1" s="151"/>
+      <c r="W1" s="151"/>
+      <c r="X1" s="151"/>
     </row>
     <row r="2" spans="1:24" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="130"/>
-      <c r="B2" s="130"/>
-      <c r="C2" s="130"/>
-      <c r="D2" s="130"/>
-      <c r="E2" s="130"/>
-      <c r="F2" s="130"/>
-      <c r="G2" s="130"/>
-      <c r="H2" s="130"/>
-      <c r="I2" s="130"/>
-      <c r="J2" s="130"/>
-      <c r="K2" s="130"/>
-      <c r="L2" s="130"/>
-      <c r="M2" s="130"/>
-      <c r="N2" s="130"/>
-      <c r="O2" s="130"/>
-      <c r="P2" s="130"/>
-      <c r="Q2" s="130"/>
-      <c r="R2" s="130"/>
-      <c r="S2" s="130"/>
-      <c r="T2" s="130"/>
-      <c r="U2" s="138" t="s">
+      <c r="A2" s="151"/>
+      <c r="B2" s="151"/>
+      <c r="C2" s="151"/>
+      <c r="D2" s="151"/>
+      <c r="E2" s="151"/>
+      <c r="F2" s="151"/>
+      <c r="G2" s="151"/>
+      <c r="H2" s="151"/>
+      <c r="I2" s="151"/>
+      <c r="J2" s="151"/>
+      <c r="K2" s="151"/>
+      <c r="L2" s="151"/>
+      <c r="M2" s="151"/>
+      <c r="N2" s="151"/>
+      <c r="O2" s="151"/>
+      <c r="P2" s="151"/>
+      <c r="Q2" s="151"/>
+      <c r="R2" s="151"/>
+      <c r="S2" s="151"/>
+      <c r="T2" s="151"/>
+      <c r="U2" s="136" t="s">
         <v>20</v>
       </c>
-      <c r="V2" s="138"/>
-      <c r="W2" s="138"/>
-      <c r="X2" s="138"/>
+      <c r="V2" s="136"/>
+      <c r="W2" s="136"/>
+      <c r="X2" s="136"/>
     </row>
     <row r="3" spans="1:24" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="U3" s="139"/>
-      <c r="V3" s="139"/>
-      <c r="W3" s="139"/>
-      <c r="X3" s="139"/>
+      <c r="U3" s="158"/>
+      <c r="V3" s="158"/>
+      <c r="W3" s="158"/>
+      <c r="X3" s="158"/>
     </row>
     <row r="4" spans="1:24" s="2" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="135" t="s">
+      <c r="A4" s="155" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="136"/>
-      <c r="C4" s="136"/>
-      <c r="D4" s="136"/>
-      <c r="E4" s="136"/>
-      <c r="F4" s="136"/>
-      <c r="G4" s="136"/>
-      <c r="H4" s="136"/>
-      <c r="I4" s="136"/>
-      <c r="J4" s="136"/>
-      <c r="K4" s="136"/>
-      <c r="L4" s="136"/>
-      <c r="M4" s="137"/>
-      <c r="N4" s="135" t="s">
+      <c r="B4" s="156"/>
+      <c r="C4" s="156"/>
+      <c r="D4" s="156"/>
+      <c r="E4" s="156"/>
+      <c r="F4" s="156"/>
+      <c r="G4" s="156"/>
+      <c r="H4" s="156"/>
+      <c r="I4" s="156"/>
+      <c r="J4" s="156"/>
+      <c r="K4" s="156"/>
+      <c r="L4" s="156"/>
+      <c r="M4" s="157"/>
+      <c r="N4" s="155" t="s">
         <v>22</v>
       </c>
-      <c r="O4" s="136"/>
-      <c r="P4" s="136"/>
-      <c r="Q4" s="136"/>
-      <c r="R4" s="136"/>
-      <c r="S4" s="136"/>
-      <c r="T4" s="136"/>
-      <c r="U4" s="136"/>
-      <c r="V4" s="136"/>
-      <c r="W4" s="136"/>
-      <c r="X4" s="137"/>
+      <c r="O4" s="156"/>
+      <c r="P4" s="156"/>
+      <c r="Q4" s="156"/>
+      <c r="R4" s="156"/>
+      <c r="S4" s="156"/>
+      <c r="T4" s="156"/>
+      <c r="U4" s="156"/>
+      <c r="V4" s="156"/>
+      <c r="W4" s="156"/>
+      <c r="X4" s="157"/>
     </row>
     <row r="5" spans="1:24" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="132"/>
-      <c r="B5" s="133"/>
-      <c r="C5" s="133"/>
-      <c r="D5" s="133"/>
-      <c r="E5" s="133"/>
-      <c r="F5" s="133"/>
-      <c r="G5" s="133"/>
-      <c r="H5" s="133"/>
-      <c r="I5" s="133"/>
-      <c r="J5" s="133"/>
-      <c r="K5" s="133"/>
-      <c r="L5" s="133"/>
-      <c r="M5" s="134"/>
-      <c r="N5" s="132"/>
-      <c r="O5" s="133"/>
-      <c r="P5" s="133"/>
-      <c r="Q5" s="133"/>
-      <c r="R5" s="133"/>
-      <c r="S5" s="133"/>
-      <c r="T5" s="133"/>
-      <c r="U5" s="133"/>
-      <c r="V5" s="133"/>
-      <c r="W5" s="133"/>
-      <c r="X5" s="134"/>
+      <c r="A5" s="152"/>
+      <c r="B5" s="153"/>
+      <c r="C5" s="153"/>
+      <c r="D5" s="153"/>
+      <c r="E5" s="153"/>
+      <c r="F5" s="153"/>
+      <c r="G5" s="153"/>
+      <c r="H5" s="153"/>
+      <c r="I5" s="153"/>
+      <c r="J5" s="153"/>
+      <c r="K5" s="153"/>
+      <c r="L5" s="153"/>
+      <c r="M5" s="154"/>
+      <c r="N5" s="152"/>
+      <c r="O5" s="153"/>
+      <c r="P5" s="153"/>
+      <c r="Q5" s="153"/>
+      <c r="R5" s="153"/>
+      <c r="S5" s="153"/>
+      <c r="T5" s="153"/>
+      <c r="U5" s="153"/>
+      <c r="V5" s="153"/>
+      <c r="W5" s="153"/>
+      <c r="X5" s="154"/>
     </row>
     <row r="6" spans="1:24" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
@@ -4419,66 +4463,66 @@
       <c r="X6" s="3"/>
     </row>
     <row r="7" spans="1:24" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="131" t="s">
+      <c r="A7" s="134" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="131"/>
-      <c r="C7" s="131"/>
-      <c r="D7" s="131"/>
-      <c r="E7" s="131"/>
-      <c r="F7" s="131"/>
-      <c r="G7" s="131"/>
-      <c r="H7" s="131"/>
-      <c r="I7" s="131"/>
-      <c r="J7" s="131" t="s">
+      <c r="B7" s="134"/>
+      <c r="C7" s="134"/>
+      <c r="D7" s="134"/>
+      <c r="E7" s="134"/>
+      <c r="F7" s="134"/>
+      <c r="G7" s="134"/>
+      <c r="H7" s="134"/>
+      <c r="I7" s="134"/>
+      <c r="J7" s="134" t="s">
         <v>5</v>
       </c>
-      <c r="K7" s="131"/>
-      <c r="L7" s="131"/>
-      <c r="M7" s="131"/>
-      <c r="N7" s="131"/>
-      <c r="O7" s="131"/>
-      <c r="P7" s="131" t="s">
+      <c r="K7" s="134"/>
+      <c r="L7" s="134"/>
+      <c r="M7" s="134"/>
+      <c r="N7" s="134"/>
+      <c r="O7" s="134"/>
+      <c r="P7" s="134" t="s">
         <v>6</v>
       </c>
-      <c r="Q7" s="131"/>
-      <c r="R7" s="131"/>
-      <c r="S7" s="131"/>
-      <c r="T7" s="131"/>
-      <c r="U7" s="131"/>
-      <c r="V7" s="131"/>
-      <c r="W7" s="131"/>
-      <c r="X7" s="131"/>
+      <c r="Q7" s="134"/>
+      <c r="R7" s="134"/>
+      <c r="S7" s="134"/>
+      <c r="T7" s="134"/>
+      <c r="U7" s="134"/>
+      <c r="V7" s="134"/>
+      <c r="W7" s="134"/>
+      <c r="X7" s="134"/>
     </row>
     <row r="8" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="108"/>
-      <c r="B8" s="108"/>
-      <c r="C8" s="108"/>
-      <c r="D8" s="108"/>
-      <c r="E8" s="108"/>
-      <c r="F8" s="108"/>
-      <c r="G8" s="108"/>
-      <c r="H8" s="108"/>
-      <c r="I8" s="108"/>
-      <c r="J8" s="140" t="s">
+      <c r="A8" s="102"/>
+      <c r="B8" s="102"/>
+      <c r="C8" s="102"/>
+      <c r="D8" s="102"/>
+      <c r="E8" s="102"/>
+      <c r="F8" s="102"/>
+      <c r="G8" s="102"/>
+      <c r="H8" s="102"/>
+      <c r="I8" s="102"/>
+      <c r="J8" s="141" t="s">
         <v>24</v>
       </c>
-      <c r="K8" s="141"/>
-      <c r="L8" s="141"/>
-      <c r="M8" s="141"/>
-      <c r="N8" s="141"/>
-      <c r="O8" s="142"/>
-      <c r="P8" s="140" t="s">
+      <c r="K8" s="142"/>
+      <c r="L8" s="142"/>
+      <c r="M8" s="142"/>
+      <c r="N8" s="142"/>
+      <c r="O8" s="143"/>
+      <c r="P8" s="141" t="s">
         <v>25</v>
       </c>
-      <c r="Q8" s="141"/>
-      <c r="R8" s="141"/>
-      <c r="S8" s="141"/>
-      <c r="T8" s="141"/>
-      <c r="U8" s="141"/>
-      <c r="V8" s="141"/>
-      <c r="W8" s="141"/>
-      <c r="X8" s="142"/>
+      <c r="Q8" s="142"/>
+      <c r="R8" s="142"/>
+      <c r="S8" s="142"/>
+      <c r="T8" s="142"/>
+      <c r="U8" s="142"/>
+      <c r="V8" s="142"/>
+      <c r="W8" s="142"/>
+      <c r="X8" s="143"/>
     </row>
     <row r="9" spans="1:24" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
@@ -4507,66 +4551,66 @@
       <c r="X9" s="3"/>
     </row>
     <row r="10" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="65" t="s">
+      <c r="A10" s="116" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="65"/>
-      <c r="C10" s="65"/>
-      <c r="D10" s="65"/>
-      <c r="E10" s="65"/>
-      <c r="F10" s="65"/>
-      <c r="G10" s="65"/>
-      <c r="H10" s="65"/>
-      <c r="I10" s="65"/>
-      <c r="J10" s="65"/>
-      <c r="K10" s="65"/>
-      <c r="L10" s="65"/>
-      <c r="M10" s="65"/>
-      <c r="N10" s="65"/>
-      <c r="O10" s="65"/>
-      <c r="P10" s="65"/>
-      <c r="Q10" s="65"/>
-      <c r="R10" s="65"/>
-      <c r="S10" s="65"/>
-      <c r="T10" s="65"/>
-      <c r="U10" s="65"/>
-      <c r="V10" s="65"/>
-      <c r="W10" s="65"/>
-      <c r="X10" s="65"/>
+      <c r="B10" s="116"/>
+      <c r="C10" s="116"/>
+      <c r="D10" s="116"/>
+      <c r="E10" s="116"/>
+      <c r="F10" s="116"/>
+      <c r="G10" s="116"/>
+      <c r="H10" s="116"/>
+      <c r="I10" s="116"/>
+      <c r="J10" s="116"/>
+      <c r="K10" s="116"/>
+      <c r="L10" s="116"/>
+      <c r="M10" s="116"/>
+      <c r="N10" s="116"/>
+      <c r="O10" s="116"/>
+      <c r="P10" s="116"/>
+      <c r="Q10" s="116"/>
+      <c r="R10" s="116"/>
+      <c r="S10" s="116"/>
+      <c r="T10" s="116"/>
+      <c r="U10" s="116"/>
+      <c r="V10" s="116"/>
+      <c r="W10" s="116"/>
+      <c r="X10" s="116"/>
     </row>
     <row r="11" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="118" t="s">
+      <c r="A11" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="118"/>
-      <c r="C11" s="118"/>
-      <c r="D11" s="118"/>
-      <c r="E11" s="118"/>
-      <c r="F11" s="118"/>
-      <c r="G11" s="118" t="s">
+      <c r="B11" s="75"/>
+      <c r="C11" s="75"/>
+      <c r="D11" s="75"/>
+      <c r="E11" s="75"/>
+      <c r="F11" s="75"/>
+      <c r="G11" s="75" t="s">
         <v>27</v>
       </c>
-      <c r="H11" s="118"/>
-      <c r="I11" s="118"/>
-      <c r="J11" s="118"/>
-      <c r="K11" s="118"/>
-      <c r="L11" s="118"/>
-      <c r="M11" s="118" t="s">
+      <c r="H11" s="75"/>
+      <c r="I11" s="75"/>
+      <c r="J11" s="75"/>
+      <c r="K11" s="75"/>
+      <c r="L11" s="75"/>
+      <c r="M11" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="N11" s="118"/>
-      <c r="O11" s="118"/>
-      <c r="P11" s="118"/>
-      <c r="Q11" s="118"/>
-      <c r="R11" s="118"/>
-      <c r="S11" s="118" t="s">
+      <c r="N11" s="75"/>
+      <c r="O11" s="75"/>
+      <c r="P11" s="75"/>
+      <c r="Q11" s="75"/>
+      <c r="R11" s="75"/>
+      <c r="S11" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="T11" s="118"/>
-      <c r="U11" s="118"/>
-      <c r="V11" s="118"/>
-      <c r="W11" s="118"/>
-      <c r="X11" s="118"/>
+      <c r="T11" s="75"/>
+      <c r="U11" s="75"/>
+      <c r="V11" s="75"/>
+      <c r="W11" s="75"/>
+      <c r="X11" s="75"/>
     </row>
     <row r="12" spans="1:24" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
@@ -4595,66 +4639,66 @@
       <c r="X12" s="3"/>
     </row>
     <row r="13" spans="1:24" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="131" t="s">
+      <c r="A13" s="134" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="131"/>
-      <c r="C13" s="131"/>
-      <c r="D13" s="131"/>
-      <c r="E13" s="131"/>
-      <c r="F13" s="131"/>
-      <c r="G13" s="131"/>
-      <c r="H13" s="131"/>
-      <c r="I13" s="131"/>
-      <c r="J13" s="131" t="s">
+      <c r="B13" s="134"/>
+      <c r="C13" s="134"/>
+      <c r="D13" s="134"/>
+      <c r="E13" s="134"/>
+      <c r="F13" s="134"/>
+      <c r="G13" s="134"/>
+      <c r="H13" s="134"/>
+      <c r="I13" s="134"/>
+      <c r="J13" s="134" t="s">
         <v>5</v>
       </c>
-      <c r="K13" s="131"/>
-      <c r="L13" s="131"/>
-      <c r="M13" s="131"/>
-      <c r="N13" s="131"/>
-      <c r="O13" s="131"/>
-      <c r="P13" s="131" t="s">
+      <c r="K13" s="134"/>
+      <c r="L13" s="134"/>
+      <c r="M13" s="134"/>
+      <c r="N13" s="134"/>
+      <c r="O13" s="134"/>
+      <c r="P13" s="134" t="s">
         <v>6</v>
       </c>
-      <c r="Q13" s="131"/>
-      <c r="R13" s="131"/>
-      <c r="S13" s="131"/>
-      <c r="T13" s="131"/>
-      <c r="U13" s="131"/>
-      <c r="V13" s="131"/>
-      <c r="W13" s="131"/>
-      <c r="X13" s="131"/>
+      <c r="Q13" s="134"/>
+      <c r="R13" s="134"/>
+      <c r="S13" s="134"/>
+      <c r="T13" s="134"/>
+      <c r="U13" s="134"/>
+      <c r="V13" s="134"/>
+      <c r="W13" s="134"/>
+      <c r="X13" s="134"/>
     </row>
     <row r="14" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="108"/>
-      <c r="B14" s="108"/>
-      <c r="C14" s="108"/>
-      <c r="D14" s="108"/>
-      <c r="E14" s="108"/>
-      <c r="F14" s="108"/>
-      <c r="G14" s="108"/>
-      <c r="H14" s="108"/>
-      <c r="I14" s="108"/>
-      <c r="J14" s="140" t="s">
+      <c r="A14" s="102"/>
+      <c r="B14" s="102"/>
+      <c r="C14" s="102"/>
+      <c r="D14" s="102"/>
+      <c r="E14" s="102"/>
+      <c r="F14" s="102"/>
+      <c r="G14" s="102"/>
+      <c r="H14" s="102"/>
+      <c r="I14" s="102"/>
+      <c r="J14" s="141" t="s">
         <v>29</v>
       </c>
-      <c r="K14" s="141"/>
-      <c r="L14" s="141"/>
-      <c r="M14" s="141"/>
-      <c r="N14" s="141"/>
-      <c r="O14" s="142"/>
-      <c r="P14" s="140" t="s">
+      <c r="K14" s="142"/>
+      <c r="L14" s="142"/>
+      <c r="M14" s="142"/>
+      <c r="N14" s="142"/>
+      <c r="O14" s="143"/>
+      <c r="P14" s="141" t="s">
         <v>30</v>
       </c>
-      <c r="Q14" s="141"/>
-      <c r="R14" s="141"/>
-      <c r="S14" s="141"/>
-      <c r="T14" s="141"/>
-      <c r="U14" s="141"/>
-      <c r="V14" s="141"/>
-      <c r="W14" s="141"/>
-      <c r="X14" s="142"/>
+      <c r="Q14" s="142"/>
+      <c r="R14" s="142"/>
+      <c r="S14" s="142"/>
+      <c r="T14" s="142"/>
+      <c r="U14" s="142"/>
+      <c r="V14" s="142"/>
+      <c r="W14" s="142"/>
+      <c r="X14" s="143"/>
     </row>
     <row r="15" spans="1:24" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
@@ -4683,172 +4727,184 @@
       <c r="X15" s="3"/>
     </row>
     <row r="16" spans="1:24" s="4" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="54" t="s">
+      <c r="A16" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="54"/>
-      <c r="C16" s="54"/>
-      <c r="D16" s="54"/>
-      <c r="E16" s="54"/>
-      <c r="F16" s="54"/>
-      <c r="G16" s="54"/>
-      <c r="H16" s="54"/>
-      <c r="I16" s="54"/>
-      <c r="J16" s="123" t="s">
+      <c r="B16" s="48"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="48"/>
+      <c r="H16" s="48"/>
+      <c r="I16" s="48"/>
+      <c r="J16" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="K16" s="123"/>
-      <c r="L16" s="123"/>
-      <c r="M16" s="123"/>
-      <c r="N16" s="54" t="s">
+      <c r="K16" s="49"/>
+      <c r="L16" s="49"/>
+      <c r="M16" s="49"/>
+      <c r="N16" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="O16" s="54"/>
-      <c r="P16" s="54"/>
-      <c r="Q16" s="54"/>
-      <c r="R16" s="54"/>
-      <c r="S16" s="54"/>
-      <c r="T16" s="148" t="s">
+      <c r="O16" s="48"/>
+      <c r="P16" s="48"/>
+      <c r="Q16" s="48"/>
+      <c r="R16" s="48"/>
+      <c r="S16" s="48"/>
+      <c r="T16" s="144" t="s">
         <v>33</v>
       </c>
-      <c r="U16" s="148"/>
-      <c r="V16" s="148"/>
-      <c r="W16" s="148"/>
-      <c r="X16" s="148"/>
+      <c r="U16" s="144"/>
+      <c r="V16" s="144"/>
+      <c r="W16" s="144"/>
+      <c r="X16" s="144"/>
     </row>
     <row r="17" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="143" t="s">
+      <c r="A17" s="135" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="138"/>
-      <c r="C17" s="138"/>
-      <c r="D17" s="138"/>
-      <c r="E17" s="138"/>
-      <c r="F17" s="138"/>
-      <c r="G17" s="138"/>
-      <c r="H17" s="138"/>
-      <c r="I17" s="144"/>
-      <c r="J17" s="149" t="s">
+      <c r="B17" s="136"/>
+      <c r="C17" s="136"/>
+      <c r="D17" s="136"/>
+      <c r="E17" s="136"/>
+      <c r="F17" s="136"/>
+      <c r="G17" s="136"/>
+      <c r="H17" s="136"/>
+      <c r="I17" s="137"/>
+      <c r="J17" s="145" t="s">
         <v>35</v>
       </c>
-      <c r="K17" s="150"/>
-      <c r="L17" s="150"/>
-      <c r="M17" s="151"/>
-      <c r="N17" s="143" t="s">
+      <c r="K17" s="146"/>
+      <c r="L17" s="146"/>
+      <c r="M17" s="147"/>
+      <c r="N17" s="135" t="s">
         <v>36</v>
       </c>
-      <c r="O17" s="138"/>
-      <c r="P17" s="138"/>
-      <c r="Q17" s="138"/>
-      <c r="R17" s="138"/>
-      <c r="S17" s="144"/>
-      <c r="T17" s="143" t="s">
+      <c r="O17" s="136"/>
+      <c r="P17" s="136"/>
+      <c r="Q17" s="136"/>
+      <c r="R17" s="136"/>
+      <c r="S17" s="137"/>
+      <c r="T17" s="135" t="s">
         <v>37</v>
       </c>
-      <c r="U17" s="138"/>
-      <c r="V17" s="138"/>
-      <c r="W17" s="138"/>
-      <c r="X17" s="144"/>
+      <c r="U17" s="136"/>
+      <c r="V17" s="136"/>
+      <c r="W17" s="136"/>
+      <c r="X17" s="137"/>
     </row>
     <row r="18" spans="1:24" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="145"/>
-      <c r="B18" s="146"/>
-      <c r="C18" s="146"/>
-      <c r="D18" s="146"/>
-      <c r="E18" s="146"/>
-      <c r="F18" s="146"/>
-      <c r="G18" s="146"/>
-      <c r="H18" s="146"/>
-      <c r="I18" s="147"/>
-      <c r="J18" s="152"/>
-      <c r="K18" s="153"/>
-      <c r="L18" s="153"/>
-      <c r="M18" s="154"/>
-      <c r="N18" s="145"/>
-      <c r="O18" s="146"/>
-      <c r="P18" s="146"/>
-      <c r="Q18" s="146"/>
-      <c r="R18" s="146"/>
-      <c r="S18" s="147"/>
-      <c r="T18" s="145"/>
-      <c r="U18" s="146"/>
-      <c r="V18" s="146"/>
-      <c r="W18" s="146"/>
-      <c r="X18" s="147"/>
+      <c r="A18" s="138"/>
+      <c r="B18" s="139"/>
+      <c r="C18" s="139"/>
+      <c r="D18" s="139"/>
+      <c r="E18" s="139"/>
+      <c r="F18" s="139"/>
+      <c r="G18" s="139"/>
+      <c r="H18" s="139"/>
+      <c r="I18" s="140"/>
+      <c r="J18" s="148"/>
+      <c r="K18" s="149"/>
+      <c r="L18" s="149"/>
+      <c r="M18" s="150"/>
+      <c r="N18" s="138"/>
+      <c r="O18" s="139"/>
+      <c r="P18" s="139"/>
+      <c r="Q18" s="139"/>
+      <c r="R18" s="139"/>
+      <c r="S18" s="140"/>
+      <c r="T18" s="138"/>
+      <c r="U18" s="139"/>
+      <c r="V18" s="139"/>
+      <c r="W18" s="139"/>
+      <c r="X18" s="140"/>
     </row>
     <row r="19" spans="1:24" ht="39" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="20" spans="1:24" ht="39" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="21" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A21" s="158" t="s">
+      <c r="A21" s="133" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="158"/>
-      <c r="C21" s="158"/>
-      <c r="D21" s="158"/>
-      <c r="E21" s="158"/>
-      <c r="F21" s="158"/>
-      <c r="G21" s="158"/>
-      <c r="H21" s="158"/>
+      <c r="B21" s="133"/>
+      <c r="C21" s="133"/>
+      <c r="D21" s="133"/>
+      <c r="E21" s="133"/>
+      <c r="F21" s="133"/>
+      <c r="G21" s="133"/>
+      <c r="H21" s="133"/>
       <c r="I21" s="5"/>
-      <c r="J21" s="158" t="s">
+      <c r="J21" s="133" t="s">
         <v>16</v>
       </c>
-      <c r="K21" s="158"/>
-      <c r="L21" s="158"/>
-      <c r="M21" s="158"/>
-      <c r="N21" s="158"/>
-      <c r="O21" s="158"/>
-      <c r="P21" s="158"/>
+      <c r="K21" s="133"/>
+      <c r="L21" s="133"/>
+      <c r="M21" s="133"/>
+      <c r="N21" s="133"/>
+      <c r="O21" s="133"/>
+      <c r="P21" s="133"/>
       <c r="Q21" s="6"/>
-      <c r="R21" s="158" t="s">
+      <c r="R21" s="133" t="s">
         <v>38</v>
       </c>
-      <c r="S21" s="158"/>
-      <c r="T21" s="158"/>
-      <c r="U21" s="158"/>
-      <c r="V21" s="158"/>
-      <c r="W21" s="158"/>
-      <c r="X21" s="158"/>
+      <c r="S21" s="133"/>
+      <c r="T21" s="133"/>
+      <c r="U21" s="133"/>
+      <c r="V21" s="133"/>
+      <c r="W21" s="133"/>
+      <c r="X21" s="133"/>
     </row>
     <row r="23" spans="1:24" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="P23" s="155" t="s">
+      <c r="P23" s="130" t="s">
         <v>39</v>
       </c>
-      <c r="Q23" s="155"/>
-      <c r="R23" s="155"/>
-      <c r="S23" s="155"/>
-      <c r="T23" s="155"/>
-      <c r="U23" s="156" t="s">
+      <c r="Q23" s="130"/>
+      <c r="R23" s="130"/>
+      <c r="S23" s="130"/>
+      <c r="T23" s="130"/>
+      <c r="U23" s="131" t="s">
         <v>40</v>
       </c>
-      <c r="V23" s="156"/>
-      <c r="W23" s="156"/>
-      <c r="X23" s="156"/>
+      <c r="V23" s="131"/>
+      <c r="W23" s="131"/>
+      <c r="X23" s="131"/>
     </row>
     <row r="24" spans="1:24" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="P24" s="155" t="s">
+      <c r="P24" s="130" t="s">
         <v>41</v>
       </c>
-      <c r="Q24" s="155"/>
-      <c r="R24" s="155"/>
-      <c r="S24" s="155"/>
-      <c r="T24" s="155"/>
-      <c r="U24" s="157" t="s">
+      <c r="Q24" s="130"/>
+      <c r="R24" s="130"/>
+      <c r="S24" s="130"/>
+      <c r="T24" s="130"/>
+      <c r="U24" s="132" t="s">
         <v>42</v>
       </c>
-      <c r="V24" s="157"/>
-      <c r="W24" s="157"/>
-      <c r="X24" s="157"/>
+      <c r="V24" s="132"/>
+      <c r="W24" s="132"/>
+      <c r="X24" s="132"/>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="P23:T23"/>
-    <mergeCell ref="U23:X23"/>
-    <mergeCell ref="P24:T24"/>
-    <mergeCell ref="U24:X24"/>
-    <mergeCell ref="A21:H21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="R21:X21"/>
+    <mergeCell ref="A1:T1"/>
+    <mergeCell ref="U1:X1"/>
+    <mergeCell ref="A2:T2"/>
+    <mergeCell ref="A7:I7"/>
+    <mergeCell ref="J7:O7"/>
+    <mergeCell ref="P7:X7"/>
+    <mergeCell ref="A5:M5"/>
+    <mergeCell ref="A4:M4"/>
+    <mergeCell ref="N4:X4"/>
+    <mergeCell ref="N5:X5"/>
+    <mergeCell ref="U2:X3"/>
+    <mergeCell ref="A8:I8"/>
+    <mergeCell ref="J8:O8"/>
+    <mergeCell ref="P8:X8"/>
+    <mergeCell ref="A10:X10"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="G11:L11"/>
+    <mergeCell ref="M11:R11"/>
+    <mergeCell ref="S11:X11"/>
     <mergeCell ref="A13:I13"/>
     <mergeCell ref="J13:O13"/>
     <mergeCell ref="P13:X13"/>
@@ -4863,25 +4919,13 @@
     <mergeCell ref="T16:X16"/>
     <mergeCell ref="A17:I18"/>
     <mergeCell ref="J17:M18"/>
-    <mergeCell ref="A8:I8"/>
-    <mergeCell ref="J8:O8"/>
-    <mergeCell ref="P8:X8"/>
-    <mergeCell ref="A10:X10"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="G11:L11"/>
-    <mergeCell ref="M11:R11"/>
-    <mergeCell ref="S11:X11"/>
-    <mergeCell ref="A1:T1"/>
-    <mergeCell ref="U1:X1"/>
-    <mergeCell ref="A2:T2"/>
-    <mergeCell ref="A7:I7"/>
-    <mergeCell ref="J7:O7"/>
-    <mergeCell ref="P7:X7"/>
-    <mergeCell ref="A5:M5"/>
-    <mergeCell ref="A4:M4"/>
-    <mergeCell ref="N4:X4"/>
-    <mergeCell ref="N5:X5"/>
-    <mergeCell ref="U2:X3"/>
+    <mergeCell ref="P23:T23"/>
+    <mergeCell ref="U23:X23"/>
+    <mergeCell ref="P24:T24"/>
+    <mergeCell ref="U24:X24"/>
+    <mergeCell ref="A21:H21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="R21:X21"/>
   </mergeCells>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="95" orientation="landscape" horizontalDpi="4294967294" verticalDpi="200" r:id="rId1"/>
